--- a/data_G.xlsx
+++ b/data_G.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="782">
   <si>
     <t>questName</t>
   </si>
@@ -289,7 +289,7 @@
     <t>콩가(コンガ) 20마리 토벌</t>
   </si>
   <si>
-    <t>도스마콰(ドスマッカォ) 1마리 수렵</t>
+    <t>도스마카오(ドスマッカォ) 1마리 수렵</t>
   </si>
   <si>
     <t>5700z</t>
@@ -319,7 +319,7 @@
     <t>테츠카브라(テツカブラ) 1마리 수렵</t>
   </si>
   <si>
-    <t>마콰(マッカォ) 8마리 토벌</t>
+    <t>마카오(マッカォ) 8마리 토벌</t>
   </si>
   <si>
     <t>1100z</t>
@@ -487,883 +487,1054 @@
     <t>依頼委託：火山の岩竜</t>
   </si>
   <si>
+    <t>의뢰위탁 : 화산의 암룡</t>
+  </si>
+  <si>
     <t>G★2</t>
   </si>
   <si>
+    <t>화산(火山)</t>
+  </si>
+  <si>
+    <t>바살모스(バサルモス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>가브라스(ガブラス) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>4200z</t>
+  </si>
+  <si>
+    <t>陰湿毒沼の狂想曲</t>
+  </si>
+  <si>
+    <t>음습독소의 광상곡</t>
+  </si>
+  <si>
+    <t>늪지(沼地)</t>
+  </si>
+  <si>
+    <t>가라라아자라(ガララアジャラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>가미자미(ガミザミ) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>14700z</t>
+  </si>
+  <si>
+    <t>獰猛な蛙は鬼よりも強く</t>
+  </si>
+  <si>
+    <t>영맹한 개구리는 귀신보다도 강하다</t>
+  </si>
+  <si>
+    <t>빙해(氷海)</t>
+  </si>
+  <si>
+    <t>영맹화 테츠카브라(獰猛化テツカブラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>테츠카브라(テツカブラ)의 턱과 등 파괴</t>
+  </si>
+  <si>
+    <t>貝殻に思いをのせて</t>
+  </si>
+  <si>
+    <t>조개 껍데기에 마음을 실어서</t>
+  </si>
+  <si>
+    <t>밀림(密林)</t>
+  </si>
+  <si>
+    <t>예쁜 조개 껍데기(きれいな貝殻) 20개 납품</t>
+  </si>
+  <si>
+    <t>란포스(ランポス) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>閃きへの1ピースを求めて</t>
+  </si>
+  <si>
+    <t>번뜩임의 한 조각을 찾아서</t>
+  </si>
+  <si>
+    <t>자보아자길(ザボアザギル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>자보아자길(ザボアザギル)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>……欲するならば資格を示して</t>
+  </si>
+  <si>
+    <t>......원한다면 자격을 보여라</t>
+  </si>
+  <si>
+    <t>도도블랑고(ドドブランゴ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>도도블랑고(ドドブランゴ)의 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>13500z</t>
+  </si>
+  <si>
+    <t>土砂竜・ボルボロス！</t>
+  </si>
+  <si>
+    <t>토사룡・볼보로스!</t>
+  </si>
+  <si>
+    <t>볼보로스(ボルボロス) 1마리 포획</t>
+  </si>
+  <si>
+    <t>볼보로스(ボルボロス)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>氷海の採集ツアー</t>
+  </si>
+  <si>
+    <t>빙해 채집 투어</t>
+  </si>
+  <si>
+    <t>遺群嶺の緑の女王</t>
+  </si>
+  <si>
+    <t>유군령의 녹색의 여왕</t>
+  </si>
+  <si>
+    <t>리오레이아(リオレイア) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>리오레이아(リオレイア)의 등 파괴</t>
+  </si>
+  <si>
+    <t>グルグルするらしいです</t>
+  </si>
+  <si>
+    <t>빙글빙글 한다는 듯 합니다</t>
+  </si>
+  <si>
+    <t>가라라아자라(ガララアジャラ)의 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>おのずと岩は動き出す</t>
+  </si>
+  <si>
+    <t>저절로 바위는 움직이기 시작한다</t>
+  </si>
+  <si>
+    <t>바살모스(バサルモス)의 가슴 파괴</t>
+  </si>
+  <si>
+    <t>至宝の林檎王？</t>
+  </si>
+  <si>
+    <t>지보는 사과왕?</t>
+  </si>
+  <si>
+    <t>랑그로토라(ラングロトラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>超☆メモ帳～獰猛化盾蟹編～</t>
+  </si>
+  <si>
+    <t>초☆메모장 ~영맹화순해편~</t>
+  </si>
+  <si>
+    <t>영맹화 다이묘자자미(獰猛化ダイミョウザザミ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>다이묘자자미(ダイミョウザザミ)의 양발톱과 등껍질 파괴</t>
+  </si>
+  <si>
+    <t>毒怪鳥は元気に走る</t>
+  </si>
+  <si>
+    <t>독괴조는 건강하게 달린다</t>
+  </si>
+  <si>
+    <t>영맹화 게료스(獰猛化ゲリョス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>1200z</t>
+  </si>
+  <si>
+    <t>11100z</t>
+  </si>
+  <si>
+    <t>砂漠の水面に潜む影</t>
+  </si>
+  <si>
+    <t>사막의 수면에 숨어 있는 그림자</t>
+  </si>
+  <si>
+    <t>가노토토스(ガノトトス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>게네포스(ゲネポス) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>カンシャのお仕事</t>
+  </si>
+  <si>
+    <t>감사의 일</t>
+  </si>
+  <si>
+    <t>특산버섯(特産キノコ) 15개 납품</t>
+  </si>
+  <si>
+    <t>300z</t>
+  </si>
+  <si>
+    <t>水獣のタテガミ破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>수수의 갈기 파괴에 도전!</t>
+  </si>
+  <si>
+    <t>로아루도로스(ロアルドロス)의 갈기 파괴</t>
+  </si>
+  <si>
+    <t>500z</t>
+  </si>
+  <si>
+    <t>4800z</t>
+  </si>
+  <si>
+    <t>空の家族・空路を守るッス</t>
+  </si>
+  <si>
+    <t>하늘의 가족・공로를 지킵니다</t>
+  </si>
+  <si>
+    <t>불팡고(ブルファンゴ) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>転がれ！転がせ！赤い牙獣</t>
+  </si>
+  <si>
+    <t>굴러라! 굴려라! 붉은 아수</t>
+  </si>
+  <si>
+    <t>랑그로토라(ラングロトラ)의 등 파괴</t>
+  </si>
+  <si>
+    <t>夜鳥のじけん</t>
+  </si>
+  <si>
+    <t>야조의 사건</t>
+  </si>
+  <si>
+    <t>고도(孤島)</t>
+  </si>
+  <si>
+    <t>호로로호루루(ホロロホルル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>운양록의 천연모(雲羊鹿の天然毛) 5개 납품</t>
+  </si>
+  <si>
+    <t>火山の採集ツアー</t>
+  </si>
+  <si>
+    <t>화산 채집 투어</t>
+  </si>
+  <si>
+    <t>密林の採集ツアー</t>
+  </si>
+  <si>
+    <t>밀림 채집 투어</t>
+  </si>
+  <si>
+    <t>泥まみれの商魂！</t>
+  </si>
+  <si>
+    <t>진흙 투성이의 상혼!</t>
+  </si>
+  <si>
+    <t>볼보로스(ボルボロス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>11400z</t>
+  </si>
+  <si>
+    <t>逆襲の怪鳥</t>
+  </si>
+  <si>
+    <t>역습의 괴조</t>
+  </si>
+  <si>
+    <t>영맹화 얀쿡(獰猛化イャンクック) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>얀쿡(イャンクック)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>調査委託：獰猛な奇猿狐</t>
+  </si>
+  <si>
+    <t>조사위탁 : 영맹한 기원호</t>
+  </si>
+  <si>
+    <t>영맹화 케챠와챠(獰猛化ケチャワチャ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>케챠와챠(ケチャワチャ)의 귀와 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>原生林は毒色に染まる</t>
+  </si>
+  <si>
+    <t>원시림은 독빛으로 물든다</t>
+  </si>
+  <si>
+    <t>이오스(イーオス) 20마리 토벌</t>
+  </si>
+  <si>
+    <t>용역원(龍歴院)포인트 1200pts 입수</t>
+  </si>
+  <si>
+    <t>たまには釣りでもいかが？</t>
+  </si>
+  <si>
+    <t>가끔씩은 낚시라도 하는게 어떻습니까?</t>
+  </si>
+  <si>
+    <t>황금어(黄金魚) 6마리 납품</t>
+  </si>
+  <si>
+    <t>700z</t>
+  </si>
+  <si>
+    <t>6900z</t>
+  </si>
+  <si>
+    <t>ドドブランゴは2頭いる</t>
+  </si>
+  <si>
+    <t>도도블랑고는 2마리가 있다</t>
+  </si>
+  <si>
+    <t>도도블랑고(ドドブランゴ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>블랑고(ブランゴ) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>1900z</t>
+  </si>
+  <si>
+    <t>18900z</t>
+  </si>
+  <si>
+    <t>転んで跳ねて七転八倒</t>
+  </si>
+  <si>
+    <t>구르고 뛰어오르고 칠전팔도</t>
+  </si>
+  <si>
+    <t>랑그로토라(ラングロトラ) 1마리와 도스마카오(ドスマッカォ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>용역원(龍歴院)포인트 1500pts 입수</t>
+  </si>
+  <si>
+    <t>9900z</t>
+  </si>
+  <si>
+    <t>切り裂かれた誇り</t>
+  </si>
+  <si>
+    <t>찢어 발겨진 긍지</t>
+  </si>
+  <si>
+    <t>쇼군기자미(ショウグンギザミ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>극상 등껍질 진주(極上ヤド真珠) 1개 납품</t>
+  </si>
+  <si>
+    <t>砂漠の積荷は誰の物？</t>
+  </si>
+  <si>
+    <t>사막의 화물은 누구의 것?</t>
+  </si>
+  <si>
+    <t>하플봇카(ハプルボッカ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>가레오스(ガレオス) 5마리 토벌</t>
+  </si>
+  <si>
+    <t>大鉱脈、発見さる！</t>
+  </si>
+  <si>
+    <t>대광맥, 발견되다!</t>
+  </si>
+  <si>
+    <t>연석탄(燃石炭) 20개 납품</t>
+  </si>
+  <si>
+    <t>ネルスキュラの生態研究</t>
+  </si>
+  <si>
+    <t>네르스큐라의 생태연구</t>
+  </si>
+  <si>
+    <t>네르스큐라(ネルスキュラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>네르스큐라(ネルスキュラ)의 독가시 파괴</t>
+  </si>
+  <si>
+    <t>割り込み受注：2頭の桃毛獣</t>
+  </si>
+  <si>
+    <t>새치기수주 : 2마리의 도모수</t>
+  </si>
+  <si>
+    <t>바바콩가(ババコンガ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>영역의 큰 똥(なわばりの大フン) 1개 납품</t>
+  </si>
+  <si>
+    <t>子分の自覚が足りないっチャ！</t>
+  </si>
+  <si>
+    <t>부하의 자각이 부족하다!</t>
+  </si>
+  <si>
+    <t>투기장(闘技場)</t>
+  </si>
+  <si>
+    <t>모든 대형몬스터 수렵</t>
+  </si>
+  <si>
+    <t>단차에 의한 다운을 5회 성공</t>
+  </si>
+  <si>
+    <t>2000z</t>
+  </si>
+  <si>
+    <t>19800z</t>
+  </si>
+  <si>
+    <t>沼地の採集ツアー</t>
+  </si>
+  <si>
+    <t>늪지 채집 투어</t>
+  </si>
+  <si>
+    <t>遺群嶺のトレジャー！米の巻</t>
+  </si>
+  <si>
+    <t>유군령의 트레져!  쌀편</t>
+  </si>
+  <si>
+    <t>용의 굵은 눈물(竜の大粒ナミダ) 1개 납품</t>
+  </si>
+  <si>
+    <t>二人で特訓、成果は山分け</t>
+  </si>
+  <si>
+    <t>둘이서 특훈, 성과는 반분</t>
+  </si>
+  <si>
+    <t>하플봇카(ハプルボッカ)의 아가미 파괴</t>
+  </si>
+  <si>
+    <t>女王、降臨す</t>
+  </si>
+  <si>
+    <t>여왕, 강림하다</t>
+  </si>
+  <si>
+    <t>쟈기노스(ジャギィノス) 5마리 토벌</t>
+  </si>
+  <si>
+    <t>チコ村を脅かす水竜を狩れ！</t>
+  </si>
+  <si>
+    <t>치코마을을 위협하는 수룡을 사냥해라!</t>
+  </si>
+  <si>
+    <t>쟈기(ジャギィ) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>武具屋のお使い</t>
+  </si>
+  <si>
+    <t>무구점의 심부름</t>
+  </si>
+  <si>
+    <t>혁성석(赫星石) 20개 납품</t>
+  </si>
+  <si>
+    <t>6300z</t>
+  </si>
+  <si>
+    <t>鎌蟹の狩猟をさせてやるぜ！</t>
+  </si>
+  <si>
+    <t>겸해의 수렵을 시켜주지!</t>
+  </si>
+  <si>
+    <t>쇼군기자미(ショウグンギザミ)의 등껍질 파괴</t>
+  </si>
+  <si>
+    <t>孤島の採集ツアー</t>
+  </si>
+  <si>
+    <t>고도 채집 투어</t>
+  </si>
+  <si>
+    <t>ゆらめく光はまぶしくて</t>
+  </si>
+  <si>
+    <t>흔들거리는 빛이 눈부셔서</t>
+  </si>
+  <si>
+    <t>대뇌광충(大雷光虫) 30마리 토벌</t>
+  </si>
+  <si>
+    <t>나르가쿠르가(ナルガクルガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>水獣の獰猛化観察記録</t>
+  </si>
+  <si>
+    <t>수수의 영맹화 관찰기록</t>
+  </si>
+  <si>
+    <t>영맹화 로아루도로스(獰猛化ロアルドロス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>로아루도로스(ロアルドロス)의 머리와 갈기 파괴</t>
+  </si>
+  <si>
+    <t>身体の芯までビッリビリ</t>
+  </si>
+  <si>
+    <t>몸의 뼛속까지 찌릿찌릿</t>
+  </si>
+  <si>
+    <t>푸르푸르(フルフル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>가우시카(ガウシカ) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>洞窟に潜む影</t>
+  </si>
+  <si>
+    <t>동굴에 숨어 있는 그림자</t>
+  </si>
+  <si>
+    <t>칸타로스(カンタロス) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>ババコンガのキノコ品評会</t>
+  </si>
+  <si>
+    <t>바바콩가의 버섯 품평회</t>
+  </si>
+  <si>
+    <t>바바콩가(ババコンガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>모스(モス) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>原生林コンガ戦線</t>
+  </si>
+  <si>
+    <t>원시림 콩가 전선</t>
+  </si>
+  <si>
+    <t>콩가(コンガ) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>漆黒の影</t>
+  </si>
+  <si>
+    <t>칠흑의 그림자</t>
+  </si>
+  <si>
+    <t>ぶつけろ生き様☆アフロソウル</t>
+  </si>
+  <si>
+    <t>부딪혀라 삶☆아프로 소울</t>
+  </si>
+  <si>
+    <t>볼가노스(ヴォルガノス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>볼가노스(ヴォルガノス)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>強暴なる矢尻たち</t>
+  </si>
+  <si>
+    <t>강포한 화살촉들</t>
+  </si>
+  <si>
+    <t>스쿠아길(スクアギル) 20마리 토벌</t>
+  </si>
+  <si>
+    <t>密林のナルガクルガと対峙せよ</t>
+  </si>
+  <si>
+    <t>밀림의 나르가쿠르가와 대치해라</t>
+  </si>
+  <si>
+    <t>나르가쿠르가(ナルガクルガ)의 칼날 날개 파괴</t>
+  </si>
+  <si>
+    <t>遺跡平原の改善要求</t>
+  </si>
+  <si>
+    <t>G★3</t>
+  </si>
+  <si>
+    <t>遺跡平原</t>
+  </si>
+  <si>
+    <t>全ての大型モンスターの狩猟</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント２５００pts入手</t>
+  </si>
+  <si>
+    <t>3200z</t>
+  </si>
+  <si>
+    <t>31500z</t>
+  </si>
+  <si>
+    <t>かくし味は燃石炭</t>
+  </si>
+  <si>
+    <t>地底火山</t>
+  </si>
+  <si>
+    <t>燃石炭２０個の納品</t>
+  </si>
+  <si>
+    <t>ウラガンキン１頭の狩猟</t>
+  </si>
+  <si>
+    <t>900z</t>
+  </si>
+  <si>
+    <t>9000z</t>
+  </si>
+  <si>
+    <t>17400z</t>
+  </si>
+  <si>
+    <t>氷海のすばらしい氷</t>
+  </si>
+  <si>
+    <t>氷海</t>
+  </si>
+  <si>
+    <t>ガムート１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガムートの鼻破壊</t>
+  </si>
+  <si>
+    <t>2200z</t>
+  </si>
+  <si>
+    <t>21600z</t>
+  </si>
+  <si>
+    <t>3900z</t>
+  </si>
+  <si>
+    <t>氷海の恐怖体験</t>
+  </si>
+  <si>
+    <t>フルフル１頭の狩猟</t>
+  </si>
+  <si>
+    <t>フルフルの頭部と胴体破壊</t>
+  </si>
+  <si>
+    <t>13800z</t>
+  </si>
+  <si>
+    <t>幻獣、キリン現る！</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>キリンの討伐</t>
+  </si>
+  <si>
+    <t>ギルドフラッグを山頂に設置</t>
+  </si>
+  <si>
+    <t>泡狐竜流狩人道場</t>
+  </si>
+  <si>
+    <t>渓流</t>
+  </si>
+  <si>
+    <t>タマミツネ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>タマミツネの尻尾切断</t>
+  </si>
+  <si>
+    <t>闘技場での最終テストっチャ！</t>
+  </si>
+  <si>
+    <t>闘技場</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを４回成功</t>
+  </si>
+  <si>
+    <t>18300z</t>
+  </si>
+  <si>
+    <t>斬竜流狩人道場</t>
+  </si>
+  <si>
+    <t>ディノバルド１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ウロコトル８頭の討伐</t>
+  </si>
+  <si>
+    <t>26100z</t>
+  </si>
+  <si>
+    <t>桃毛獣による新人への洗礼</t>
+  </si>
+  <si>
+    <t>遺群嶺</t>
+  </si>
+  <si>
+    <t>ババコンガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ババコンガのトサカと爪破壊</t>
+  </si>
+  <si>
+    <t>女帝の花道</t>
+  </si>
+  <si>
+    <t>密林</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス１匹の捕獲</t>
+  </si>
+  <si>
+    <t>アルセルタス１匹の狩猟</t>
+  </si>
+  <si>
+    <t>2300z</t>
+  </si>
+  <si>
+    <t>22800z</t>
+  </si>
+  <si>
+    <t>夢か現か幻か</t>
+  </si>
+  <si>
+    <t>古代林</t>
+  </si>
+  <si>
+    <t>騎士と密林の夢</t>
+  </si>
+  <si>
+    <t>タマミツネの背ビレ破壊</t>
+  </si>
+  <si>
+    <t>旧砂漠のすばらしい砂</t>
+  </si>
+  <si>
+    <t>旧砂漠</t>
+  </si>
+  <si>
+    <t>ボルボロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ボルボロスの頭部と前脚破壊</t>
+  </si>
+  <si>
+    <t>鎌蟹は逃げ道を狩る</t>
+  </si>
+  <si>
+    <t>沼地</t>
+  </si>
+  <si>
+    <t>ショウグンギザミ１匹の狩猟</t>
+  </si>
+  <si>
+    <t>ショウグンギザミの両爪とヤド破壊</t>
+  </si>
+  <si>
+    <t>1700z</t>
+  </si>
+  <si>
+    <t>16200z</t>
+  </si>
+  <si>
+    <t>影蜘蛛の背中破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>原生林</t>
+  </si>
+  <si>
+    <t>ネルスキュラの外套皮破壊</t>
+  </si>
+  <si>
+    <t>6000z</t>
+  </si>
+  <si>
+    <t>先生の鬼門は獰猛な影蜘蛛</t>
+  </si>
+  <si>
+    <t>ネルスキュラ１匹の狩猟</t>
+  </si>
+  <si>
+    <t>ネルスキュラの毒トゲと爪破壊</t>
+  </si>
+  <si>
+    <t>15600z</t>
+  </si>
+  <si>
+    <t>ハロー遺群嶺！</t>
+  </si>
+  <si>
+    <t>ライゼクス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ライゼクスのトサカ破壊</t>
+  </si>
+  <si>
+    <t>無茶苦茶ムシャムシャ</t>
+  </si>
+  <si>
+    <t>砂漠</t>
+  </si>
+  <si>
+    <t>ハプルボッカ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ハプルボッカの両前脚破壊</t>
+  </si>
+  <si>
+    <t>ベルナ村の観光業が大炎上！</t>
+  </si>
+  <si>
+    <t>リオレイア１頭とディノバルド１頭の狩猟</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを２回成功</t>
+  </si>
+  <si>
+    <t>2900z</t>
+  </si>
+  <si>
+    <t>28500z</t>
+  </si>
+  <si>
+    <t>妹奮闘記～夜鳥退治～</t>
+  </si>
+  <si>
+    <t>ホロロホルル１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ホロロホルルの頭部と尻尾破壊</t>
+  </si>
+  <si>
+    <t>15000z</t>
+  </si>
+  <si>
+    <t>重量級の女帝</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス１匹の狩猟</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタスの尻尾破壊</t>
+  </si>
+  <si>
+    <t>狩人のための舞台～遺群嶺～</t>
+  </si>
+  <si>
+    <t>毒の洗礼</t>
+  </si>
+  <si>
+    <t>ドスイーオス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>8100z</t>
+  </si>
+  <si>
+    <t>砂漠の死闘と希望</t>
+  </si>
+  <si>
+    <t>24000z</t>
+  </si>
+  <si>
+    <t>ラギアクルス襲撃の予感</t>
+  </si>
+  <si>
+    <t>ラギアクルス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>暑い熱い砂漠</t>
+  </si>
+  <si>
+    <t>ディノバルド１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ディノバルドの頭部破壊</t>
+  </si>
+  <si>
+    <t>グラビモス連続狩猟</t>
+  </si>
+  <si>
+    <t>２頭以上狩猟してタイムアップもしくはネコタクチケットの納品</t>
+  </si>
+  <si>
+    <t>クンチュウ１５匹の討伐</t>
+  </si>
+  <si>
+    <t>3100z</t>
+  </si>
+  <si>
+    <t>30900z</t>
+  </si>
+  <si>
+    <t>遺群嶺の難題解決</t>
+  </si>
+  <si>
+    <t>ゴア・マガラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>禍々しい狂竜結晶１個の納品</t>
+  </si>
+  <si>
+    <t>21300z</t>
+  </si>
+  <si>
+    <t>旧砂漠に吹く熱風！</t>
+  </si>
+  <si>
+    <t>2800z</t>
+  </si>
+  <si>
+    <t>27300z</t>
+  </si>
+  <si>
+    <t>密林のポイント招きネコ</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント５０００pts入手</t>
+  </si>
+  <si>
+    <t>海竜のじけん</t>
+  </si>
+  <si>
+    <t>孤島</t>
+  </si>
+  <si>
+    <t>ラギアクルスの頭部破壊</t>
+  </si>
+  <si>
+    <t>氷牙竜・ベリオロス！</t>
+  </si>
+  <si>
+    <t>ベリオロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ベリオロスの頭部破壊</t>
+  </si>
+  <si>
+    <t>遺群嶺からの帰還</t>
+  </si>
+  <si>
+    <t>ジンオウガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>大雷光虫１０匹の討伐</t>
+  </si>
+  <si>
+    <t>20700z</t>
+  </si>
+  <si>
+    <t>氷牙竜が大発明のカギ？</t>
+  </si>
+  <si>
+    <t>ベリオロスの尻尾切断</t>
+  </si>
+  <si>
+    <t>孤高の黒狼鳥</t>
+  </si>
+  <si>
+    <t>イャンガルルガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>イャンガルルガの頭部破壊</t>
+  </si>
+  <si>
+    <t>絞蛇竜の消化能力について</t>
+  </si>
+  <si>
+    <t>ガララアジャラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガララアジャラの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>17700z</t>
+  </si>
+  <si>
+    <t>強い防具は素材から！</t>
+  </si>
+  <si>
     <t>火山</t>
   </si>
   <si>
-    <t>バサルモス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガブラス8頭の討伐</t>
-  </si>
-  <si>
-    <t>4200z</t>
-  </si>
-  <si>
-    <t>陰湿毒沼の狂想曲</t>
-  </si>
-  <si>
-    <t>沼地</t>
-  </si>
-  <si>
-    <t>ガララアジャラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガミザミ8匹の討伐</t>
-  </si>
-  <si>
-    <t>14700z</t>
-  </si>
-  <si>
-    <t>獰猛な蛙は鬼よりも強く</t>
-  </si>
-  <si>
-    <t>氷海</t>
-  </si>
-  <si>
-    <t>獰猛化テツカブラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>テツカブラの顎と背中破壊</t>
-  </si>
-  <si>
-    <t>貝殻に思いをのせて</t>
-  </si>
-  <si>
-    <t>密林</t>
-  </si>
-  <si>
-    <t>きれいな貝殻20個の納品</t>
-  </si>
-  <si>
-    <t>ランポス8頭の討伐</t>
-  </si>
-  <si>
-    <t>閃きへの1ピースを求めて</t>
-  </si>
-  <si>
-    <t>ザボアザギル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ザボアザギルの頭部破壊</t>
-  </si>
-  <si>
-    <t>……欲するならば資格を示して</t>
-  </si>
-  <si>
-    <t>雪山</t>
-  </si>
-  <si>
-    <t>ドドブランゴ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドドブランゴの尻尾破壊</t>
-  </si>
-  <si>
-    <t>13500z</t>
-  </si>
-  <si>
-    <t>土砂竜・ボルボロス！</t>
-  </si>
-  <si>
-    <t>旧砂漠</t>
-  </si>
-  <si>
-    <t>ボルボロス1頭の捕獲</t>
-  </si>
-  <si>
-    <t>ボルボロスの頭部破壊</t>
-  </si>
-  <si>
-    <t>氷海の採集ツアー</t>
+    <t>乗りによるダウンを３回成功</t>
+  </si>
+  <si>
+    <t>21900z</t>
+  </si>
+  <si>
+    <t>火山ウロザミ戦線</t>
+  </si>
+  <si>
+    <t>ガミザミとウロコトル合計１８頭の討伐</t>
+  </si>
+  <si>
+    <t>森丘の捕食者たち</t>
+  </si>
+  <si>
+    <t>森丘</t>
+  </si>
+  <si>
+    <t>リオレウス１頭とリオレイア１頭の狩猟</t>
+  </si>
+  <si>
+    <t>竜の大粒ナミダ１個の納品</t>
+  </si>
+  <si>
+    <t>地底火山の採集ツアー</t>
   </si>
   <si>
     <t>タイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>遺群嶺の緑の女王</t>
-  </si>
-  <si>
-    <t>遺群嶺</t>
-  </si>
-  <si>
-    <t>リオレイア1頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイアの背中破壊</t>
-  </si>
-  <si>
-    <t>グルグルするらしいです</t>
-  </si>
-  <si>
-    <t>森丘</t>
-  </si>
-  <si>
-    <t>ガララアジャラの尻尾破壊</t>
-  </si>
-  <si>
-    <t>おのずと岩は動き出す</t>
-  </si>
-  <si>
-    <t>バサルモスの胸部破壊</t>
-  </si>
-  <si>
-    <t>至宝の林檎王？</t>
-  </si>
-  <si>
-    <t>ラングロトラ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブナハブラ15匹の討伐</t>
-  </si>
-  <si>
-    <t>超☆メモ帳～獰猛化盾蟹編～</t>
-  </si>
-  <si>
-    <t>獰猛化ダイミョウザザミ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ダイミョウザザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>毒怪鳥は元気に走る</t>
-  </si>
-  <si>
-    <t>獰猛化ゲリョス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゲリョスのトサカ破壊</t>
-  </si>
-  <si>
-    <t>1200z</t>
-  </si>
-  <si>
-    <t>11100z</t>
-  </si>
-  <si>
-    <t>砂漠の水面に潜む影</t>
-  </si>
-  <si>
-    <t>砂漠</t>
-  </si>
-  <si>
-    <t>ガノトトス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネポス8頭の討伐</t>
-  </si>
-  <si>
-    <t>カンシャのお仕事</t>
-  </si>
-  <si>
-    <t>特産キノコ15個の納品</t>
-  </si>
-  <si>
-    <t>300z</t>
-  </si>
-  <si>
-    <t>水獣のタテガミ破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>渓流</t>
-  </si>
-  <si>
-    <t>ロアルドロスのタテガミ破壊</t>
-  </si>
-  <si>
-    <t>500z</t>
-  </si>
-  <si>
-    <t>4800z</t>
-  </si>
-  <si>
-    <t>空の家族・空路を守るッス</t>
-  </si>
-  <si>
-    <t>ブルファンゴ8頭の討伐</t>
-  </si>
-  <si>
-    <t>転がれ！転がせ！赤い牙獣</t>
-  </si>
-  <si>
-    <t>ラングロトラの背中破壊</t>
-  </si>
-  <si>
-    <t>夜鳥のじけん</t>
-  </si>
-  <si>
-    <t>孤島</t>
-  </si>
-  <si>
-    <t>ホロロホルル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>雲羊鹿の天然毛5個の納品</t>
-  </si>
-  <si>
-    <t>火山の採集ツアー</t>
-  </si>
-  <si>
-    <t>密林の採集ツアー</t>
-  </si>
-  <si>
-    <t>泥まみれの商魂！</t>
-  </si>
-  <si>
-    <t>ボルボロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>11400z</t>
-  </si>
-  <si>
-    <t>逆襲の怪鳥</t>
-  </si>
-  <si>
-    <t>遺跡平原</t>
-  </si>
-  <si>
-    <t>獰猛化イャンクック1頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンクックの頭部破壊</t>
-  </si>
-  <si>
-    <t>調査委託：獰猛な奇猿狐</t>
-  </si>
-  <si>
-    <t>獰猛化ケチャワチャ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ケチャワチャの耳と尻尾破壊</t>
-  </si>
-  <si>
-    <t>原生林は毒色に染まる</t>
-  </si>
-  <si>
-    <t>原生林</t>
-  </si>
-  <si>
-    <t>イーオス20頭の討伐</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント1200pts入手</t>
-  </si>
-  <si>
-    <t>たまには釣りでもいかが？</t>
-  </si>
-  <si>
-    <t>黄金魚6匹の納品</t>
-  </si>
-  <si>
-    <t>ウルクスス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>700z</t>
-  </si>
-  <si>
-    <t>6900z</t>
-  </si>
-  <si>
-    <t>ドドブランゴは2頭いる</t>
-  </si>
-  <si>
-    <t>ドドブランゴ2頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブランゴ8頭の討伐</t>
-  </si>
-  <si>
-    <t>1900z</t>
-  </si>
-  <si>
-    <t>18900z</t>
-  </si>
-  <si>
-    <t>転んで跳ねて七転八倒</t>
-  </si>
-  <si>
-    <t>古代林</t>
-  </si>
-  <si>
-    <t>ラングロトラ1頭とドスマッカォ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント1500pts入手</t>
-  </si>
-  <si>
-    <t>9900z</t>
-  </si>
-  <si>
-    <t>切り裂かれた誇り</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>極上ヤド真珠1個の納品</t>
-  </si>
-  <si>
-    <t>砂漠の積荷は誰の物？</t>
-  </si>
-  <si>
-    <t>ハプルボッカ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガレオス5頭の討伐</t>
-  </si>
-  <si>
-    <t>大鉱脈、発見さる！</t>
-  </si>
-  <si>
-    <t>燃石炭20個の納品</t>
-  </si>
-  <si>
-    <t>ネルスキュラの生態研究</t>
-  </si>
-  <si>
-    <t>ネルスキュラ1匹の狩猟</t>
-  </si>
-  <si>
-    <t>ネルスキュラの毒トゲ破壊</t>
-  </si>
-  <si>
-    <t>割り込み受注：2頭の桃毛獣</t>
-  </si>
-  <si>
-    <t>ババコンガ2頭の狩猟</t>
-  </si>
-  <si>
-    <t>なわばりの大フン1個の納品</t>
-  </si>
-  <si>
-    <t>子分の自覚が足りないっチャ！</t>
-  </si>
-  <si>
-    <t>闘技場</t>
-  </si>
-  <si>
-    <t>全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを5回成功</t>
-  </si>
-  <si>
-    <t>2000z</t>
-  </si>
-  <si>
-    <t>19800z</t>
-  </si>
-  <si>
-    <t>沼地の採集ツアー</t>
-  </si>
-  <si>
-    <t>遺群嶺のトレジャー！米の巻</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ1個の納品</t>
-  </si>
-  <si>
-    <t>二人で特訓、成果は山分け</t>
-  </si>
-  <si>
-    <t>ハプルボッカのエラ破壊</t>
-  </si>
-  <si>
-    <t>女王、降臨す</t>
-  </si>
-  <si>
-    <t>ジャギィノス5頭の討伐</t>
-  </si>
-  <si>
-    <t>チコ村を脅かす水竜を狩れ！</t>
-  </si>
-  <si>
-    <t>ジャギィ8頭の討伐</t>
-  </si>
-  <si>
-    <t>武具屋のお使い</t>
-  </si>
-  <si>
-    <t>赫星石20個の納品</t>
-  </si>
-  <si>
-    <t>6300z</t>
-  </si>
-  <si>
-    <t>鎌蟹の狩猟をさせてやるぜ！</t>
-  </si>
-  <si>
-    <t>ショウグンギザミのヤド破壊</t>
-  </si>
-  <si>
-    <t>孤島の採集ツアー</t>
-  </si>
-  <si>
-    <t>ゆらめく光はまぶしくて</t>
-  </si>
-  <si>
-    <t>大雷光虫30匹の討伐</t>
-  </si>
-  <si>
-    <t>ナルガクルガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>水獣の獰猛化観察記録</t>
-  </si>
-  <si>
-    <t>獰猛化ロアルドロス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ロアルドロスの頭部とタテガミ破壊</t>
-  </si>
-  <si>
-    <t>身体の芯までビッリビリ</t>
-  </si>
-  <si>
-    <t>フルフル1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガウシカ8頭の討伐</t>
-  </si>
-  <si>
-    <t>洞窟に潜む影</t>
-  </si>
-  <si>
-    <t>カンタロス10匹の討伐</t>
-  </si>
-  <si>
-    <t>ババコンガのキノコ品評会</t>
-  </si>
-  <si>
-    <t>ババコンガ1頭の狩猟</t>
-  </si>
-  <si>
-    <t>モス8頭の討伐</t>
-  </si>
-  <si>
-    <t>原生林コンガ戦線</t>
-  </si>
-  <si>
-    <t>コンガ15頭の討伐</t>
-  </si>
-  <si>
-    <t>漆黒の影</t>
-  </si>
-  <si>
-    <t>ぶつけろ生き様☆アフロソウル</t>
-  </si>
-  <si>
-    <t>ヴォルガノス1頭の狩猟</t>
-  </si>
-  <si>
-    <t>ヴォルガノスの頭部破壊</t>
-  </si>
-  <si>
-    <t>強暴なる矢尻たち</t>
-  </si>
-  <si>
-    <t>スクアギル20頭の討伐</t>
-  </si>
-  <si>
-    <t>密林のナルガクルガと対峙せよ</t>
-  </si>
-  <si>
-    <t>ナルガクルガの刃翼破壊</t>
-  </si>
-  <si>
-    <t>遺跡平原の改善要求</t>
-  </si>
-  <si>
-    <t>G★3</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント２５００pts入手</t>
-  </si>
-  <si>
-    <t>3200z</t>
-  </si>
-  <si>
-    <t>31500z</t>
-  </si>
-  <si>
-    <t>かくし味は燃石炭</t>
-  </si>
-  <si>
-    <t>地底火山</t>
-  </si>
-  <si>
-    <t>燃石炭２０個の納品</t>
-  </si>
-  <si>
-    <t>ウラガンキン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>900z</t>
-  </si>
-  <si>
-    <t>9000z</t>
-  </si>
-  <si>
-    <t>17400z</t>
-  </si>
-  <si>
-    <t>氷海のすばらしい氷</t>
-  </si>
-  <si>
-    <t>ガムート１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの鼻破壊</t>
-  </si>
-  <si>
-    <t>2200z</t>
-  </si>
-  <si>
-    <t>21600z</t>
-  </si>
-  <si>
-    <t>3900z</t>
-  </si>
-  <si>
-    <t>氷海の恐怖体験</t>
-  </si>
-  <si>
-    <t>フルフル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>フルフルの頭部と胴体破壊</t>
-  </si>
-  <si>
-    <t>13800z</t>
-  </si>
-  <si>
-    <t>幻獣、キリン現る！</t>
-  </si>
-  <si>
-    <t>キリンの討伐</t>
-  </si>
-  <si>
-    <t>ギルドフラッグを山頂に設置</t>
-  </si>
-  <si>
-    <t>泡狐竜流狩人道場</t>
-  </si>
-  <si>
-    <t>タマミツネ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>タマミツネの尻尾切断</t>
-  </si>
-  <si>
-    <t>闘技場での最終テストっチャ！</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを４回成功</t>
-  </si>
-  <si>
-    <t>18300z</t>
-  </si>
-  <si>
-    <t>斬竜流狩人道場</t>
-  </si>
-  <si>
-    <t>ディノバルド１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ウロコトル８頭の討伐</t>
-  </si>
-  <si>
-    <t>26100z</t>
-  </si>
-  <si>
-    <t>桃毛獣による新人への洗礼</t>
-  </si>
-  <si>
-    <t>ババコンガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ババコンガのトサカと爪破壊</t>
-  </si>
-  <si>
-    <t>女帝の花道</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス１匹の捕獲</t>
-  </si>
-  <si>
-    <t>アルセルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>2300z</t>
-  </si>
-  <si>
-    <t>22800z</t>
-  </si>
-  <si>
-    <t>夢か現か幻か</t>
-  </si>
-  <si>
-    <t>騎士と密林の夢</t>
-  </si>
-  <si>
-    <t>タマミツネの背ビレ破壊</t>
-  </si>
-  <si>
-    <t>旧砂漠のすばらしい砂</t>
-  </si>
-  <si>
-    <t>ボルボロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ボルボロスの頭部と前脚破壊</t>
-  </si>
-  <si>
-    <t>鎌蟹は逃げ道を狩る</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ショウグンギザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>1700z</t>
-  </si>
-  <si>
-    <t>16200z</t>
-  </si>
-  <si>
-    <t>影蜘蛛の背中破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>ネルスキュラの外套皮破壊</t>
-  </si>
-  <si>
-    <t>6000z</t>
-  </si>
-  <si>
-    <t>先生の鬼門は獰猛な影蜘蛛</t>
-  </si>
-  <si>
-    <t>ネルスキュラ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ネルスキュラの毒トゲと爪破壊</t>
-  </si>
-  <si>
-    <t>15600z</t>
-  </si>
-  <si>
-    <t>ハロー遺群嶺！</t>
-  </si>
-  <si>
-    <t>ライゼクス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ライゼクスのトサカ破壊</t>
-  </si>
-  <si>
-    <t>無茶苦茶ムシャムシャ</t>
-  </si>
-  <si>
-    <t>ハプルボッカ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ハプルボッカの両前脚破壊</t>
-  </si>
-  <si>
-    <t>ベルナ村の観光業が大炎上！</t>
-  </si>
-  <si>
-    <t>リオレイア１頭とディノバルド１頭の狩猟</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを２回成功</t>
-  </si>
-  <si>
-    <t>2900z</t>
-  </si>
-  <si>
-    <t>28500z</t>
-  </si>
-  <si>
-    <t>妹奮闘記～夜鳥退治～</t>
-  </si>
-  <si>
-    <t>ホロロホルル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルルの頭部と尻尾破壊</t>
-  </si>
-  <si>
-    <t>15000z</t>
-  </si>
-  <si>
-    <t>重量級の女帝</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの尻尾破壊</t>
-  </si>
-  <si>
-    <t>狩人のための舞台～遺群嶺～</t>
-  </si>
-  <si>
-    <t>毒の洗礼</t>
-  </si>
-  <si>
-    <t>ドスイーオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>8100z</t>
-  </si>
-  <si>
-    <t>砂漠の死闘と希望</t>
-  </si>
-  <si>
-    <t>24000z</t>
-  </si>
-  <si>
-    <t>ラギアクルス襲撃の予感</t>
-  </si>
-  <si>
-    <t>ラギアクルス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>暑い熱い砂漠</t>
-  </si>
-  <si>
-    <t>ディノバルド１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ディノバルドの頭部破壊</t>
-  </si>
-  <si>
-    <t>グラビモス連続狩猟</t>
-  </si>
-  <si>
-    <t>２頭以上狩猟してタイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>クンチュウ１５匹の討伐</t>
-  </si>
-  <si>
-    <t>3100z</t>
-  </si>
-  <si>
-    <t>30900z</t>
-  </si>
-  <si>
-    <t>遺群嶺の難題解決</t>
-  </si>
-  <si>
-    <t>ゴア・マガラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>禍々しい狂竜結晶１個の納品</t>
-  </si>
-  <si>
-    <t>21300z</t>
-  </si>
-  <si>
-    <t>旧砂漠に吹く熱風！</t>
-  </si>
-  <si>
-    <t>2800z</t>
-  </si>
-  <si>
-    <t>27300z</t>
-  </si>
-  <si>
-    <t>密林のポイント招きネコ</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント５０００pts入手</t>
-  </si>
-  <si>
-    <t>海竜のじけん</t>
-  </si>
-  <si>
-    <t>ラギアクルスの頭部破壊</t>
-  </si>
-  <si>
-    <t>氷牙竜・ベリオロス！</t>
-  </si>
-  <si>
-    <t>ベリオロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ベリオロスの頭部破壊</t>
-  </si>
-  <si>
-    <t>遺群嶺からの帰還</t>
-  </si>
-  <si>
-    <t>ジンオウガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>大雷光虫１０匹の討伐</t>
-  </si>
-  <si>
-    <t>20700z</t>
-  </si>
-  <si>
-    <t>氷牙竜が大発明のカギ？</t>
-  </si>
-  <si>
-    <t>ベリオロスの尻尾切断</t>
-  </si>
-  <si>
-    <t>孤高の黒狼鳥</t>
-  </si>
-  <si>
-    <t>イャンガルルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部破壊</t>
-  </si>
-  <si>
-    <t>絞蛇竜の消化能力について</t>
-  </si>
-  <si>
-    <t>ガララアジャラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガララアジャラの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>17700z</t>
-  </si>
-  <si>
-    <t>強い防具は素材から！</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを３回成功</t>
-  </si>
-  <si>
-    <t>21900z</t>
-  </si>
-  <si>
-    <t>火山ウロザミ戦線</t>
-  </si>
-  <si>
-    <t>ガミザミとウロコトル合計１８頭の討伐</t>
-  </si>
-  <si>
-    <t>森丘の捕食者たち</t>
-  </si>
-  <si>
-    <t>リオレウス１頭とリオレイア１頭の狩猟</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ１個の納品</t>
-  </si>
-  <si>
-    <t>地底火山の採集ツアー</t>
   </si>
   <si>
     <t>雪崩を呼ぶ遠吠え</t>
@@ -2570,8 +2741,8 @@
   <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="B22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="1" topLeftCell="B72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2582,7 +2753,7 @@
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3612,20 +3783,23 @@
       <c r="A34" t="s">
         <v>155</v>
       </c>
+      <c r="B34" t="s">
+        <v>156</v>
+      </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H34" t="s">
         <v>30</v>
@@ -3634,33 +3808,36 @@
         <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="B35" t="s">
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
         <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J35" t="s">
         <v>18</v>
@@ -3668,22 +3845,25 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H36" t="s">
         <v>67</v>
@@ -3697,22 +3877,25 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="B37" t="s">
+        <v>174</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H37" t="s">
         <v>50</v>
@@ -3726,22 +3909,25 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G38" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H38" t="s">
         <v>30</v>
@@ -3755,28 +3941,31 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>183</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G39" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="H39" t="s">
         <v>67</v>
       </c>
       <c r="I39" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J39" t="s">
         <v>116</v>
@@ -3784,28 +3973,31 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H40" t="s">
         <v>67</v>
       </c>
       <c r="I40" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J40" t="s">
         <v>116</v>
@@ -3813,19 +4005,22 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
@@ -3839,28 +4034,31 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>193</v>
+      </c>
+      <c r="B42" t="s">
+        <v>194</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
         <v>67</v>
       </c>
       <c r="I42" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J42" t="s">
         <v>116</v>
@@ -3868,28 +4066,31 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>197</v>
+      </c>
+      <c r="B43" t="s">
+        <v>198</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G43" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H43" t="s">
         <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J43" t="s">
         <v>116</v>
@@ -3897,22 +4098,25 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>195</v>
+        <v>200</v>
+      </c>
+      <c r="B44" t="s">
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G44" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H44" t="s">
         <v>30</v>
@@ -3926,22 +4130,25 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G45" t="s">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="H45" t="s">
         <v>96</v>
@@ -3955,22 +4162,25 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>206</v>
+      </c>
+      <c r="B46" t="s">
+        <v>207</v>
       </c>
       <c r="C46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G46" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H46" t="s">
         <v>67</v>
@@ -3984,28 +4194,31 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>203</v>
+        <v>210</v>
+      </c>
+      <c r="B47" t="s">
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G47" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="H47" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I47" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J47" t="s">
         <v>18</v>
@@ -4013,28 +4226,31 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>215</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
       </c>
       <c r="C48" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G48" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H48" t="s">
         <v>67</v>
       </c>
       <c r="I48" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J48" t="s">
         <v>77</v>
@@ -4042,25 +4258,28 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="B49" t="s">
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I49" t="s">
         <v>32</v>
@@ -4068,54 +4287,60 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>223</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="I50" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="B51" t="s">
+        <v>229</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H51" t="s">
         <v>67</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J51" t="s">
         <v>77</v>
@@ -4123,22 +4348,25 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G52" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H52" t="s">
         <v>96</v>
@@ -4152,22 +4380,25 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>234</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H53" t="s">
         <v>30</v>
@@ -4181,19 +4412,22 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>239</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
@@ -4207,19 +4441,22 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>241</v>
+      </c>
+      <c r="B55" t="s">
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
@@ -4233,48 +4470,54 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="B56" t="s">
+        <v>244</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I56" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>233</v>
+        <v>247</v>
+      </c>
+      <c r="B57" t="s">
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="G57" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H57" t="s">
         <v>96</v>
@@ -4288,28 +4531,31 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>251</v>
+      </c>
+      <c r="B58" t="s">
+        <v>252</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="G58" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I58" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="J58" t="s">
         <v>18</v>
@@ -4317,22 +4563,25 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>240</v>
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>256</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
       </c>
       <c r="F59" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G59" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H59" t="s">
         <v>36</v>
@@ -4346,28 +4595,31 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>259</v>
+      </c>
+      <c r="B60" t="s">
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="G60" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="H60" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I60" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s">
         <v>58</v>
@@ -4375,28 +4627,31 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>264</v>
+      </c>
+      <c r="B61" t="s">
+        <v>265</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="H61" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I61" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J61" t="s">
         <v>18</v>
@@ -4404,28 +4659,31 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>270</v>
+      </c>
+      <c r="B62" t="s">
+        <v>271</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
       </c>
       <c r="F62" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="H62" t="s">
         <v>96</v>
       </c>
       <c r="I62" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="J62" t="s">
         <v>32</v>
@@ -4433,28 +4691,31 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>275</v>
+      </c>
+      <c r="B63" t="s">
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G63" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="H63" t="s">
         <v>67</v>
       </c>
       <c r="I63" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J63" t="s">
         <v>81</v>
@@ -4462,28 +4723,31 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>262</v>
+        <v>279</v>
+      </c>
+      <c r="B64" t="s">
+        <v>280</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
       </c>
       <c r="F64" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="H64" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I64" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="J64" t="s">
         <v>18</v>
@@ -4491,22 +4755,25 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>265</v>
+        <v>283</v>
+      </c>
+      <c r="B65" t="s">
+        <v>284</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
       </c>
       <c r="F65" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H65" t="s">
         <v>36</v>
@@ -4520,22 +4787,25 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>286</v>
+      </c>
+      <c r="B66" t="s">
+        <v>287</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="G66" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H66" t="s">
         <v>67</v>
@@ -4549,22 +4819,25 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>270</v>
+        <v>290</v>
+      </c>
+      <c r="B67" t="s">
+        <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="H67" t="s">
         <v>75</v>
@@ -4578,28 +4851,31 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>273</v>
+        <v>294</v>
+      </c>
+      <c r="B68" t="s">
+        <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="G68" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="H68" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="I68" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="J68" t="s">
         <v>116</v>
@@ -4607,19 +4883,22 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>301</v>
+      </c>
+      <c r="B69" t="s">
+        <v>302</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -4633,22 +4912,25 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>304</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G70" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="H70" t="s">
         <v>30</v>
@@ -4662,28 +4944,31 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>306</v>
+      </c>
+      <c r="B71" t="s">
+        <v>307</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G71" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I71" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="J71" t="s">
         <v>116</v>
@@ -4691,28 +4976,31 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>309</v>
+      </c>
+      <c r="B72" t="s">
+        <v>310</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>234</v>
+        <v>27</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G72" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="H72" t="s">
         <v>67</v>
       </c>
       <c r="I72" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J72" t="s">
         <v>77</v>
@@ -4720,28 +5008,31 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>312</v>
+      </c>
+      <c r="B73" t="s">
+        <v>313</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
       </c>
       <c r="F73" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G73" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="H73" t="s">
         <v>67</v>
       </c>
       <c r="I73" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J73" t="s">
         <v>77</v>
@@ -4749,57 +5040,63 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>288</v>
+        <v>315</v>
+      </c>
+      <c r="B74" t="s">
+        <v>316</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="G74" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="H74" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I74" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="J74" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>319</v>
+      </c>
+      <c r="B75" t="s">
+        <v>320</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G75" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="H75" t="s">
         <v>67</v>
       </c>
       <c r="I75" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J75" t="s">
         <v>116</v>
@@ -4807,19 +5104,22 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>293</v>
+        <v>322</v>
+      </c>
+      <c r="B76" t="s">
+        <v>323</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -4833,51 +5133,57 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>294</v>
+        <v>324</v>
+      </c>
+      <c r="B77" t="s">
+        <v>325</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="G77" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="H77" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I77" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="J77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>297</v>
+        <v>328</v>
+      </c>
+      <c r="B78" t="s">
+        <v>329</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
       </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="G78" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="H78" t="s">
         <v>67</v>
@@ -4891,28 +5197,31 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>300</v>
+        <v>332</v>
+      </c>
+      <c r="B79" t="s">
+        <v>333</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="G79" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="H79" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I79" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="J79" t="s">
         <v>86</v>
@@ -4920,28 +5229,31 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>303</v>
+        <v>336</v>
+      </c>
+      <c r="B80" t="s">
+        <v>337</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="G80" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="H80" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I80" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="J80" t="s">
         <v>69</v>
@@ -4949,22 +5261,25 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>305</v>
+        <v>339</v>
+      </c>
+      <c r="B81" t="s">
+        <v>340</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
       </c>
       <c r="F81" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G81" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="H81" t="s">
         <v>101</v>
@@ -4978,19 +5293,22 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>308</v>
+        <v>343</v>
+      </c>
+      <c r="B82" t="s">
+        <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -5004,28 +5322,31 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>310</v>
+        <v>346</v>
+      </c>
+      <c r="B83" t="s">
+        <v>347</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D83" t="s">
-        <v>216</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
       </c>
       <c r="F83" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G83" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="H83" t="s">
         <v>59</v>
       </c>
       <c r="I83" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J83" t="s">
         <v>81</v>
@@ -5033,28 +5354,31 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>348</v>
+      </c>
+      <c r="B84" t="s">
+        <v>349</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
       </c>
       <c r="F84" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="G84" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="H84" t="s">
         <v>67</v>
       </c>
       <c r="I84" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J84" t="s">
         <v>116</v>
@@ -5062,22 +5386,25 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>314</v>
+        <v>352</v>
+      </c>
+      <c r="B85" t="s">
+        <v>353</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D85" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="G85" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H85" t="s">
         <v>36</v>
@@ -5091,28 +5418,31 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>355</v>
+      </c>
+      <c r="B86" t="s">
+        <v>356</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="G86" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="H86" t="s">
         <v>59</v>
       </c>
       <c r="I86" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J86" t="s">
         <v>116</v>
@@ -5120,28 +5450,28 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="C87" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D87" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G87" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H87" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="I87" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
@@ -5149,109 +5479,109 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D88" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="G88" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="H88" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="I88" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="J88" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="C89" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="G89" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="H89" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I89" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J89" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D90" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="G90" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="H90" t="s">
         <v>67</v>
       </c>
       <c r="I90" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="J90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
       <c r="F91" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="G91" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="H91" t="s">
         <v>23</v>
@@ -5265,86 +5595,86 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D92" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
       </c>
       <c r="F92" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="G92" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="H92" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I92" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J92" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
       </c>
       <c r="F93" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G93" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="H93" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I93" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="J93" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D94" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="G94" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="H94" t="s">
         <v>81</v>
       </c>
       <c r="I94" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J94" t="s">
         <v>18</v>
@@ -5352,22 +5682,22 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="G95" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="H95" t="s">
         <v>67</v>
@@ -5376,33 +5706,33 @@
         <v>68</v>
       </c>
       <c r="J95" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
       </c>
       <c r="F96" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="G96" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="H96" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I96" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J96" t="s">
         <v>146</v>
@@ -5410,19 +5740,19 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D97" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -5431,7 +5761,7 @@
         <v>81</v>
       </c>
       <c r="I97" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J97" t="s">
         <v>23</v>
@@ -5439,106 +5769,106 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D98" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="G98" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="H98" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I98" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J98" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="G99" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="H99" t="s">
         <v>67</v>
       </c>
       <c r="I99" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J99" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D100" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="G100" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="H100" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="I100" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="J100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D101" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
@@ -5547,7 +5877,7 @@
         <v>50</v>
       </c>
       <c r="I101" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="J101" t="s">
         <v>23</v>
@@ -5555,80 +5885,80 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D102" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="G102" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="H102" t="s">
         <v>75</v>
       </c>
       <c r="I102" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="J102" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="G103" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="H103" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I103" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J103" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D104" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="G104" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="H104" t="s">
         <v>67</v>
@@ -5637,111 +5967,111 @@
         <v>68</v>
       </c>
       <c r="J104" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="C105" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
       </c>
       <c r="F105" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="G105" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="H105" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="I105" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="J105" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D106" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
       </c>
       <c r="F106" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="G106" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="H106" t="s">
         <v>59</v>
       </c>
       <c r="I106" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J106" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D107" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
       </c>
       <c r="F107" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="G107" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="H107" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I107" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J107" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="C108" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
@@ -5750,7 +6080,7 @@
         <v>81</v>
       </c>
       <c r="I108" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J108" t="s">
         <v>23</v>
@@ -5758,28 +6088,28 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="C109" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D109" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="I109" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
       <c r="J109" t="s">
         <v>23</v>
@@ -5787,28 +6117,28 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>401</v>
+        <v>454</v>
       </c>
       <c r="C110" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D110" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G110" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H110" t="s">
         <v>77</v>
       </c>
       <c r="I110" t="s">
-        <v>402</v>
+        <v>455</v>
       </c>
       <c r="J110" t="s">
         <v>51</v>
@@ -5816,86 +6146,86 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="C111" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D111" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="G111" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="H111" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I111" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J111" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="C112" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D112" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G112" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="H112" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I112" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J112" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="G113" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="H113" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="I113" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="J113" t="s">
         <v>18</v>
@@ -5903,28 +6233,28 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D114" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G114" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="H114" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I114" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="J114" t="s">
         <v>32</v>
@@ -5932,28 +6262,28 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="C115" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G115" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H115" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I115" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J115" t="s">
         <v>51</v>
@@ -5961,28 +6291,28 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="C116" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D116" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="I116" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="J116" t="s">
         <v>23</v>
@@ -5990,86 +6320,86 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="C117" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D117" t="s">
-        <v>225</v>
+        <v>476</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="G117" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="H117" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I117" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J117" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="C118" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D118" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="G118" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="H118" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I118" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J118" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="C119" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D119" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G119" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="H119" t="s">
         <v>69</v>
       </c>
       <c r="I119" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="J119" t="s">
         <v>116</v>
@@ -6077,135 +6407,135 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="C120" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D120" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="G120" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="H120" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I120" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J120" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="C121" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="G121" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="H121" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="I121" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="J121" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="C122" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D122" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="G122" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="H122" t="s">
         <v>86</v>
       </c>
       <c r="I122" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="J122" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D123" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G123" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="H123" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I123" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="J123" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="C124" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D124" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
@@ -6222,28 +6552,28 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
       <c r="C125" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D125" t="s">
-        <v>193</v>
+        <v>501</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="G125" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="H125" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I125" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J125" t="s">
         <v>81</v>
@@ -6251,19 +6581,19 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="C126" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D126" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>187</v>
+        <v>505</v>
       </c>
       <c r="G126" t="s">
         <v>16</v>
@@ -6277,231 +6607,231 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="C127" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D127" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="G127" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="H127" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="I127" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="J127" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="C128" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D128" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="G128" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="H128" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I128" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J128" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="C129" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D129" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G129" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="H129" t="s">
         <v>69</v>
       </c>
       <c r="I129" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="J129" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="C130" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D130" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G130" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="H130" t="s">
         <v>86</v>
       </c>
       <c r="I130" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="J130" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D131" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="G131" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="H131" t="s">
         <v>86</v>
       </c>
       <c r="I131" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="J131" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="C132" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D132" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="G132" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="H132" t="s">
         <v>86</v>
       </c>
       <c r="I132" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="J132" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D133" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="G133" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="H133" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="I133" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="J133" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="C134" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D134" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="G134" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="H134" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I134" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J134" t="s">
         <v>81</v>
@@ -6509,57 +6839,57 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="C135" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D135" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="G135" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="H135" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="I135" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="J135" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="C136" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D136" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="G136" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="H136" t="s">
         <v>81</v>
       </c>
       <c r="I136" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J136" t="s">
         <v>86</v>
@@ -6567,57 +6897,57 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="C137" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D137" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="G137" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="H137" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="I137" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="J137" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D138" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="G138" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="H138" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I138" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J138" t="s">
         <v>81</v>
@@ -6625,86 +6955,86 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="C139" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D139" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="G139" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="H139" t="s">
         <v>59</v>
       </c>
       <c r="I139" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="C140" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D140" t="s">
-        <v>225</v>
+        <v>476</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="G140" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="H140" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="I140" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="J140" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="C141" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D141" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="G141" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="H141" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I141" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="J141" t="s">
         <v>116</v>
@@ -6712,57 +7042,57 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="C142" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D142" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="G142" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="H142" t="s">
         <v>59</v>
       </c>
       <c r="I142" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="C143" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D143" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="E143" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F143" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="G143" t="s">
         <v>16</v>
       </c>
       <c r="H143" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="I143" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="J143" t="s">
         <v>23</v>
@@ -6770,86 +7100,86 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="C144" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D144" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G144" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="H144" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="I144" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="J144" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="C145" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="D145" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="G145" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="H145" t="s">
         <v>69</v>
       </c>
       <c r="I145" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="J145" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="C146" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D146" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G146" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H146" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="I146" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="J146" t="s">
         <v>51</v>
@@ -6857,28 +7187,28 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="C147" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D147" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="G147" t="s">
         <v>16</v>
       </c>
       <c r="H147" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="I147" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="J147" t="s">
         <v>23</v>
@@ -6886,115 +7216,115 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="C148" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D148" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="G148" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="H148" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="I148" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="J148" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="C149" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D149" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="G149" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="H149" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I149" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J149" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="C150" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D150" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="G150" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="H150" t="s">
         <v>69</v>
       </c>
       <c r="I150" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="J150" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="C151" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D151" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G151" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H151" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="I151" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
@@ -7002,57 +7332,57 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="C152" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D152" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="G152" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="H152" t="s">
         <v>116</v>
       </c>
       <c r="I152" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J152" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="C153" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D153" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="E153" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F153" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="G153" t="s">
         <v>16</v>
       </c>
       <c r="H153" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="I153" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="J153" t="s">
         <v>23</v>
@@ -7060,86 +7390,86 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="C154" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D154" t="s">
-        <v>225</v>
+        <v>476</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="G154" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="H154" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I154" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J154" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="C155" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D155" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="G155" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="H155" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="I155" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="J155" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="C156" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D156" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G156" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H156" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="I156" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="J156" t="s">
         <v>51</v>
@@ -7147,28 +7477,28 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="C157" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D157" t="s">
-        <v>193</v>
+        <v>501</v>
       </c>
       <c r="E157" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F157" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="G157" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="H157" t="s">
         <v>116</v>
       </c>
       <c r="I157" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J157" t="s">
         <v>51</v>
@@ -7176,28 +7506,28 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="C158" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D158" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="G158" t="s">
         <v>16</v>
       </c>
       <c r="H158" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="I158" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="J158" t="s">
         <v>23</v>
@@ -7205,57 +7535,57 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="C159" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D159" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G159" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="H159" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="I159" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="J159" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="C160" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D160" t="s">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>550</v>
+        <v>607</v>
       </c>
       <c r="G160" t="s">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="H160" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="I160" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="J160" t="s">
         <v>51</v>
@@ -7263,57 +7593,57 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="C161" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D161" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G161" t="s">
-        <v>554</v>
+        <v>611</v>
       </c>
       <c r="H161" t="s">
-        <v>555</v>
+        <v>612</v>
       </c>
       <c r="I161" t="s">
-        <v>556</v>
+        <v>613</v>
       </c>
       <c r="J161" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="C162" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D162" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G162" t="s">
         <v>16</v>
       </c>
       <c r="H162" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="I162" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="J162" t="s">
         <v>23</v>
@@ -7321,28 +7651,28 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>560</v>
+        <v>617</v>
       </c>
       <c r="C163" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D163" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E163" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F163" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="G163" t="s">
-        <v>562</v>
+        <v>619</v>
       </c>
       <c r="H163" t="s">
         <v>116</v>
       </c>
       <c r="I163" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J163" t="s">
         <v>51</v>
@@ -7350,167 +7680,167 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="C164" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D164" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
       </c>
       <c r="F164" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="G164" t="s">
-        <v>565</v>
+        <v>622</v>
       </c>
       <c r="I164" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="J164" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="C165" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D165" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>568</v>
+        <v>625</v>
       </c>
       <c r="G165" t="s">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="H165" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I165" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J165" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>570</v>
+        <v>627</v>
       </c>
       <c r="C166" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D166" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="G166" t="s">
-        <v>571</v>
+        <v>628</v>
       </c>
       <c r="H166" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="I166" t="s">
-        <v>572</v>
+        <v>629</v>
       </c>
       <c r="J166" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="C167" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D167" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="G167" t="s">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="H167" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I167" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J167" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D168" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="G168" t="s">
-        <v>577</v>
+        <v>634</v>
       </c>
       <c r="H168" t="s">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="I168" t="s">
-        <v>579</v>
+        <v>636</v>
       </c>
       <c r="J168" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>580</v>
+        <v>637</v>
       </c>
       <c r="C169" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D169" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="G169" t="s">
-        <v>581</v>
+        <v>638</v>
       </c>
       <c r="I169" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J169" t="s">
         <v>51</v>
@@ -7518,86 +7848,86 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>582</v>
+        <v>639</v>
       </c>
       <c r="C170" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D170" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="G170" t="s">
-        <v>584</v>
+        <v>641</v>
       </c>
       <c r="H170" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I170" t="s">
-        <v>585</v>
+        <v>642</v>
       </c>
       <c r="J170" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="C171" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D171" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="G171" t="s">
-        <v>587</v>
+        <v>644</v>
       </c>
       <c r="H171" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I171" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J171" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>588</v>
+        <v>645</v>
       </c>
       <c r="C172" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D172" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G172" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H172" t="s">
-        <v>589</v>
+        <v>646</v>
       </c>
       <c r="I172" t="s">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="J172" t="s">
         <v>51</v>
@@ -7605,86 +7935,86 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>591</v>
+        <v>648</v>
       </c>
       <c r="C173" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D173" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="G173" t="s">
-        <v>593</v>
+        <v>650</v>
       </c>
       <c r="H173" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I173" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J173" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>594</v>
+        <v>651</v>
       </c>
       <c r="C174" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D174" t="s">
-        <v>216</v>
+        <v>388</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>595</v>
+        <v>652</v>
       </c>
       <c r="G174" t="s">
-        <v>596</v>
+        <v>653</v>
       </c>
       <c r="H174" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I174" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J174" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>597</v>
+        <v>654</v>
       </c>
       <c r="C175" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D175" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>598</v>
+        <v>655</v>
       </c>
       <c r="G175" t="s">
         <v>16</v>
       </c>
       <c r="H175" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I175" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="J175" t="s">
         <v>23</v>
@@ -7692,77 +8022,77 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>599</v>
+        <v>656</v>
       </c>
       <c r="C176" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D176" t="s">
-        <v>600</v>
+        <v>657</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>601</v>
+        <v>658</v>
       </c>
       <c r="G176" t="s">
-        <v>602</v>
+        <v>659</v>
       </c>
       <c r="H176" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="I176" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="J176" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>603</v>
+        <v>660</v>
       </c>
       <c r="C177" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D177" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>604</v>
+        <v>661</v>
       </c>
       <c r="G177" t="s">
+        <v>496</v>
+      </c>
+      <c r="H177" t="s">
         <v>441</v>
       </c>
-      <c r="H177" t="s">
-        <v>388</v>
-      </c>
       <c r="I177" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="J177" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>605</v>
+        <v>662</v>
       </c>
       <c r="C178" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D178" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G178" t="s">
         <v>16</v>
@@ -7771,7 +8101,7 @@
         <v>59</v>
       </c>
       <c r="I178" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J178" t="s">
         <v>23</v>
@@ -7779,28 +8109,28 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>606</v>
+        <v>663</v>
       </c>
       <c r="C179" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D179" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G179" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H179" t="s">
-        <v>607</v>
+        <v>664</v>
       </c>
       <c r="I179" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
@@ -7808,28 +8138,28 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>609</v>
+        <v>666</v>
       </c>
       <c r="C180" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D180" t="s">
-        <v>225</v>
+        <v>476</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G180" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H180" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="I180" t="s">
-        <v>610</v>
+        <v>667</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
@@ -7837,115 +8167,115 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>611</v>
+        <v>668</v>
       </c>
       <c r="C181" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D181" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="G181" t="s">
-        <v>612</v>
+        <v>669</v>
       </c>
       <c r="H181" t="s">
         <v>81</v>
       </c>
       <c r="I181" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J181" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
       <c r="C182" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D182" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>614</v>
+        <v>671</v>
       </c>
       <c r="G182" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="H182" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="I182" t="s">
-        <v>615</v>
+        <v>672</v>
       </c>
       <c r="J182" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>616</v>
+        <v>673</v>
       </c>
       <c r="C183" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D183" t="s">
-        <v>162</v>
+        <v>418</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="G183" t="s">
-        <v>618</v>
+        <v>675</v>
       </c>
       <c r="H183" t="s">
         <v>81</v>
       </c>
       <c r="I183" t="s">
-        <v>619</v>
+        <v>676</v>
       </c>
       <c r="J183" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>620</v>
+        <v>677</v>
       </c>
       <c r="C184" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D184" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G184" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H184" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="I184" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="J184" t="s">
         <v>51</v>
@@ -7953,19 +8283,19 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>622</v>
+        <v>679</v>
       </c>
       <c r="C185" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D185" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="G185" t="s">
         <v>16</v>
@@ -7982,28 +8312,28 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>623</v>
+        <v>680</v>
       </c>
       <c r="C186" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D186" t="s">
-        <v>193</v>
+        <v>501</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G186" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H186" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="I186" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="J186" t="s">
         <v>51</v>
@@ -8011,86 +8341,86 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>624</v>
+        <v>681</v>
       </c>
       <c r="C187" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D187" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="G187" t="s">
-        <v>626</v>
+        <v>683</v>
       </c>
       <c r="H187" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I187" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J187" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>627</v>
+        <v>684</v>
       </c>
       <c r="C188" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D188" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>404</v>
+        <v>457</v>
       </c>
       <c r="G188" t="s">
-        <v>628</v>
+        <v>685</v>
       </c>
       <c r="H188" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I188" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J188" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>629</v>
+        <v>686</v>
       </c>
       <c r="C189" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D189" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E189" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F189" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
       </c>
       <c r="H189" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="I189" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="J189" t="s">
         <v>23</v>
@@ -8098,28 +8428,28 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
       <c r="C190" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D190" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
       <c r="G190" t="s">
-        <v>632</v>
+        <v>689</v>
       </c>
       <c r="H190" t="s">
         <v>32</v>
       </c>
       <c r="I190" t="s">
-        <v>633</v>
+        <v>690</v>
       </c>
       <c r="J190" t="s">
         <v>81</v>
@@ -8127,109 +8457,109 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>634</v>
+        <v>691</v>
       </c>
       <c r="C191" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D191" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E191" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F191" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="G191" t="s">
-        <v>635</v>
+        <v>692</v>
       </c>
       <c r="I191" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="J191" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>636</v>
+        <v>693</v>
       </c>
       <c r="C192" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D192" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="G192" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="H192" t="s">
         <v>81</v>
       </c>
       <c r="I192" t="s">
-        <v>619</v>
+        <v>676</v>
       </c>
       <c r="J192" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>637</v>
+        <v>694</v>
       </c>
       <c r="C193" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D193" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="G193" t="s">
-        <v>638</v>
+        <v>695</v>
       </c>
       <c r="H193" t="s">
         <v>81</v>
       </c>
       <c r="I193" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J193" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>639</v>
+        <v>696</v>
       </c>
       <c r="C194" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D194" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="G194" t="s">
-        <v>641</v>
+        <v>698</v>
       </c>
       <c r="I194" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J194" t="s">
         <v>51</v>
@@ -8237,228 +8567,228 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="C195" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D195" t="s">
-        <v>225</v>
+        <v>476</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G195" t="s">
-        <v>643</v>
+        <v>700</v>
       </c>
       <c r="H195" t="s">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="I195" t="s">
-        <v>579</v>
+        <v>636</v>
       </c>
       <c r="J195" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>644</v>
+        <v>701</v>
       </c>
       <c r="C196" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D196" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="G196" t="s">
-        <v>645</v>
+        <v>702</v>
       </c>
       <c r="H196" t="s">
         <v>81</v>
       </c>
       <c r="I196" t="s">
-        <v>619</v>
+        <v>676</v>
       </c>
       <c r="J196" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>646</v>
+        <v>703</v>
       </c>
       <c r="C197" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D197" t="s">
-        <v>193</v>
+        <v>501</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>583</v>
+        <v>640</v>
       </c>
       <c r="G197" t="s">
-        <v>647</v>
+        <v>704</v>
       </c>
       <c r="H197" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="I197" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="J197" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>648</v>
+        <v>705</v>
       </c>
       <c r="C198" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D198" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="G198" t="s">
-        <v>649</v>
+        <v>706</v>
       </c>
       <c r="H198" t="s">
         <v>116</v>
       </c>
       <c r="I198" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J198" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>650</v>
+        <v>707</v>
       </c>
       <c r="C199" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D199" t="s">
-        <v>255</v>
+        <v>410</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="G199" t="s">
-        <v>651</v>
+        <v>708</v>
       </c>
       <c r="H199" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I199" t="s">
-        <v>585</v>
+        <v>642</v>
       </c>
       <c r="J199" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>652</v>
+        <v>709</v>
       </c>
       <c r="C200" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D200" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="G200" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="H200" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="I200" t="s">
-        <v>653</v>
+        <v>710</v>
       </c>
       <c r="J200" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>654</v>
+        <v>711</v>
       </c>
       <c r="C201" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D201" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>625</v>
+        <v>682</v>
       </c>
       <c r="G201" t="s">
-        <v>655</v>
+        <v>712</v>
       </c>
       <c r="H201" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I201" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J201" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
       <c r="C202" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D202" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>640</v>
+        <v>697</v>
       </c>
       <c r="G202" t="s">
-        <v>657</v>
+        <v>714</v>
       </c>
       <c r="I202" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J202" t="s">
         <v>51</v>
@@ -8466,115 +8796,115 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>658</v>
+        <v>715</v>
       </c>
       <c r="C203" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D203" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="G203" t="s">
-        <v>659</v>
+        <v>716</v>
       </c>
       <c r="H203" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I203" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J203" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>660</v>
+        <v>717</v>
       </c>
       <c r="C204" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D204" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="G204" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
       <c r="H204" t="s">
         <v>81</v>
       </c>
       <c r="I204" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J204" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>662</v>
+        <v>719</v>
       </c>
       <c r="C205" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D205" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="G205" t="s">
-        <v>663</v>
+        <v>720</v>
       </c>
       <c r="H205" t="s">
         <v>81</v>
       </c>
       <c r="I205" t="s">
-        <v>619</v>
+        <v>676</v>
       </c>
       <c r="J205" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>664</v>
+        <v>721</v>
       </c>
       <c r="C206" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D206" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>665</v>
+        <v>722</v>
       </c>
       <c r="G206" t="s">
-        <v>666</v>
+        <v>723</v>
       </c>
       <c r="H206" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="I206" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
@@ -8582,28 +8912,28 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>667</v>
+        <v>724</v>
       </c>
       <c r="C207" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D207" t="s">
-        <v>668</v>
+        <v>725</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>669</v>
+        <v>726</v>
       </c>
       <c r="G207" t="s">
-        <v>670</v>
+        <v>727</v>
       </c>
       <c r="H207" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="I207" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="J207" t="s">
         <v>51</v>
@@ -8611,57 +8941,57 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>671</v>
+        <v>728</v>
       </c>
       <c r="C208" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D208" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>617</v>
+        <v>674</v>
       </c>
       <c r="G208" t="s">
-        <v>618</v>
+        <v>675</v>
       </c>
       <c r="H208" t="s">
         <v>116</v>
       </c>
       <c r="I208" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J208" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>672</v>
+        <v>729</v>
       </c>
       <c r="C209" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D209" t="s">
-        <v>673</v>
+        <v>730</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>674</v>
+        <v>731</v>
       </c>
       <c r="G209" t="s">
-        <v>675</v>
+        <v>732</v>
       </c>
       <c r="H209" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="I209" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
@@ -8669,173 +8999,173 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>676</v>
+        <v>733</v>
       </c>
       <c r="C210" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D210" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E210" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F210" t="s">
-        <v>564</v>
+        <v>621</v>
       </c>
       <c r="G210" t="s">
-        <v>677</v>
+        <v>734</v>
       </c>
       <c r="H210" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="I210" t="s">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="J210" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>678</v>
+        <v>735</v>
       </c>
       <c r="C211" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D211" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="G211" t="s">
-        <v>679</v>
+        <v>736</v>
       </c>
       <c r="H211" t="s">
         <v>81</v>
       </c>
       <c r="I211" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="J211" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>680</v>
+        <v>737</v>
       </c>
       <c r="C212" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D212" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="G212" t="s">
-        <v>681</v>
+        <v>738</v>
       </c>
       <c r="H212" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I212" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J212" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>682</v>
+        <v>739</v>
       </c>
       <c r="C213" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D213" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>683</v>
+        <v>740</v>
       </c>
       <c r="G213" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="H213" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I213" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J213" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>684</v>
+        <v>741</v>
       </c>
       <c r="C214" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D214" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>574</v>
+        <v>631</v>
       </c>
       <c r="G214" t="s">
-        <v>685</v>
+        <v>742</v>
       </c>
       <c r="H214" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I214" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J214" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="C215" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D215" t="s">
-        <v>225</v>
+        <v>476</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="G215" t="s">
         <v>16</v>
       </c>
       <c r="H215" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="I215" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="J215" t="s">
         <v>23</v>
@@ -8843,25 +9173,25 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>687</v>
+        <v>744</v>
       </c>
       <c r="C216" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D216" t="s">
-        <v>189</v>
+        <v>400</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="G216" t="s">
-        <v>688</v>
+        <v>745</v>
       </c>
       <c r="I216" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J216" t="s">
         <v>51</v>
@@ -8869,318 +9199,318 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="C217" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D217" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="G217" t="s">
-        <v>691</v>
+        <v>748</v>
       </c>
       <c r="H217" t="s">
-        <v>692</v>
+        <v>749</v>
       </c>
       <c r="I217" t="s">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="J217" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>694</v>
+        <v>751</v>
       </c>
       <c r="C218" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D218" t="s">
-        <v>241</v>
+        <v>424</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
       <c r="G218" t="s">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="H218" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="I218" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="J218" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>696</v>
+        <v>753</v>
       </c>
       <c r="C219" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D219" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="G219" t="s">
-        <v>697</v>
+        <v>754</v>
       </c>
       <c r="H219" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I219" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J219" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>698</v>
+        <v>755</v>
       </c>
       <c r="C220" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D220" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>699</v>
+        <v>756</v>
       </c>
       <c r="G220" t="s">
-        <v>700</v>
+        <v>757</v>
       </c>
       <c r="H220" t="s">
         <v>69</v>
       </c>
       <c r="I220" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="J220" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>701</v>
+        <v>758</v>
       </c>
       <c r="C221" t="s">
+        <v>559</v>
+      </c>
+      <c r="D221" t="s">
+        <v>360</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" t="s">
         <v>502</v>
       </c>
-      <c r="D221" t="s">
-        <v>234</v>
-      </c>
-      <c r="E221" t="s">
-        <v>14</v>
-      </c>
-      <c r="F221" t="s">
-        <v>446</v>
-      </c>
       <c r="G221" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="H221" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I221" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J221" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>702</v>
+        <v>759</v>
       </c>
       <c r="C222" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D222" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>592</v>
+        <v>649</v>
       </c>
       <c r="G222" t="s">
-        <v>703</v>
+        <v>760</v>
       </c>
       <c r="H222" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I222" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J222" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>704</v>
+        <v>761</v>
       </c>
       <c r="C223" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D223" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>699</v>
+        <v>756</v>
       </c>
       <c r="G223" t="s">
-        <v>705</v>
+        <v>762</v>
       </c>
       <c r="H223" t="s">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="I223" t="s">
-        <v>579</v>
+        <v>636</v>
       </c>
       <c r="J223" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>706</v>
+        <v>763</v>
       </c>
       <c r="C224" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D224" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>275</v>
+        <v>361</v>
       </c>
       <c r="G224" t="s">
-        <v>707</v>
+        <v>764</v>
       </c>
       <c r="H224" t="s">
         <v>91</v>
       </c>
       <c r="I224" t="s">
-        <v>708</v>
+        <v>765</v>
       </c>
       <c r="J224" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>709</v>
+        <v>766</v>
       </c>
       <c r="C225" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D225" t="s">
-        <v>157</v>
+        <v>495</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="G225" t="s">
-        <v>710</v>
+        <v>767</v>
       </c>
       <c r="H225" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="I225" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="J225" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>711</v>
+        <v>768</v>
       </c>
       <c r="C226" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D226" t="s">
-        <v>209</v>
+        <v>435</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="G226" t="s">
-        <v>712</v>
+        <v>769</v>
       </c>
       <c r="H226" t="s">
         <v>116</v>
       </c>
       <c r="I226" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="J226" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>713</v>
+        <v>770</v>
       </c>
       <c r="C227" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D227" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
       </c>
       <c r="F227" t="s">
-        <v>714</v>
+        <v>771</v>
       </c>
       <c r="G227" t="s">
-        <v>715</v>
+        <v>772</v>
       </c>
       <c r="H227" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="I227" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="J227" t="s">
         <v>51</v>
@@ -9188,57 +9518,57 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>716</v>
+        <v>773</v>
       </c>
       <c r="C228" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D228" t="s">
-        <v>171</v>
+        <v>404</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>595</v>
+        <v>652</v>
       </c>
       <c r="G228" t="s">
-        <v>717</v>
+        <v>774</v>
       </c>
       <c r="H228" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="I228" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="J228" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>718</v>
+        <v>775</v>
       </c>
       <c r="C229" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D229" t="s">
-        <v>719</v>
+        <v>776</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
       <c r="G229" t="s">
         <v>16</v>
       </c>
       <c r="H229" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="I229" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="J229" t="s">
         <v>23</v>
@@ -9246,28 +9576,28 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="C230" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D230" t="s">
-        <v>722</v>
+        <v>779</v>
       </c>
       <c r="E230" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F230" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="G230" t="s">
         <v>16</v>
       </c>
       <c r="H230" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="I230" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="J230" t="s">
         <v>23</v>
@@ -9275,28 +9605,28 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>723</v>
+        <v>780</v>
       </c>
       <c r="C231" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="D231" t="s">
-        <v>722</v>
+        <v>779</v>
       </c>
       <c r="E231" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="F231" t="s">
-        <v>724</v>
+        <v>781</v>
       </c>
       <c r="G231" t="s">
         <v>16</v>
       </c>
       <c r="H231" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="I231" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="J231" t="s">
         <v>23</v>

--- a/data_G.xlsx
+++ b/data_G.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="840">
   <si>
     <t>questName</t>
   </si>
@@ -1096,1204 +1096,1378 @@
     <t>遺跡平原の改善要求</t>
   </si>
   <si>
+    <t>유적평원의 개선요구</t>
+  </si>
+  <si>
     <t>G★3</t>
   </si>
   <si>
+    <t>용역원(龍歴院)포인트 2500pts 입수</t>
+  </si>
+  <si>
+    <t>3200z</t>
+  </si>
+  <si>
+    <t>31500z</t>
+  </si>
+  <si>
+    <t>かくし味は燃石炭</t>
+  </si>
+  <si>
+    <t>맛의 비법은 연석탄</t>
+  </si>
+  <si>
+    <t>지저화산(地底火山)</t>
+  </si>
+  <si>
+    <t>우라간킨(ウラガンキン) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>900z</t>
+  </si>
+  <si>
+    <t>9000z</t>
+  </si>
+  <si>
+    <t>17400z</t>
+  </si>
+  <si>
+    <t>氷海のすばらしい氷</t>
+  </si>
+  <si>
+    <t>빙해의 굉장한 얼음</t>
+  </si>
+  <si>
+    <t>가무토(ガムート) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>가무토(ガムート)의 코 파괴</t>
+  </si>
+  <si>
+    <t>2200z</t>
+  </si>
+  <si>
+    <t>21600z</t>
+  </si>
+  <si>
+    <t>3900z</t>
+  </si>
+  <si>
+    <t>氷海の恐怖体験</t>
+  </si>
+  <si>
+    <t>빙해의 공포체험</t>
+  </si>
+  <si>
+    <t>푸르푸르(フルフル)의 머리와 몸통 파괴</t>
+  </si>
+  <si>
+    <t>13800z</t>
+  </si>
+  <si>
+    <t>幻獣、キリン現る！</t>
+  </si>
+  <si>
+    <t>환수, 키린 나타나다!</t>
+  </si>
+  <si>
+    <t>키린(キリン) 토벌</t>
+  </si>
+  <si>
+    <t>길드 플래그(ギルドフラッグ)를 산정상에 설치</t>
+  </si>
+  <si>
+    <t>泡狐竜流狩人道場</t>
+  </si>
+  <si>
+    <t>포호룡류 사냥꾼 도장</t>
+  </si>
+  <si>
+    <t>타마미츠네(タマミツネ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>타마미츠네(タマミツネ)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>闘技場での最終テストっチャ！</t>
+  </si>
+  <si>
+    <t>투기장에서의 최후 테스트!</t>
+  </si>
+  <si>
+    <t>단차에 의한 다운을 4회 성공</t>
+  </si>
+  <si>
+    <t>18300z</t>
+  </si>
+  <si>
+    <t>斬竜流狩人道場</t>
+  </si>
+  <si>
+    <t>참룡류 사냥꾼 도장</t>
+  </si>
+  <si>
+    <t>디노발드(ディノバルド) 1마리 포획</t>
+  </si>
+  <si>
+    <t>우로코토루(ウロコトル) 8마리 토벌</t>
+  </si>
+  <si>
+    <t>26100z</t>
+  </si>
+  <si>
+    <t>桃毛獣による新人への洗礼</t>
+  </si>
+  <si>
+    <t>도모수에 의한 신인 신고식</t>
+  </si>
+  <si>
+    <t>바바콩가(ババコンガ)의 볏과 발톱 파괴</t>
+  </si>
+  <si>
+    <t>女帝の花道</t>
+  </si>
+  <si>
+    <t>여제의 꽃꽂이</t>
+  </si>
+  <si>
+    <t>게넬・셀타스(ゲネル・セルタス) 1마리 포획</t>
+  </si>
+  <si>
+    <t>아르셀타스(アルセルタス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>2300z</t>
+  </si>
+  <si>
+    <t>22800z</t>
+  </si>
+  <si>
+    <t>夢か現か幻か</t>
+  </si>
+  <si>
+    <t>꿈인지 생시인지 환상인지</t>
+  </si>
+  <si>
+    <t>騎士と密林の夢</t>
+  </si>
+  <si>
+    <t>기사와 밀림의 꿈</t>
+  </si>
+  <si>
+    <t>타마미츠네(タマミツネ)의 등지느러미 파괴</t>
+  </si>
+  <si>
+    <t>旧砂漠のすばらしい砂</t>
+  </si>
+  <si>
+    <t>구사막의 굉장한 모래</t>
+  </si>
+  <si>
+    <t>볼보로스(ボルボロス)의 머리와 앞다리 파괴</t>
+  </si>
+  <si>
+    <t>鎌蟹は逃げ道を狩る</t>
+  </si>
+  <si>
+    <t>겸해는 도주로를 사냥한다</t>
+  </si>
+  <si>
+    <t>쇼군기자미(ショウグンギザミ)의 양발톱과 등껍질 파괴</t>
+  </si>
+  <si>
+    <t>1700z</t>
+  </si>
+  <si>
+    <t>16200z</t>
+  </si>
+  <si>
+    <t>影蜘蛛の背中破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>영지주의 등 파괴에 도전</t>
+  </si>
+  <si>
+    <t>네르스큐라(ネルスキュラ)의 겉껍질 파괴</t>
+  </si>
+  <si>
+    <t>6000z</t>
+  </si>
+  <si>
+    <t>先生の鬼門は獰猛な影蜘蛛</t>
+  </si>
+  <si>
+    <t>선생의 귀문은 영맹한 영지주</t>
+  </si>
+  <si>
+    <t>네르스큐라(ネルスキュラ)의 독가시와 발톱 파괴</t>
+  </si>
+  <si>
+    <t>15600z</t>
+  </si>
+  <si>
+    <t>ハロー遺群嶺！</t>
+  </si>
+  <si>
+    <t>헬로 유군령!</t>
+  </si>
+  <si>
+    <t>라이젝스(ライゼクス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>라이젝스(ライゼクス)의 볏 파괴</t>
+  </si>
+  <si>
+    <t>無茶苦茶ムシャムシャ</t>
+  </si>
+  <si>
+    <t>엉망진창우적우적</t>
+  </si>
+  <si>
+    <t>하플봇카(ハプルボッカ)의 양 앞다리 파괴</t>
+  </si>
+  <si>
+    <t>ベルナ村の観光業が大炎上！</t>
+  </si>
+  <si>
+    <t>베르나마을의 관광업이 대염상!</t>
+  </si>
+  <si>
+    <t>리오레이아(リオレイア) 1마리와 디노발드(ディノバルド) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>2900z</t>
+  </si>
+  <si>
+    <t>28500z</t>
+  </si>
+  <si>
+    <t>妹奮闘記～夜鳥退治～</t>
+  </si>
+  <si>
+    <t>여동생 분투기 ~야조퇴치~</t>
+  </si>
+  <si>
+    <t>호로로호루루(ホロロホルル)의 머리와 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>15000z</t>
+  </si>
+  <si>
+    <t>重量級の女帝</t>
+  </si>
+  <si>
+    <t>중량급의 여제</t>
+  </si>
+  <si>
+    <t>게넬・셀타스(ゲネル・セルタス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>게넬・셀타스(ゲネル・セルタス)의 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>狩人のための舞台～遺群嶺～</t>
+  </si>
+  <si>
+    <t>사냥꾼을 위한 무대 ~유군령~</t>
+  </si>
+  <si>
+    <t>毒の洗礼</t>
+  </si>
+  <si>
+    <t>독의 세례</t>
+  </si>
+  <si>
+    <t>도스이오스(ドスイーオス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>8100z</t>
+  </si>
+  <si>
+    <t>砂漠の死闘と希望</t>
+  </si>
+  <si>
+    <t>사막의 사투와 희망</t>
+  </si>
+  <si>
+    <t>24000z</t>
+  </si>
+  <si>
+    <t>ラギアクルス襲撃の予感</t>
+  </si>
+  <si>
+    <t>라기아크루스 습격의 예감</t>
+  </si>
+  <si>
+    <t>라기아크루스(ラギアクルス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>暑い熱い砂漠</t>
+  </si>
+  <si>
+    <t>덥고 뜨거운 사막</t>
+  </si>
+  <si>
+    <t>디노발드(ディノバルド) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>디노발드(ディノバルド)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>グラビモス連続狩猟</t>
+  </si>
+  <si>
+    <t>그라비모스 연속 수렵</t>
+  </si>
+  <si>
+    <t>2마리 이상 수렵하고 타임업 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
+  </si>
+  <si>
+    <t>쿤츄(クンチュウ) 15마리 토벌</t>
+  </si>
+  <si>
+    <t>3100z</t>
+  </si>
+  <si>
+    <t>30900z</t>
+  </si>
+  <si>
+    <t>遺群嶺の難題解決</t>
+  </si>
+  <si>
+    <t>유군령의 난제해결</t>
+  </si>
+  <si>
+    <t>고어・마가라(ゴア・マガラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>불길한 광룡결정(禍々しい狂竜結晶) 1개 납품</t>
+  </si>
+  <si>
+    <t>21300z</t>
+  </si>
+  <si>
+    <t>旧砂漠に吹く熱風！</t>
+  </si>
+  <si>
+    <t>구사막에 부는 열풍!</t>
+  </si>
+  <si>
+    <t>2800z</t>
+  </si>
+  <si>
+    <t>27300z</t>
+  </si>
+  <si>
+    <t>密林のポイント招きネコ</t>
+  </si>
+  <si>
+    <t>밀림의 포인트 마네키 네코</t>
+  </si>
+  <si>
+    <t>海竜のじけん</t>
+  </si>
+  <si>
+    <t>해룡의 사건</t>
+  </si>
+  <si>
+    <t>라기아크루스(ラギアクルス)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>氷牙竜・ベリオロス！</t>
+  </si>
+  <si>
+    <t>빙아룡・베리오로스!</t>
+  </si>
+  <si>
+    <t>베리오로스(ベリオロス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>베리오로스(ベリオロス)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>遺群嶺からの帰還</t>
+  </si>
+  <si>
+    <t>유군령으로부터의 귀환</t>
+  </si>
+  <si>
+    <t>진오우가(ジンオウガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>대뇌광충(大雷光虫) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>20700z</t>
+  </si>
+  <si>
+    <t>氷牙竜が大発明のカギ？</t>
+  </si>
+  <si>
+    <t>빙아룡이 대발명의 열쇠?</t>
+  </si>
+  <si>
+    <t>베리오로스(ベリオロス)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>孤高の黒狼鳥</t>
+  </si>
+  <si>
+    <t>고고한 흑랑룡</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>絞蛇竜の消化能力について</t>
+  </si>
+  <si>
+    <t>교사룡의 소화능력에 대하여</t>
+  </si>
+  <si>
+    <t>가라라아자라(ガララアジャラ)의 머리와 등 파괴</t>
+  </si>
+  <si>
+    <t>17700z</t>
+  </si>
+  <si>
+    <t>強い防具は素材から！</t>
+  </si>
+  <si>
+    <t>강한 방어구는 소재부터!</t>
+  </si>
+  <si>
+    <t>단차에 의한 다운을 3회 성공</t>
+  </si>
+  <si>
+    <t>21900z</t>
+  </si>
+  <si>
+    <t>火山ウロザミ戦線</t>
+  </si>
+  <si>
+    <t>화산 우로자미 전선</t>
+  </si>
+  <si>
+    <t>가미자미(ガミザミ)와 우로코토루(ウロコトル) 합계 18마리 토벌</t>
+  </si>
+  <si>
+    <t>森丘の捕食者たち</t>
+  </si>
+  <si>
+    <t>숲과언덕의 포식자들</t>
+  </si>
+  <si>
+    <t>리오레우스(リオレウス) 1마리와 리오레이아(リオレイア) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>地底火山の採集ツアー</t>
+  </si>
+  <si>
+    <t>지저화산 채집 투어</t>
+  </si>
+  <si>
+    <t>雪崩を呼ぶ遠吠え</t>
+  </si>
+  <si>
+    <t>눈사태를 부르는 먼 짖는 소리</t>
+  </si>
+  <si>
+    <t>도도블랑고(ドドブランゴ)의 어금니와 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>本気の狩りは闘技場の中で</t>
+  </si>
+  <si>
+    <t>진정한 사냥은 투기장 속에서</t>
+  </si>
+  <si>
+    <t>케챠와챠(ケチャワチャ) 1마리와 네르스큐라(ネルスキュラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>月下雷鳴の記憶</t>
+  </si>
+  <si>
+    <t>월하뇌명의 기억</t>
+  </si>
+  <si>
+    <t>진오우가(ジンオウガ)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>トラウマガンキンを退治せよ</t>
+  </si>
+  <si>
+    <t>트라우마간킨을 퇴치해라</t>
+  </si>
+  <si>
+    <t>우라간킨(ウラガンキン)의 턱 파괴</t>
+  </si>
+  <si>
+    <t>原生林の恐怖体験</t>
+  </si>
+  <si>
+    <t>원시림의 공포체험</t>
+  </si>
+  <si>
+    <t>네르스큐라(ネルスキュラ) 1마리와 호로로호루루(ホロロホルル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>18000z</t>
+  </si>
+  <si>
+    <t>古代林で目撃された迅竜の報告</t>
+  </si>
+  <si>
+    <t>고대림에서 목격된 신룡의 보고</t>
+  </si>
+  <si>
+    <t>나르가쿠르가(ナルガクルガ)의 칼날 날개 파괴와 꼬리 절단</t>
+  </si>
+  <si>
+    <t>災禍の水竜</t>
+  </si>
+  <si>
+    <t>재화의 수룡</t>
+  </si>
+  <si>
+    <t>가노토토스(ガノトトス)의 머리와 날개 파괴</t>
+  </si>
+  <si>
+    <t>双子の黒狼鳥</t>
+  </si>
+  <si>
+    <t>쌍둥이 흑랑룡</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ) 2마리 수렵</t>
+  </si>
+  <si>
+    <t>鉱山哀歌</t>
+  </si>
+  <si>
+    <t>광산애가</t>
+  </si>
+  <si>
+    <t>볼가노스(ヴォルガノス)의 머리와 등지느러미 파괴</t>
+  </si>
+  <si>
+    <t>巨獣流狩人道場</t>
+  </si>
+  <si>
+    <t>거수류 사냥꾼 도장</t>
+  </si>
+  <si>
+    <t>가무토(ガムート) 1마리 포획</t>
+  </si>
+  <si>
+    <t>遺群嶺の怒れるリオレイア</t>
+  </si>
+  <si>
+    <t>유군령의 분노한 리오레이아</t>
+  </si>
+  <si>
+    <t>리오레이아(リオレイア)의 머리와 등 파괴</t>
+  </si>
+  <si>
+    <t>空と地の挟撃</t>
+  </si>
+  <si>
+    <t>하늘과 땅의 협동 공격</t>
+  </si>
+  <si>
+    <t>볼가노스(ヴォルガノス) 1마리와 리오레우스(リオレウス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>シャークブリザード</t>
+  </si>
+  <si>
+    <t>샤크 블리자드</t>
+  </si>
+  <si>
+    <t>자보아자길(ザボアザギル)의 머리와 꼬리 파괴</t>
+  </si>
+  <si>
+    <t>空の王者を狩猟せよ！</t>
+  </si>
+  <si>
+    <t>하늘의 왕을 수렵해라!</t>
+  </si>
+  <si>
+    <t>리오레우스(リオレウス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>리오레우스(リオレウス)의 꼬리 절단</t>
+  </si>
+  <si>
+    <t>電竜流狩人道場</t>
+  </si>
+  <si>
+    <t>전룡류 사냥꾼 도장</t>
+  </si>
+  <si>
+    <t>랑고스타(ランゴスタ) 10마리 토벌</t>
+  </si>
+  <si>
+    <t>遺群嶺の楽しい旅</t>
+  </si>
+  <si>
+    <t>유군령의 즐거운 여행</t>
+  </si>
+  <si>
+    <t>바살모스(バサルモス)의 등 파괴와 꼬리 절단</t>
+  </si>
+  <si>
+    <t>巨大龍の侵攻</t>
+  </si>
+  <si>
+    <t>거대룡의 침공</t>
+  </si>
+  <si>
+    <t>성채(砦)</t>
+  </si>
+  <si>
+    <t>35분</t>
+  </si>
+  <si>
+    <t>노산룡(ラオシャンロン) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>30300z</t>
+  </si>
+  <si>
+    <t>古代林に来たりし黒き蝕</t>
+  </si>
+  <si>
+    <t>고대림에 강림한 흑식</t>
+  </si>
+  <si>
+    <t>고어・마가라(ゴア・マガラ)의 날개 다리 파괴</t>
+  </si>
+  <si>
+    <t>鎧竜グラビモスの脅威</t>
+  </si>
+  <si>
+    <t>개룡 그라비모스의 위협</t>
+  </si>
+  <si>
+    <t>그라비모스(グラビモス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>그라비모스(グラビモス)의 머리 파괴</t>
+  </si>
+  <si>
+    <t>絆の証？雪山の獰猛大決戦</t>
+  </si>
+  <si>
+    <t>G★4</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>全ての大型モンスターの狩猟</t>
+  </si>
+  <si>
+    <t>龍歴院ポイント２５００pts入手</t>
+  </si>
+  <si>
+    <t>4400z</t>
+  </si>
+  <si>
+    <t>43800z</t>
+  </si>
+  <si>
+    <t>金と銀がもたらす悲哀</t>
+  </si>
+  <si>
+    <t>遺群嶺</t>
+  </si>
+  <si>
+    <t>リオレウス希少種１頭とリオレイア希少種１頭の狩猟</t>
+  </si>
+  <si>
+    <t>5800z</t>
+  </si>
+  <si>
+    <t>57300z</t>
+  </si>
+  <si>
+    <t>感動の生まれる瞬間</t>
+  </si>
+  <si>
+    <t>闘技場</t>
+  </si>
+  <si>
+    <t>イビルジョー１頭とラージャン１頭の狩猟</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを２回成功</t>
+  </si>
+  <si>
+    <t>3800z</t>
+  </si>
+  <si>
+    <t>37800z</t>
+  </si>
+  <si>
+    <t>4500z</t>
+  </si>
+  <si>
+    <t>先生の弱点は獰猛な重甲虫</t>
+  </si>
+  <si>
+    <t>原生林</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタス１匹の狩猟</t>
+  </si>
+  <si>
+    <t>ゲネル・セルタスの頭部と尻尾破壊</t>
+  </si>
+  <si>
+    <t>採掘場を取り戻せ！</t>
+  </si>
+  <si>
+    <t>地底火山</t>
+  </si>
+  <si>
+    <t>ウラガンキン１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ウラガンキンの顎と背中破壊</t>
+  </si>
+  <si>
+    <t>21000z</t>
+  </si>
+  <si>
+    <t>鎧・砕・斬の包囲網を越えて</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>4600z</t>
+  </si>
+  <si>
+    <t>45600z</t>
+  </si>
+  <si>
+    <t>金色超巨星</t>
+  </si>
+  <si>
+    <t>密林</t>
+  </si>
+  <si>
+    <t>ラージャン１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ラージャンの角破壊</t>
+  </si>
+  <si>
+    <t>32400z</t>
+  </si>
+  <si>
+    <t>終末の時</t>
+  </si>
+  <si>
+    <t>溶岩島</t>
+  </si>
+  <si>
+    <t>ミラボレアスの討伐または撃退</t>
+  </si>
+  <si>
+    <t>45000z</t>
+  </si>
+  <si>
+    <t>獰猛な砕竜は、孤島で何を思う</t>
+  </si>
+  <si>
+    <t>孤島</t>
+  </si>
+  <si>
+    <t>ブラキディオス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ブラキディオスの頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>大地に踊る黄金</t>
+  </si>
+  <si>
+    <t>リオレイア希少種１頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレイア希少種の翼と背中破壊</t>
+  </si>
+  <si>
+    <t>3500z</t>
+  </si>
+  <si>
+    <t>34200z</t>
+  </si>
+  <si>
+    <t>狩魂よ砂中に眠れ</t>
+  </si>
+  <si>
+    <t>砂漠</t>
+  </si>
+  <si>
+    <t>4700z</t>
+  </si>
+  <si>
+    <t>46800z</t>
+  </si>
+  <si>
+    <t>虚空に消え去りし者</t>
+  </si>
+  <si>
+    <t>森丘</t>
+  </si>
+  <si>
+    <t>オオナズチの討伐または撃退</t>
+  </si>
+  <si>
+    <t>オオナズチの角破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>雪に紛れしドスギアノス</t>
+  </si>
+  <si>
+    <t>氷海</t>
+  </si>
+  <si>
+    <t>ドスギアノス２頭の狩猟</t>
+  </si>
+  <si>
+    <t>天を廻りて、冥界に堕つ</t>
+  </si>
+  <si>
+    <t>ゴア・マガラ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ゴア・マガラの右翼脚破壊</t>
+  </si>
+  <si>
+    <t>極天より来たる、崩せし神</t>
+  </si>
+  <si>
+    <t>極圏</t>
+  </si>
+  <si>
+    <t>ウカムルバスの討伐</t>
+  </si>
+  <si>
+    <t>ウカムルバスの顎と背中破壊</t>
+  </si>
+  <si>
+    <t>34800z</t>
+  </si>
+  <si>
+    <t>黒蝕竜は禍々しく猛る</t>
+  </si>
+  <si>
+    <t>ゴア・マガラの翼脚と翼破壊</t>
+  </si>
+  <si>
+    <t>2600z</t>
+  </si>
+  <si>
+    <t>25500z</t>
+  </si>
+  <si>
+    <t>狩人達の究道</t>
+  </si>
+  <si>
+    <t>7900z</t>
+  </si>
+  <si>
+    <t>78600z</t>
+  </si>
+  <si>
+    <t>砂漠に散る爆炎の塵</t>
+  </si>
+  <si>
+    <t>テオ・テスカトルの討伐または撃退</t>
+  </si>
+  <si>
+    <t>テオ・テスカトルの頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>天彗龍に目が眩む</t>
+  </si>
+  <si>
+    <t>バルファルクの討伐または撃退</t>
+  </si>
+  <si>
+    <t>バルファルクの尻尾切断</t>
+  </si>
+  <si>
+    <t>28200z</t>
+  </si>
+  <si>
+    <t>角竜怒涛</t>
+  </si>
+  <si>
+    <t>旧砂漠</t>
+  </si>
+  <si>
+    <t>ディアブロス１頭の捕獲</t>
+  </si>
+  <si>
+    <t>ディアブロスの背中破壊</t>
+  </si>
+  <si>
+    <t>犯人は黒狼鳥</t>
+  </si>
+  <si>
+    <t>古代林</t>
+  </si>
+  <si>
+    <t>イャンガルルガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>イャンガルルガの頭部と翼爪破壊</t>
+  </si>
+  <si>
+    <t>19500z</t>
+  </si>
+  <si>
+    <t>所により獰猛なセルレギオス</t>
+  </si>
+  <si>
+    <t>セルレギオス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>セルレギオスの角と翼破壊</t>
+  </si>
+  <si>
+    <t>沼地の冒険</t>
+  </si>
+  <si>
+    <t>沼地</t>
+  </si>
+  <si>
+    <t>グラビモス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>グラビモスの頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>2500z</t>
+  </si>
+  <si>
+    <t>24900z</t>
+  </si>
+  <si>
+    <t>財宝は爆炎の中に</t>
+  </si>
+  <si>
+    <t>テオ・テスカトルの頭部と翼爪破壊</t>
+  </si>
+  <si>
+    <t>夜空に浮かぶ銀の太陽</t>
+  </si>
+  <si>
+    <t>渓流</t>
+  </si>
+  <si>
+    <t>リオレウス希少種１頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレウス希少種の頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>41100z</t>
+  </si>
+  <si>
+    <t>騎士と氷海の決闘</t>
+  </si>
+  <si>
+    <t>ベリオロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ベリオロスの頭部と棘破壊</t>
+  </si>
+  <si>
+    <t>風薫る密林</t>
+  </si>
+  <si>
+    <t>4000z</t>
+  </si>
+  <si>
+    <t>39600z</t>
+  </si>
+  <si>
+    <t>轟竜の軌跡を追いかけて</t>
+  </si>
+  <si>
+    <t>ティガレックス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ティガレックスの爪破壊</t>
+  </si>
+  <si>
+    <t>小山も陽気に誘われて</t>
+  </si>
+  <si>
+    <t>ドボルベルク１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ドボルベルクの尻尾破壊</t>
+  </si>
+  <si>
+    <t>鎧竜の背中破壊に挑戦！</t>
+  </si>
+  <si>
+    <t>グラビモスの背中破壊</t>
+  </si>
+  <si>
+    <t>天を廻りしその果てに…</t>
+  </si>
+  <si>
+    <t>禁足地</t>
+  </si>
+  <si>
+    <t>シャガルマガラの討伐</t>
+  </si>
+  <si>
+    <t>シャガルマガラの角と翼脚破壊</t>
+  </si>
+  <si>
+    <t>死神は鎧をまとう</t>
+  </si>
+  <si>
+    <t>グラビモス１頭とネルスキュラ１匹の狩猟</t>
+  </si>
+  <si>
+    <t>乗りによるダウンを３回成功</t>
+  </si>
+  <si>
+    <t>モンスターニャンターＸＸ</t>
+  </si>
+  <si>
+    <t>古代林の陰謀</t>
+  </si>
+  <si>
+    <t>5300z</t>
+  </si>
+  <si>
+    <t>52500z</t>
+  </si>
+  <si>
+    <t>絆の証！孤島の大決戦</t>
+  </si>
+  <si>
+    <t>31200z</t>
+  </si>
+  <si>
+    <t>巨獣の進攻</t>
+  </si>
+  <si>
+    <t>ガムート１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ガムートの頭部と鼻破壊</t>
+  </si>
+  <si>
+    <t>戈と槌は相容れず</t>
+  </si>
+  <si>
+    <t>アグナコトル１頭とドボルベルク１頭の狩猟</t>
+  </si>
+  <si>
+    <t>30600z</t>
+  </si>
+  <si>
+    <t>暴飲暴食ご用心</t>
+  </si>
+  <si>
+    <t>イビルジョー１頭の狩猟</t>
+  </si>
+  <si>
+    <t>イビルジョーの頭部破壊</t>
+  </si>
+  <si>
+    <t>27000z</t>
+  </si>
+  <si>
+    <t>戦慄の遺群嶺</t>
+  </si>
+  <si>
+    <t>46200z</t>
+  </si>
+  <si>
+    <t>徹甲虫と夫婦の絆</t>
+  </si>
+  <si>
+    <t>アルセルタス１匹の狩猟</t>
+  </si>
+  <si>
+    <t>森丘からの伝書</t>
+  </si>
+  <si>
+    <t>砂漠の死闘と挑戦</t>
+  </si>
+  <si>
+    <t>ディアブロス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ディアブロスの両角と背中破壊</t>
+  </si>
+  <si>
+    <t>獰猛な海の王者は武器の素</t>
+  </si>
+  <si>
+    <t>ラギアクルス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ラギアクルスの胸部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>天を貫く凶星</t>
+  </si>
+  <si>
+    <t>斬鉄の剣、不壊の鎧</t>
+  </si>
+  <si>
+    <t>ディノバルド１頭とグラビモス１頭の狩猟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜の大粒ナミダ１個の納品 </t>
+  </si>
+  <si>
+    <t>29700z</t>
+  </si>
+  <si>
+    <t>スーパーソニック</t>
+  </si>
+  <si>
+    <t>バルファルクの翼破壊</t>
+  </si>
+  <si>
+    <t>金色に染まる</t>
+  </si>
+  <si>
     <t>遺跡平原</t>
   </si>
   <si>
-    <t>全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント２５００pts入手</t>
-  </si>
-  <si>
-    <t>3200z</t>
-  </si>
-  <si>
-    <t>31500z</t>
-  </si>
-  <si>
-    <t>かくし味は燃石炭</t>
-  </si>
-  <si>
-    <t>地底火山</t>
-  </si>
-  <si>
-    <t>燃石炭２０個の納品</t>
-  </si>
-  <si>
-    <t>ウラガンキン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>900z</t>
-  </si>
-  <si>
-    <t>9000z</t>
-  </si>
-  <si>
-    <t>17400z</t>
-  </si>
-  <si>
-    <t>氷海のすばらしい氷</t>
-  </si>
-  <si>
-    <t>氷海</t>
-  </si>
-  <si>
-    <t>ガムート１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの鼻破壊</t>
-  </si>
-  <si>
-    <t>2200z</t>
-  </si>
-  <si>
-    <t>21600z</t>
-  </si>
-  <si>
-    <t>3900z</t>
-  </si>
-  <si>
-    <t>氷海の恐怖体験</t>
-  </si>
-  <si>
-    <t>フルフル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>フルフルの頭部と胴体破壊</t>
-  </si>
-  <si>
-    <t>13800z</t>
-  </si>
-  <si>
-    <t>幻獣、キリン現る！</t>
-  </si>
-  <si>
-    <t>雪山</t>
-  </si>
-  <si>
-    <t>キリンの討伐</t>
-  </si>
-  <si>
-    <t>ギルドフラッグを山頂に設置</t>
-  </si>
-  <si>
-    <t>泡狐竜流狩人道場</t>
-  </si>
-  <si>
-    <t>渓流</t>
+    <t>シャル・ウィ・ダンス？</t>
   </si>
   <si>
     <t>タマミツネ１頭の狩猟</t>
   </si>
   <si>
-    <t>タマミツネの尻尾切断</t>
-  </si>
-  <si>
-    <t>闘技場での最終テストっチャ！</t>
-  </si>
-  <si>
-    <t>闘技場</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを４回成功</t>
-  </si>
-  <si>
-    <t>18300z</t>
-  </si>
-  <si>
-    <t>斬竜流狩人道場</t>
-  </si>
-  <si>
-    <t>ディノバルド１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ウロコトル８頭の討伐</t>
-  </si>
-  <si>
-    <t>26100z</t>
-  </si>
-  <si>
-    <t>桃毛獣による新人への洗礼</t>
-  </si>
-  <si>
-    <t>遺群嶺</t>
-  </si>
-  <si>
-    <t>ババコンガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ババコンガのトサカと爪破壊</t>
-  </si>
-  <si>
-    <t>女帝の花道</t>
-  </si>
-  <si>
-    <t>密林</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス１匹の捕獲</t>
-  </si>
-  <si>
-    <t>アルセルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>2300z</t>
-  </si>
-  <si>
-    <t>22800z</t>
-  </si>
-  <si>
-    <t>夢か現か幻か</t>
-  </si>
-  <si>
-    <t>古代林</t>
-  </si>
-  <si>
-    <t>騎士と密林の夢</t>
-  </si>
-  <si>
-    <t>タマミツネの背ビレ破壊</t>
-  </si>
-  <si>
-    <t>旧砂漠のすばらしい砂</t>
-  </si>
-  <si>
-    <t>旧砂漠</t>
-  </si>
-  <si>
-    <t>ボルボロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ボルボロスの頭部と前脚破壊</t>
-  </si>
-  <si>
-    <t>鎌蟹は逃げ道を狩る</t>
-  </si>
-  <si>
-    <t>沼地</t>
-  </si>
-  <si>
-    <t>ショウグンギザミ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ショウグンギザミの両爪とヤド破壊</t>
-  </si>
-  <si>
-    <t>1700z</t>
-  </si>
-  <si>
-    <t>16200z</t>
-  </si>
-  <si>
-    <t>影蜘蛛の背中破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>原生林</t>
-  </si>
-  <si>
-    <t>ネルスキュラの外套皮破壊</t>
-  </si>
-  <si>
-    <t>6000z</t>
-  </si>
-  <si>
-    <t>先生の鬼門は獰猛な影蜘蛛</t>
-  </si>
-  <si>
-    <t>ネルスキュラ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ネルスキュラの毒トゲと爪破壊</t>
-  </si>
-  <si>
-    <t>15600z</t>
-  </si>
-  <si>
-    <t>ハロー遺群嶺！</t>
+    <t>タマミツネの頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>吹雪を呼ぶ者</t>
+  </si>
+  <si>
+    <t>クシャルダオラの討伐または撃退</t>
+  </si>
+  <si>
+    <t>クシャルダオラの頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>孤島で遭遇！獰猛な雷狼竜</t>
+  </si>
+  <si>
+    <t>ジンオウガ１頭の狩猟</t>
+  </si>
+  <si>
+    <t>ジンオウガの頭部と前脚破壊</t>
+  </si>
+  <si>
+    <t>雪山からの救援要請</t>
+  </si>
+  <si>
+    <t>ラージャンの尻尾破壊</t>
+  </si>
+  <si>
+    <t>天を舞う白銀</t>
+  </si>
+  <si>
+    <t>リオレウス希少種の翼と背中破壊</t>
+  </si>
+  <si>
+    <t>遺群嶺での攻防</t>
+  </si>
+  <si>
+    <t>イビルジョーの頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>狩人のための舞台～古代林～</t>
+  </si>
+  <si>
+    <t>リオレイア希少種の頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>呼び合う太陽と月</t>
+  </si>
+  <si>
+    <t>48000z</t>
+  </si>
+  <si>
+    <t>砂上に見ゆるは猛き双角</t>
+  </si>
+  <si>
+    <t>ディアブロスの両角破壊</t>
+  </si>
+  <si>
+    <t>禍は鋼鉄よりも硬し</t>
+  </si>
+  <si>
+    <t>クシャルダオラの頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>千刃は刀よりも鋭く</t>
+  </si>
+  <si>
+    <t>セルレギオスの角破壊</t>
+  </si>
+  <si>
+    <t>焦電</t>
   </si>
   <si>
     <t>ライゼクス１頭の狩猟</t>
   </si>
   <si>
-    <t>ライゼクスのトサカ破壊</t>
-  </si>
-  <si>
-    <t>無茶苦茶ムシャムシャ</t>
-  </si>
-  <si>
-    <t>砂漠</t>
-  </si>
-  <si>
-    <t>ハプルボッカ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ハプルボッカの両前脚破壊</t>
-  </si>
-  <si>
-    <t>ベルナ村の観光業が大炎上！</t>
-  </si>
-  <si>
-    <t>リオレイア１頭とディノバルド１頭の狩猟</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを２回成功</t>
-  </si>
-  <si>
-    <t>2900z</t>
-  </si>
-  <si>
-    <t>28500z</t>
-  </si>
-  <si>
-    <t>妹奮闘記～夜鳥退治～</t>
-  </si>
-  <si>
-    <t>ホロロホルル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ホロロホルルの頭部と尻尾破壊</t>
-  </si>
-  <si>
-    <t>15000z</t>
-  </si>
-  <si>
-    <t>重量級の女帝</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの尻尾破壊</t>
-  </si>
-  <si>
-    <t>狩人のための舞台～遺群嶺～</t>
-  </si>
-  <si>
-    <t>毒の洗礼</t>
-  </si>
-  <si>
-    <t>ドスイーオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>8100z</t>
-  </si>
-  <si>
-    <t>砂漠の死闘と希望</t>
-  </si>
-  <si>
-    <t>24000z</t>
-  </si>
-  <si>
-    <t>ラギアクルス襲撃の予感</t>
-  </si>
-  <si>
-    <t>ラギアクルス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>暑い熱い砂漠</t>
+    <t>ライゼクスのトサカと翼爪破壊</t>
+  </si>
+  <si>
+    <t>イビルジョーの狩猟</t>
+  </si>
+  <si>
+    <t>イビルジョーの尻尾切断</t>
+  </si>
+  <si>
+    <t>起源にして、頂点</t>
+  </si>
+  <si>
+    <t>アカムトルムの討伐</t>
+  </si>
+  <si>
+    <t>アカムトルムの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>全てを奪い去る嵐</t>
+  </si>
+  <si>
+    <t>霊峰</t>
+  </si>
+  <si>
+    <t>アマツマガツチの討伐</t>
+  </si>
+  <si>
+    <t>アマツマガツチの頭部と背中破壊</t>
+  </si>
+  <si>
+    <t>砂漠の死闘と未来</t>
+  </si>
+  <si>
+    <t>骸まとう龍</t>
+  </si>
+  <si>
+    <t>竜ノ墓場</t>
+  </si>
+  <si>
+    <t>オストガロアの討伐</t>
+  </si>
+  <si>
+    <t>オストガロアの左右噴出孔破壊</t>
+  </si>
+  <si>
+    <t>天彗龍流狩人道場</t>
+  </si>
+  <si>
+    <t>いにしえの龍秘宝１個の納品</t>
+  </si>
+  <si>
+    <t>無心にて森羅万象を断つ</t>
   </si>
   <si>
     <t>ディノバルド１頭の狩猟</t>
   </si>
   <si>
-    <t>ディノバルドの頭部破壊</t>
-  </si>
-  <si>
-    <t>グラビモス連続狩猟</t>
-  </si>
-  <si>
-    <t>２頭以上狩猟してタイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>クンチュウ１５匹の討伐</t>
-  </si>
-  <si>
-    <t>3100z</t>
-  </si>
-  <si>
-    <t>30900z</t>
-  </si>
-  <si>
-    <t>遺群嶺の難題解決</t>
-  </si>
-  <si>
-    <t>ゴア・マガラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>禍々しい狂竜結晶１個の納品</t>
-  </si>
-  <si>
-    <t>21300z</t>
-  </si>
-  <si>
-    <t>旧砂漠に吹く熱風！</t>
-  </si>
-  <si>
-    <t>2800z</t>
-  </si>
-  <si>
-    <t>27300z</t>
-  </si>
-  <si>
-    <t>密林のポイント招きネコ</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント５０００pts入手</t>
-  </si>
-  <si>
-    <t>海竜のじけん</t>
-  </si>
-  <si>
-    <t>孤島</t>
+    <t>ディノバルドの背中破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>轟々たる罠</t>
+  </si>
+  <si>
+    <t>ティガレックスの頭部破壊と尻尾切断</t>
+  </si>
+  <si>
+    <t>光る粘菌のナゾを追え</t>
+  </si>
+  <si>
+    <t>ブラキディオス１頭の捕獲</t>
+  </si>
+  <si>
+    <t>この先、千刃竜以外立入禁止</t>
+  </si>
+  <si>
+    <t>セルレギオスの脚破壊</t>
+  </si>
+  <si>
+    <t>海竜の頭部破壊に挑戦！</t>
   </si>
   <si>
     <t>ラギアクルスの頭部破壊</t>
   </si>
   <si>
-    <t>氷牙竜・ベリオロス！</t>
-  </si>
-  <si>
-    <t>ベリオロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ベリオロスの頭部破壊</t>
-  </si>
-  <si>
-    <t>遺群嶺からの帰還</t>
-  </si>
-  <si>
-    <t>ジンオウガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>大雷光虫１０匹の討伐</t>
-  </si>
-  <si>
-    <t>20700z</t>
-  </si>
-  <si>
-    <t>氷牙竜が大発明のカギ？</t>
-  </si>
-  <si>
-    <t>ベリオロスの尻尾切断</t>
-  </si>
-  <si>
-    <t>孤高の黒狼鳥</t>
-  </si>
-  <si>
-    <t>イャンガルルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部破壊</t>
-  </si>
-  <si>
-    <t>絞蛇竜の消化能力について</t>
-  </si>
-  <si>
-    <t>ガララアジャラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガララアジャラの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>17700z</t>
-  </si>
-  <si>
-    <t>強い防具は素材から！</t>
-  </si>
-  <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを３回成功</t>
-  </si>
-  <si>
-    <t>21900z</t>
-  </si>
-  <si>
-    <t>火山ウロザミ戦線</t>
-  </si>
-  <si>
-    <t>ガミザミとウロコトル合計１８頭の討伐</t>
-  </si>
-  <si>
-    <t>森丘の捕食者たち</t>
-  </si>
-  <si>
-    <t>森丘</t>
+    <t>虚空より現われし者</t>
+  </si>
+  <si>
+    <t>オオナズチの角と翼破壊</t>
+  </si>
+  <si>
+    <t>溶岩島で爆ぜる砕光</t>
+  </si>
+  <si>
+    <t>ブラキディオスの討伐</t>
+  </si>
+  <si>
+    <t>ブラキディオスの頭部破壊</t>
+  </si>
+  <si>
+    <t>3400z</t>
+  </si>
+  <si>
+    <t>33300z</t>
+  </si>
+  <si>
+    <t>原生林にて呻くは渾沌の竜</t>
+  </si>
+  <si>
+    <t>ゴア・マガラの左翼脚破壊</t>
+  </si>
+  <si>
+    <t>火山のすばらしい岩</t>
+  </si>
+  <si>
+    <t>リオレウス１頭の狩猟</t>
+  </si>
+  <si>
+    <t>リオレウスの頭部と翼破壊</t>
+  </si>
+  <si>
+    <t>マグマまといし竜</t>
+  </si>
+  <si>
+    <t>アグナコトル１頭の狩猟</t>
+  </si>
+  <si>
+    <t>アグナコトルの胸部破壊</t>
+  </si>
+  <si>
+    <t>天地が焔に染まるとき</t>
   </si>
   <si>
     <t>リオレウス１頭とリオレイア１頭の狩猟</t>
-  </si>
-  <si>
-    <t>竜の大粒ナミダ１個の納品</t>
-  </si>
-  <si>
-    <t>地底火山の採集ツアー</t>
-  </si>
-  <si>
-    <t>タイムアップもしくはネコタクチケットの納品</t>
-  </si>
-  <si>
-    <t>雪崩を呼ぶ遠吠え</t>
-  </si>
-  <si>
-    <t>ドドブランゴ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドドブランゴの牙と尻尾破壊</t>
-  </si>
-  <si>
-    <t>本気の狩りは闘技場の中で</t>
-  </si>
-  <si>
-    <t>ケチャワチャ１頭とネルスキュラ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>月下雷鳴の記憶</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部破壊</t>
-  </si>
-  <si>
-    <t>トラウマガンキンを退治せよ</t>
-  </si>
-  <si>
-    <t>ウラガンキンの顎破壊</t>
-  </si>
-  <si>
-    <t>原生林の恐怖体験</t>
-  </si>
-  <si>
-    <t>ネルスキュラ１匹とホロロホルル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>18000z</t>
-  </si>
-  <si>
-    <t>古代林で目撃された迅竜の報告</t>
-  </si>
-  <si>
-    <t>ナルガクルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ナルガクルガの刃翼破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>災禍の水竜</t>
-  </si>
-  <si>
-    <t>ガノトトス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガノトトスの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>双子の黒狼鳥</t>
-  </si>
-  <si>
-    <t>イャンガルルガ２頭の狩猟</t>
-  </si>
-  <si>
-    <t>鉱山哀歌</t>
-  </si>
-  <si>
-    <t>ヴォルガノス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ヴォルガノスの頭部と背ビレ破壊</t>
-  </si>
-  <si>
-    <t>巨獣流狩人道場</t>
-  </si>
-  <si>
-    <t>ガムート１頭の捕獲</t>
-  </si>
-  <si>
-    <t>牙獣の大粒ナミダ１個の納品</t>
-  </si>
-  <si>
-    <t>遺群嶺の怒れるリオレイア</t>
-  </si>
-  <si>
-    <t>リオレイア１頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイアの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>空と地の挟撃</t>
-  </si>
-  <si>
-    <t>ヴォルガノス１頭とリオレウス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>シャークブリザード</t>
-  </si>
-  <si>
-    <t>ザボアザギル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ザボアザギルの頭部と尻尾破壊</t>
-  </si>
-  <si>
-    <t>空の王者を狩猟せよ！</t>
-  </si>
-  <si>
-    <t>リオレウス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウスの尻尾切断</t>
-  </si>
-  <si>
-    <t>電竜流狩人道場</t>
-  </si>
-  <si>
-    <t>ランゴスタ１０匹の討伐</t>
-  </si>
-  <si>
-    <t>遺群嶺の楽しい旅</t>
-  </si>
-  <si>
-    <t>バサルモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>バサルモスの背中破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>巨大龍の侵攻</t>
-  </si>
-  <si>
-    <t>砦</t>
-  </si>
-  <si>
-    <t>35분</t>
-  </si>
-  <si>
-    <t>ラオシャンロンの討伐または撃退</t>
-  </si>
-  <si>
-    <t>30300z</t>
-  </si>
-  <si>
-    <t>古代林に来たりし黒き蝕</t>
-  </si>
-  <si>
-    <t>ゴア・マガラの翼脚破壊</t>
-  </si>
-  <si>
-    <t>鎧竜グラビモスの脅威</t>
-  </si>
-  <si>
-    <t>グラビモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>グラビモスの頭部破壊</t>
-  </si>
-  <si>
-    <t>絆の証？雪山の獰猛大決戦</t>
-  </si>
-  <si>
-    <t>G★4</t>
-  </si>
-  <si>
-    <t>4400z</t>
-  </si>
-  <si>
-    <t>43800z</t>
-  </si>
-  <si>
-    <t>金と銀がもたらす悲哀</t>
-  </si>
-  <si>
-    <t>リオレウス希少種１頭とリオレイア希少種１頭の狩猟</t>
-  </si>
-  <si>
-    <t>5800z</t>
-  </si>
-  <si>
-    <t>57300z</t>
-  </si>
-  <si>
-    <t>感動の生まれる瞬間</t>
-  </si>
-  <si>
-    <t>イビルジョー１頭とラージャン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>3800z</t>
-  </si>
-  <si>
-    <t>37800z</t>
-  </si>
-  <si>
-    <t>4500z</t>
-  </si>
-  <si>
-    <t>先生の弱点は獰猛な重甲虫</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの頭部と尻尾破壊</t>
-  </si>
-  <si>
-    <t>採掘場を取り戻せ！</t>
-  </si>
-  <si>
-    <t>ウラガンキンの顎と背中破壊</t>
-  </si>
-  <si>
-    <t>21000z</t>
-  </si>
-  <si>
-    <t>鎧・砕・斬の包囲網を越えて</t>
-  </si>
-  <si>
-    <t>4600z</t>
-  </si>
-  <si>
-    <t>45600z</t>
-  </si>
-  <si>
-    <t>金色超巨星</t>
-  </si>
-  <si>
-    <t>ラージャン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ラージャンの角破壊</t>
-  </si>
-  <si>
-    <t>32400z</t>
-  </si>
-  <si>
-    <t>終末の時</t>
-  </si>
-  <si>
-    <t>溶岩島</t>
-  </si>
-  <si>
-    <t>ミラボレアスの討伐または撃退</t>
-  </si>
-  <si>
-    <t>45000z</t>
-  </si>
-  <si>
-    <t>獰猛な砕竜は、孤島で何を思う</t>
-  </si>
-  <si>
-    <t>ブラキディオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブラキディオスの頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>大地に踊る黄金</t>
-  </si>
-  <si>
-    <t>リオレイア希少種１頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイア希少種の翼と背中破壊</t>
-  </si>
-  <si>
-    <t>3500z</t>
-  </si>
-  <si>
-    <t>34200z</t>
-  </si>
-  <si>
-    <t>狩魂よ砂中に眠れ</t>
-  </si>
-  <si>
-    <t>4700z</t>
-  </si>
-  <si>
-    <t>46800z</t>
-  </si>
-  <si>
-    <t>虚空に消え去りし者</t>
-  </si>
-  <si>
-    <t>オオナズチの討伐または撃退</t>
-  </si>
-  <si>
-    <t>オオナズチの角破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>雪に紛れしドスギアノス</t>
-  </si>
-  <si>
-    <t>ドスギアノス２頭の狩猟</t>
-  </si>
-  <si>
-    <t>天を廻りて、冥界に堕つ</t>
-  </si>
-  <si>
-    <t>ゴア・マガラの右翼脚破壊</t>
-  </si>
-  <si>
-    <t>極天より来たる、崩せし神</t>
-  </si>
-  <si>
-    <t>極圏</t>
-  </si>
-  <si>
-    <t>ウカムルバスの討伐</t>
-  </si>
-  <si>
-    <t>ウカムルバスの顎と背中破壊</t>
-  </si>
-  <si>
-    <t>34800z</t>
-  </si>
-  <si>
-    <t>黒蝕竜は禍々しく猛る</t>
-  </si>
-  <si>
-    <t>ゴア・マガラの翼脚と翼破壊</t>
-  </si>
-  <si>
-    <t>2600z</t>
-  </si>
-  <si>
-    <t>25500z</t>
-  </si>
-  <si>
-    <t>狩人達の究道</t>
-  </si>
-  <si>
-    <t>7900z</t>
-  </si>
-  <si>
-    <t>78600z</t>
-  </si>
-  <si>
-    <t>砂漠に散る爆炎の塵</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの討伐または撃退</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>天彗龍に目が眩む</t>
-  </si>
-  <si>
-    <t>バルファルクの討伐または撃退</t>
-  </si>
-  <si>
-    <t>バルファルクの尻尾切断</t>
-  </si>
-  <si>
-    <t>28200z</t>
-  </si>
-  <si>
-    <t>角竜怒涛</t>
-  </si>
-  <si>
-    <t>ディアブロス１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ディアブロスの背中破壊</t>
-  </si>
-  <si>
-    <t>犯人は黒狼鳥</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部と翼爪破壊</t>
-  </si>
-  <si>
-    <t>19500z</t>
-  </si>
-  <si>
-    <t>所により獰猛なセルレギオス</t>
-  </si>
-  <si>
-    <t>セルレギオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>セルレギオスの角と翼破壊</t>
-  </si>
-  <si>
-    <t>沼地の冒険</t>
-  </si>
-  <si>
-    <t>グラビモスの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>2500z</t>
-  </si>
-  <si>
-    <t>24900z</t>
-  </si>
-  <si>
-    <t>財宝は爆炎の中に</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの頭部と翼爪破壊</t>
-  </si>
-  <si>
-    <t>夜空に浮かぶ銀の太陽</t>
-  </si>
-  <si>
-    <t>リオレウス希少種１頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウス希少種の頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>41100z</t>
-  </si>
-  <si>
-    <t>騎士と氷海の決闘</t>
-  </si>
-  <si>
-    <t>ベリオロスの頭部と棘破壊</t>
-  </si>
-  <si>
-    <t>風薫る密林</t>
-  </si>
-  <si>
-    <t>4000z</t>
-  </si>
-  <si>
-    <t>39600z</t>
-  </si>
-  <si>
-    <t>轟竜の軌跡を追いかけて</t>
-  </si>
-  <si>
-    <t>ティガレックス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ティガレックスの爪破壊</t>
-  </si>
-  <si>
-    <t>小山も陽気に誘われて</t>
-  </si>
-  <si>
-    <t>ドボルベルク１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドボルベルクの尻尾破壊</t>
-  </si>
-  <si>
-    <t>鎧竜の背中破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>グラビモスの背中破壊</t>
-  </si>
-  <si>
-    <t>天を廻りしその果てに…</t>
-  </si>
-  <si>
-    <t>禁足地</t>
-  </si>
-  <si>
-    <t>シャガルマガラの討伐</t>
-  </si>
-  <si>
-    <t>シャガルマガラの角と翼脚破壊</t>
-  </si>
-  <si>
-    <t>死神は鎧をまとう</t>
-  </si>
-  <si>
-    <t>グラビモス１頭とネルスキュラ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>モンスターニャンターＸＸ</t>
-  </si>
-  <si>
-    <t>古代林の陰謀</t>
-  </si>
-  <si>
-    <t>5300z</t>
-  </si>
-  <si>
-    <t>52500z</t>
-  </si>
-  <si>
-    <t>絆の証！孤島の大決戦</t>
-  </si>
-  <si>
-    <t>31200z</t>
-  </si>
-  <si>
-    <t>巨獣の進攻</t>
-  </si>
-  <si>
-    <t>ガムートの頭部と鼻破壊</t>
-  </si>
-  <si>
-    <t>戈と槌は相容れず</t>
-  </si>
-  <si>
-    <t>アグナコトル１頭とドボルベルク１頭の狩猟</t>
-  </si>
-  <si>
-    <t>30600z</t>
-  </si>
-  <si>
-    <t>暴飲暴食ご用心</t>
-  </si>
-  <si>
-    <t>イビルジョー１頭の狩猟</t>
-  </si>
-  <si>
-    <t>イビルジョーの頭部破壊</t>
-  </si>
-  <si>
-    <t>27000z</t>
-  </si>
-  <si>
-    <t>戦慄の遺群嶺</t>
-  </si>
-  <si>
-    <t>46200z</t>
-  </si>
-  <si>
-    <t>徹甲虫と夫婦の絆</t>
-  </si>
-  <si>
-    <t>森丘からの伝書</t>
-  </si>
-  <si>
-    <t>砂漠の死闘と挑戦</t>
-  </si>
-  <si>
-    <t>ディアブロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ディアブロスの両角と背中破壊</t>
-  </si>
-  <si>
-    <t>獰猛な海の王者は武器の素</t>
-  </si>
-  <si>
-    <t>ラギアクルスの胸部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>天を貫く凶星</t>
-  </si>
-  <si>
-    <t>斬鉄の剣、不壊の鎧</t>
-  </si>
-  <si>
-    <t>ディノバルド１頭とグラビモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜の大粒ナミダ１個の納品 </t>
-  </si>
-  <si>
-    <t>29700z</t>
-  </si>
-  <si>
-    <t>スーパーソニック</t>
-  </si>
-  <si>
-    <t>バルファルクの翼破壊</t>
-  </si>
-  <si>
-    <t>金色に染まる</t>
-  </si>
-  <si>
-    <t>シャル・ウィ・ダンス？</t>
-  </si>
-  <si>
-    <t>タマミツネの頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>吹雪を呼ぶ者</t>
-  </si>
-  <si>
-    <t>クシャルダオラの討伐または撃退</t>
-  </si>
-  <si>
-    <t>クシャルダオラの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>孤島で遭遇！獰猛な雷狼竜</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部と前脚破壊</t>
-  </si>
-  <si>
-    <t>雪山からの救援要請</t>
-  </si>
-  <si>
-    <t>ラージャンの尻尾破壊</t>
-  </si>
-  <si>
-    <t>天を舞う白銀</t>
-  </si>
-  <si>
-    <t>リオレウス希少種の翼と背中破壊</t>
-  </si>
-  <si>
-    <t>遺群嶺での攻防</t>
-  </si>
-  <si>
-    <t>イビルジョーの頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>狩人のための舞台～古代林～</t>
-  </si>
-  <si>
-    <t>リオレイア希少種の頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>呼び合う太陽と月</t>
-  </si>
-  <si>
-    <t>48000z</t>
-  </si>
-  <si>
-    <t>砂上に見ゆるは猛き双角</t>
-  </si>
-  <si>
-    <t>ディアブロスの両角破壊</t>
-  </si>
-  <si>
-    <t>禍は鋼鉄よりも硬し</t>
-  </si>
-  <si>
-    <t>クシャルダオラの頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>千刃は刀よりも鋭く</t>
-  </si>
-  <si>
-    <t>セルレギオスの角破壊</t>
-  </si>
-  <si>
-    <t>焦電</t>
-  </si>
-  <si>
-    <t>ライゼクスのトサカと翼爪破壊</t>
-  </si>
-  <si>
-    <t>イビルジョーの狩猟</t>
-  </si>
-  <si>
-    <t>イビルジョーの尻尾切断</t>
-  </si>
-  <si>
-    <t>起源にして、頂点</t>
-  </si>
-  <si>
-    <t>アカムトルムの討伐</t>
-  </si>
-  <si>
-    <t>アカムトルムの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>全てを奪い去る嵐</t>
-  </si>
-  <si>
-    <t>霊峰</t>
-  </si>
-  <si>
-    <t>アマツマガツチの討伐</t>
-  </si>
-  <si>
-    <t>アマツマガツチの頭部と背中破壊</t>
-  </si>
-  <si>
-    <t>砂漠の死闘と未来</t>
-  </si>
-  <si>
-    <t>骸まとう龍</t>
-  </si>
-  <si>
-    <t>竜ノ墓場</t>
-  </si>
-  <si>
-    <t>オストガロアの討伐</t>
-  </si>
-  <si>
-    <t>オストガロアの左右噴出孔破壊</t>
-  </si>
-  <si>
-    <t>天彗龍流狩人道場</t>
-  </si>
-  <si>
-    <t>いにしえの龍秘宝１個の納品</t>
-  </si>
-  <si>
-    <t>無心にて森羅万象を断つ</t>
-  </si>
-  <si>
-    <t>ディノバルドの背中破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>轟々たる罠</t>
-  </si>
-  <si>
-    <t>ティガレックスの頭部破壊と尻尾切断</t>
-  </si>
-  <si>
-    <t>光る粘菌のナゾを追え</t>
-  </si>
-  <si>
-    <t>ブラキディオス１頭の捕獲</t>
-  </si>
-  <si>
-    <t>この先、千刃竜以外立入禁止</t>
-  </si>
-  <si>
-    <t>セルレギオスの脚破壊</t>
-  </si>
-  <si>
-    <t>海竜の頭部破壊に挑戦！</t>
-  </si>
-  <si>
-    <t>虚空より現われし者</t>
-  </si>
-  <si>
-    <t>オオナズチの角と翼破壊</t>
-  </si>
-  <si>
-    <t>溶岩島で爆ぜる砕光</t>
-  </si>
-  <si>
-    <t>ブラキディオスの討伐</t>
-  </si>
-  <si>
-    <t>ブラキディオスの頭部破壊</t>
-  </si>
-  <si>
-    <t>3400z</t>
-  </si>
-  <si>
-    <t>33300z</t>
-  </si>
-  <si>
-    <t>原生林にて呻くは渾沌の竜</t>
-  </si>
-  <si>
-    <t>ゴア・マガラの左翼脚破壊</t>
-  </si>
-  <si>
-    <t>火山のすばらしい岩</t>
-  </si>
-  <si>
-    <t>リオレウスの頭部と翼破壊</t>
-  </si>
-  <si>
-    <t>マグマまといし竜</t>
-  </si>
-  <si>
-    <t>アグナコトル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>アグナコトルの胸部破壊</t>
-  </si>
-  <si>
-    <t>天地が焔に染まるとき</t>
   </si>
   <si>
     <t>氷海を爆走、暴走轟竜！</t>
@@ -2741,8 +2915,8 @@
   <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="B72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2752,7 +2926,7 @@
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.5703125" customWidth="1"/>
     <col min="7" max="7" width="44.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -5452,26 +5626,29 @@
       <c r="A87" t="s">
         <v>358</v>
       </c>
+      <c r="B87" t="s">
+        <v>359</v>
+      </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D87" t="s">
-        <v>360</v>
+        <v>27</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
       </c>
       <c r="F87" t="s">
+        <v>297</v>
+      </c>
+      <c r="G87" t="s">
         <v>361</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>362</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>363</v>
-      </c>
-      <c r="I87" t="s">
-        <v>364</v>
       </c>
       <c r="J87" t="s">
         <v>51</v>
@@ -5479,10 +5656,13 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
+        <v>364</v>
+      </c>
+      <c r="B88" t="s">
         <v>365</v>
       </c>
       <c r="C88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D88" t="s">
         <v>366</v>
@@ -5491,74 +5671,80 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
+        <v>285</v>
+      </c>
+      <c r="G88" t="s">
         <v>367</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>368</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>369</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>370</v>
-      </c>
-      <c r="J88" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
+        <v>371</v>
+      </c>
+      <c r="B89" t="s">
         <v>372</v>
       </c>
       <c r="C89" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D89" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" t="s">
         <v>373</v>
       </c>
-      <c r="E89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>374</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>375</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>376</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>377</v>
-      </c>
-      <c r="J89" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
+        <v>378</v>
+      </c>
+      <c r="B90" t="s">
         <v>379</v>
       </c>
       <c r="C90" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
       </c>
       <c r="F90" t="s">
+        <v>334</v>
+      </c>
+      <c r="G90" t="s">
         <v>380</v>
-      </c>
-      <c r="G90" t="s">
-        <v>381</v>
       </c>
       <c r="H90" t="s">
         <v>67</v>
       </c>
       <c r="I90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J90" t="s">
         <v>161</v>
@@ -5566,22 +5752,25 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
+        <v>382</v>
+      </c>
+      <c r="B91" t="s">
         <v>383</v>
       </c>
       <c r="C91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D91" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" t="s">
         <v>384</v>
       </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>385</v>
-      </c>
-      <c r="G91" t="s">
-        <v>386</v>
       </c>
       <c r="H91" t="s">
         <v>23</v>
@@ -5595,68 +5784,77 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
+        <v>386</v>
+      </c>
+      <c r="B92" t="s">
         <v>387</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D92" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s">
         <v>388</v>
       </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>389</v>
       </c>
-      <c r="G92" t="s">
-        <v>390</v>
-      </c>
       <c r="H92" t="s">
+        <v>375</v>
+      </c>
+      <c r="I92" t="s">
         <v>376</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>377</v>
-      </c>
-      <c r="J92" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
+        <v>390</v>
+      </c>
+      <c r="B93" t="s">
         <v>391</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D93" t="s">
+        <v>296</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>297</v>
+      </c>
+      <c r="G93" t="s">
         <v>392</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" t="s">
-        <v>361</v>
-      </c>
-      <c r="G93" t="s">
-        <v>393</v>
       </c>
       <c r="H93" t="s">
         <v>268</v>
       </c>
       <c r="I93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J93" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
+        <v>394</v>
+      </c>
+      <c r="B94" t="s">
         <v>395</v>
       </c>
       <c r="C94" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D94" t="s">
         <v>366</v>
@@ -5684,20 +5882,23 @@
       <c r="A95" t="s">
         <v>399</v>
       </c>
+      <c r="B95" t="s">
+        <v>400</v>
+      </c>
       <c r="C95" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D95" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
       </c>
       <c r="F95" t="s">
+        <v>341</v>
+      </c>
+      <c r="G95" t="s">
         <v>401</v>
-      </c>
-      <c r="G95" t="s">
-        <v>402</v>
       </c>
       <c r="H95" t="s">
         <v>67</v>
@@ -5711,28 +5912,31 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
+        <v>402</v>
+      </c>
+      <c r="B96" t="s">
         <v>403</v>
       </c>
       <c r="C96" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D96" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
         <v>404</v>
       </c>
-      <c r="E96" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>405</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>406</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>407</v>
-      </c>
-      <c r="I96" t="s">
-        <v>408</v>
       </c>
       <c r="J96" t="s">
         <v>146</v>
@@ -5740,19 +5944,22 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" t="s">
+        <v>408</v>
+      </c>
+      <c r="B97" t="s">
         <v>409</v>
       </c>
       <c r="C97" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D97" t="s">
-        <v>410</v>
+        <v>64</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
       </c>
       <c r="F97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -5769,51 +5976,57 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
+        <v>410</v>
+      </c>
+      <c r="B98" t="s">
         <v>411</v>
       </c>
       <c r="C98" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D98" t="s">
-        <v>404</v>
+        <v>175</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G98" t="s">
         <v>412</v>
       </c>
       <c r="H98" t="s">
+        <v>375</v>
+      </c>
+      <c r="I98" t="s">
         <v>376</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>377</v>
-      </c>
-      <c r="J98" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>413</v>
       </c>
+      <c r="B99" t="s">
+        <v>414</v>
+      </c>
       <c r="C99" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D99" t="s">
-        <v>414</v>
+        <v>42</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
       </c>
       <c r="F99" t="s">
+        <v>245</v>
+      </c>
+      <c r="G99" t="s">
         <v>415</v>
-      </c>
-      <c r="G99" t="s">
-        <v>416</v>
       </c>
       <c r="H99" t="s">
         <v>67</v>
@@ -5827,28 +6040,31 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
+        <v>416</v>
+      </c>
+      <c r="B100" t="s">
         <v>417</v>
       </c>
       <c r="C100" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D100" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100" t="s">
+        <v>277</v>
+      </c>
+      <c r="G100" t="s">
         <v>418</v>
       </c>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="H100" t="s">
         <v>419</v>
       </c>
-      <c r="G100" t="s">
+      <c r="I100" t="s">
         <v>420</v>
-      </c>
-      <c r="H100" t="s">
-        <v>421</v>
-      </c>
-      <c r="I100" t="s">
-        <v>422</v>
       </c>
       <c r="J100" t="s">
         <v>161</v>
@@ -5856,19 +6072,22 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" t="s">
+        <v>422</v>
+      </c>
+      <c r="C101" t="s">
+        <v>360</v>
+      </c>
+      <c r="D101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
         <v>423</v>
-      </c>
-      <c r="C101" t="s">
-        <v>359</v>
-      </c>
-      <c r="D101" t="s">
-        <v>424</v>
-      </c>
-      <c r="E101" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" t="s">
-        <v>425</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
@@ -5877,7 +6096,7 @@
         <v>50</v>
       </c>
       <c r="I101" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J101" t="s">
         <v>23</v>
@@ -5885,28 +6104,31 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
+        <v>425</v>
+      </c>
+      <c r="B102" t="s">
+        <v>426</v>
+      </c>
+      <c r="C102" t="s">
+        <v>360</v>
+      </c>
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
+        <v>288</v>
+      </c>
+      <c r="G102" t="s">
         <v>427</v>
-      </c>
-      <c r="C102" t="s">
-        <v>359</v>
-      </c>
-      <c r="D102" t="s">
-        <v>424</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" t="s">
-        <v>428</v>
-      </c>
-      <c r="G102" t="s">
-        <v>429</v>
       </c>
       <c r="H102" t="s">
         <v>75</v>
       </c>
       <c r="I102" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J102" t="s">
         <v>161</v>
@@ -5914,51 +6136,57 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" t="s">
+        <v>429</v>
+      </c>
+      <c r="B103" t="s">
+        <v>430</v>
+      </c>
+      <c r="C103" t="s">
+        <v>360</v>
+      </c>
+      <c r="D103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
         <v>431</v>
       </c>
-      <c r="C103" t="s">
-        <v>359</v>
-      </c>
-      <c r="D103" t="s">
-        <v>400</v>
-      </c>
-      <c r="E103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>432</v>
       </c>
-      <c r="G103" t="s">
-        <v>433</v>
-      </c>
       <c r="H103" t="s">
+        <v>375</v>
+      </c>
+      <c r="I103" t="s">
         <v>376</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>377</v>
-      </c>
-      <c r="J103" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
+        <v>433</v>
+      </c>
+      <c r="B104" t="s">
         <v>434</v>
       </c>
       <c r="C104" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>281</v>
+      </c>
+      <c r="G104" t="s">
         <v>435</v>
-      </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" t="s">
-        <v>436</v>
-      </c>
-      <c r="G104" t="s">
-        <v>437</v>
       </c>
       <c r="H104" t="s">
         <v>67</v>
@@ -5972,57 +6200,63 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" t="s">
+        <v>436</v>
+      </c>
+      <c r="B105" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" t="s">
+        <v>360</v>
+      </c>
+      <c r="D105" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" t="s">
         <v>438</v>
       </c>
-      <c r="C105" t="s">
-        <v>359</v>
-      </c>
-      <c r="D105" t="s">
-        <v>414</v>
-      </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" t="s">
         <v>439</v>
       </c>
-      <c r="G105" t="s">
+      <c r="I105" t="s">
         <v>440</v>
       </c>
-      <c r="H105" t="s">
-        <v>441</v>
-      </c>
-      <c r="I105" t="s">
-        <v>442</v>
-      </c>
       <c r="J105" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
+        <v>441</v>
+      </c>
+      <c r="B106" t="s">
+        <v>442</v>
+      </c>
+      <c r="C106" t="s">
+        <v>360</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>237</v>
+      </c>
+      <c r="G106" t="s">
         <v>443</v>
-      </c>
-      <c r="C106" t="s">
-        <v>359</v>
-      </c>
-      <c r="D106" t="s">
-        <v>410</v>
-      </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" t="s">
-        <v>444</v>
-      </c>
-      <c r="G106" t="s">
-        <v>445</v>
       </c>
       <c r="H106" t="s">
         <v>59</v>
       </c>
       <c r="I106" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J106" t="s">
         <v>161</v>
@@ -6030,22 +6264,25 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" t="s">
+        <v>445</v>
+      </c>
+      <c r="B107" t="s">
+        <v>446</v>
+      </c>
+      <c r="C107" t="s">
+        <v>360</v>
+      </c>
+      <c r="D107" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
         <v>447</v>
       </c>
-      <c r="C107" t="s">
-        <v>359</v>
-      </c>
-      <c r="D107" t="s">
-        <v>410</v>
-      </c>
-      <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>448</v>
-      </c>
-      <c r="G107" t="s">
-        <v>449</v>
       </c>
       <c r="H107" t="s">
         <v>268</v>
@@ -6054,24 +6291,27 @@
         <v>269</v>
       </c>
       <c r="J107" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
+        <v>449</v>
+      </c>
+      <c r="B108" t="s">
         <v>450</v>
       </c>
       <c r="C108" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D108" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
       </c>
       <c r="F108" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
@@ -6090,26 +6330,29 @@
       <c r="A109" t="s">
         <v>451</v>
       </c>
+      <c r="B109" t="s">
+        <v>452</v>
+      </c>
       <c r="C109" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D109" t="s">
-        <v>418</v>
+        <v>164</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
       </c>
       <c r="F109" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I109" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J109" t="s">
         <v>23</v>
@@ -6117,28 +6360,31 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>454</v>
+        <v>455</v>
+      </c>
+      <c r="B110" t="s">
+        <v>456</v>
       </c>
       <c r="C110" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D110" t="s">
-        <v>435</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
       <c r="F110" t="s">
+        <v>297</v>
+      </c>
+      <c r="G110" t="s">
         <v>361</v>
-      </c>
-      <c r="G110" t="s">
-        <v>362</v>
       </c>
       <c r="H110" t="s">
         <v>77</v>
       </c>
       <c r="I110" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J110" t="s">
         <v>51</v>
@@ -6146,22 +6392,25 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>456</v>
+        <v>458</v>
+      </c>
+      <c r="B111" t="s">
+        <v>459</v>
       </c>
       <c r="C111" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D111" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
       </c>
       <c r="F111" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G111" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="H111" t="s">
         <v>268</v>
@@ -6170,62 +6419,68 @@
         <v>269</v>
       </c>
       <c r="J111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>458</v>
+        <v>461</v>
+      </c>
+      <c r="B112" t="s">
+        <v>462</v>
       </c>
       <c r="C112" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D112" t="s">
-        <v>435</v>
+        <v>13</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G112" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H112" t="s">
+        <v>375</v>
+      </c>
+      <c r="I112" t="s">
         <v>376</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>377</v>
-      </c>
-      <c r="J112" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" t="s">
-        <v>461</v>
+        <v>465</v>
+      </c>
+      <c r="B113" t="s">
+        <v>466</v>
       </c>
       <c r="C113" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D113" t="s">
-        <v>424</v>
+        <v>21</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
       </c>
       <c r="F113" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="G113" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H113" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="I113" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="J113" t="s">
         <v>18</v>
@@ -6233,28 +6488,31 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>466</v>
+        <v>471</v>
+      </c>
+      <c r="B114" t="s">
+        <v>472</v>
       </c>
       <c r="C114" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D114" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G114" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="H114" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I114" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="J114" t="s">
         <v>32</v>
@@ -6262,28 +6520,31 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>470</v>
+        <v>476</v>
+      </c>
+      <c r="B115" t="s">
+        <v>477</v>
       </c>
       <c r="C115" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D115" t="s">
-        <v>414</v>
+        <v>42</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
       </c>
       <c r="F115" t="s">
+        <v>297</v>
+      </c>
+      <c r="G115" t="s">
         <v>361</v>
       </c>
-      <c r="G115" t="s">
-        <v>362</v>
-      </c>
       <c r="H115" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I115" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J115" t="s">
         <v>51</v>
@@ -6291,28 +6552,31 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>473</v>
+        <v>480</v>
+      </c>
+      <c r="B116" t="s">
+        <v>481</v>
       </c>
       <c r="C116" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D116" t="s">
-        <v>404</v>
+        <v>175</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>474</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116" t="s">
+        <v>368</v>
+      </c>
+      <c r="I116" t="s">
         <v>369</v>
-      </c>
-      <c r="I116" t="s">
-        <v>370</v>
       </c>
       <c r="J116" t="s">
         <v>23</v>
@@ -6320,22 +6584,25 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>475</v>
+        <v>482</v>
+      </c>
+      <c r="B117" t="s">
+        <v>483</v>
       </c>
       <c r="C117" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D117" t="s">
-        <v>476</v>
+        <v>236</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G117" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="H117" t="s">
         <v>268</v>
@@ -6344,27 +6611,30 @@
         <v>269</v>
       </c>
       <c r="J117" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" t="s">
-        <v>478</v>
+        <v>485</v>
+      </c>
+      <c r="B118" t="s">
+        <v>486</v>
       </c>
       <c r="C118" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D118" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
       </c>
       <c r="F118" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G118" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H118" t="s">
         <v>268</v>
@@ -6373,33 +6643,36 @@
         <v>269</v>
       </c>
       <c r="J118" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" t="s">
-        <v>481</v>
+        <v>489</v>
+      </c>
+      <c r="B119" t="s">
+        <v>490</v>
       </c>
       <c r="C119" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D119" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G119" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="H119" t="s">
         <v>69</v>
       </c>
       <c r="I119" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="J119" t="s">
         <v>116</v>
@@ -6407,22 +6680,25 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" t="s">
-        <v>485</v>
+        <v>494</v>
+      </c>
+      <c r="B120" t="s">
+        <v>495</v>
       </c>
       <c r="C120" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D120" t="s">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
       </c>
       <c r="F120" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="G120" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="H120" t="s">
         <v>268</v>
@@ -6431,62 +6707,68 @@
         <v>269</v>
       </c>
       <c r="J120" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" t="s">
-        <v>487</v>
+        <v>497</v>
+      </c>
+      <c r="B121" t="s">
+        <v>498</v>
       </c>
       <c r="C121" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D121" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="G121" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="H121" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I121" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J121" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>490</v>
+        <v>501</v>
+      </c>
+      <c r="B122" t="s">
+        <v>502</v>
       </c>
       <c r="C122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D122" t="s">
-        <v>424</v>
+        <v>21</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
       </c>
       <c r="F122" t="s">
-        <v>491</v>
+        <v>165</v>
       </c>
       <c r="G122" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="H122" t="s">
         <v>86</v>
       </c>
       <c r="I122" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="J122" t="s">
         <v>161</v>
@@ -6494,28 +6776,31 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>494</v>
+        <v>505</v>
+      </c>
+      <c r="B123" t="s">
+        <v>506</v>
       </c>
       <c r="C123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D123" t="s">
-        <v>495</v>
+        <v>158</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
       </c>
       <c r="F123" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="G123" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="H123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I123" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="J123" t="s">
         <v>161</v>
@@ -6523,19 +6808,22 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>498</v>
+        <v>509</v>
+      </c>
+      <c r="B124" t="s">
+        <v>510</v>
       </c>
       <c r="C124" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D124" t="s">
-        <v>495</v>
+        <v>158</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
       </c>
       <c r="F124" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
@@ -6552,28 +6840,31 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>500</v>
+        <v>512</v>
+      </c>
+      <c r="B125" t="s">
+        <v>513</v>
       </c>
       <c r="C125" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D125" t="s">
-        <v>501</v>
+        <v>55</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="G125" t="s">
-        <v>503</v>
+        <v>305</v>
       </c>
       <c r="H125" t="s">
+        <v>406</v>
+      </c>
+      <c r="I125" t="s">
         <v>407</v>
-      </c>
-      <c r="I125" t="s">
-        <v>408</v>
       </c>
       <c r="J125" t="s">
         <v>81</v>
@@ -6581,10 +6872,13 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" t="s">
-        <v>504</v>
+        <v>515</v>
+      </c>
+      <c r="B126" t="s">
+        <v>516</v>
       </c>
       <c r="C126" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
         <v>366</v>
@@ -6593,7 +6887,7 @@
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>505</v>
+        <v>22</v>
       </c>
       <c r="G126" t="s">
         <v>16</v>
@@ -6607,28 +6901,31 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" t="s">
-        <v>506</v>
+        <v>517</v>
+      </c>
+      <c r="B127" t="s">
+        <v>518</v>
       </c>
       <c r="C127" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D127" t="s">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
       </c>
       <c r="F127" t="s">
-        <v>507</v>
+        <v>184</v>
       </c>
       <c r="G127" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="H127" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I127" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J127" t="s">
         <v>161</v>
@@ -6636,22 +6933,25 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>509</v>
+        <v>520</v>
+      </c>
+      <c r="B128" t="s">
+        <v>521</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D128" t="s">
-        <v>392</v>
+        <v>296</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
       </c>
       <c r="F128" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="G128" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="H128" t="s">
         <v>268</v>
@@ -6665,115 +6965,127 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>511</v>
+        <v>523</v>
+      </c>
+      <c r="B129" t="s">
+        <v>524</v>
       </c>
       <c r="C129" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D129" t="s">
-        <v>388</v>
+        <v>72</v>
       </c>
       <c r="E129" t="s">
         <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="G129" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="H129" t="s">
         <v>69</v>
       </c>
       <c r="I129" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="J129" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>513</v>
+        <v>526</v>
+      </c>
+      <c r="B130" t="s">
+        <v>527</v>
       </c>
       <c r="C130" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D130" t="s">
-        <v>495</v>
+        <v>158</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
       </c>
       <c r="F130" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G130" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="H130" t="s">
         <v>86</v>
       </c>
       <c r="I130" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>515</v>
+        <v>529</v>
+      </c>
+      <c r="B131" t="s">
+        <v>530</v>
       </c>
       <c r="C131" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D131" t="s">
-        <v>424</v>
+        <v>21</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="G131" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="H131" t="s">
         <v>86</v>
       </c>
       <c r="I131" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="J131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" t="s">
-        <v>518</v>
+        <v>533</v>
+      </c>
+      <c r="B132" t="s">
+        <v>534</v>
       </c>
       <c r="C132" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D132" t="s">
-        <v>410</v>
+        <v>64</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
       </c>
       <c r="F132" t="s">
-        <v>519</v>
+        <v>327</v>
       </c>
       <c r="G132" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="H132" t="s">
         <v>86</v>
       </c>
       <c r="I132" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="J132" t="s">
         <v>161</v>
@@ -6781,28 +7093,31 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" t="s">
-        <v>521</v>
+        <v>536</v>
+      </c>
+      <c r="B133" t="s">
+        <v>537</v>
       </c>
       <c r="C133" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D133" t="s">
-        <v>404</v>
+        <v>175</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
       </c>
       <c r="F133" t="s">
-        <v>522</v>
+        <v>217</v>
       </c>
       <c r="G133" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="H133" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I133" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J133" t="s">
         <v>161</v>
@@ -6810,28 +7125,31 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" t="s">
-        <v>524</v>
+        <v>539</v>
+      </c>
+      <c r="B134" t="s">
+        <v>540</v>
       </c>
       <c r="C134" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D134" t="s">
-        <v>404</v>
+        <v>175</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="G134" t="s">
-        <v>503</v>
+        <v>305</v>
       </c>
       <c r="H134" t="s">
+        <v>406</v>
+      </c>
+      <c r="I134" t="s">
         <v>407</v>
-      </c>
-      <c r="I134" t="s">
-        <v>408</v>
       </c>
       <c r="J134" t="s">
         <v>81</v>
@@ -6839,28 +7157,31 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" t="s">
-        <v>526</v>
+        <v>542</v>
+      </c>
+      <c r="B135" t="s">
+        <v>543</v>
       </c>
       <c r="C135" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D135" t="s">
-        <v>495</v>
+        <v>158</v>
       </c>
       <c r="E135" t="s">
         <v>14</v>
       </c>
       <c r="F135" t="s">
-        <v>527</v>
+        <v>350</v>
       </c>
       <c r="G135" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="H135" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I135" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J135" t="s">
         <v>161</v>
@@ -6868,22 +7189,25 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" t="s">
-        <v>529</v>
+        <v>545</v>
+      </c>
+      <c r="B136" t="s">
+        <v>546</v>
       </c>
       <c r="C136" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D136" t="s">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="E136" t="s">
         <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="G136" t="s">
-        <v>531</v>
+        <v>85</v>
       </c>
       <c r="H136" t="s">
         <v>81</v>
@@ -6897,28 +7221,31 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" t="s">
-        <v>532</v>
+        <v>548</v>
+      </c>
+      <c r="B137" t="s">
+        <v>549</v>
       </c>
       <c r="C137" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D137" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="E137" t="s">
         <v>14</v>
       </c>
       <c r="F137" t="s">
-        <v>533</v>
+        <v>195</v>
       </c>
       <c r="G137" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="H137" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I137" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J137" t="s">
         <v>161</v>
@@ -6926,28 +7253,31 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" t="s">
-        <v>535</v>
+        <v>551</v>
+      </c>
+      <c r="B138" t="s">
+        <v>552</v>
       </c>
       <c r="C138" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D138" t="s">
-        <v>495</v>
+        <v>158</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
       </c>
       <c r="F138" t="s">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="G138" t="s">
-        <v>503</v>
+        <v>305</v>
       </c>
       <c r="H138" t="s">
+        <v>406</v>
+      </c>
+      <c r="I138" t="s">
         <v>407</v>
-      </c>
-      <c r="I138" t="s">
-        <v>408</v>
       </c>
       <c r="J138" t="s">
         <v>81</v>
@@ -6955,28 +7285,31 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" t="s">
-        <v>537</v>
+        <v>554</v>
+      </c>
+      <c r="B139" t="s">
+        <v>555</v>
       </c>
       <c r="C139" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D139" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>538</v>
+        <v>180</v>
       </c>
       <c r="G139" t="s">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="H139" t="s">
         <v>59</v>
       </c>
       <c r="I139" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J139" t="s">
         <v>161</v>
@@ -6984,22 +7317,25 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" t="s">
-        <v>540</v>
+        <v>557</v>
+      </c>
+      <c r="B140" t="s">
+        <v>558</v>
       </c>
       <c r="C140" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D140" t="s">
-        <v>476</v>
+        <v>236</v>
       </c>
       <c r="E140" t="s">
         <v>14</v>
       </c>
       <c r="F140" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
       <c r="G140" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
       <c r="H140" t="s">
         <v>268</v>
@@ -7008,33 +7344,36 @@
         <v>269</v>
       </c>
       <c r="J140" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" t="s">
-        <v>543</v>
+        <v>561</v>
+      </c>
+      <c r="B141" t="s">
+        <v>562</v>
       </c>
       <c r="C141" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D141" t="s">
-        <v>418</v>
+        <v>164</v>
       </c>
       <c r="E141" t="s">
         <v>14</v>
       </c>
       <c r="F141" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G141" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="H141" t="s">
+        <v>375</v>
+      </c>
+      <c r="I141" t="s">
         <v>376</v>
-      </c>
-      <c r="I141" t="s">
-        <v>377</v>
       </c>
       <c r="J141" t="s">
         <v>116</v>
@@ -7042,28 +7381,31 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" t="s">
-        <v>545</v>
+        <v>564</v>
+      </c>
+      <c r="B142" t="s">
+        <v>565</v>
       </c>
       <c r="C142" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D142" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="E142" t="s">
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>546</v>
+        <v>159</v>
       </c>
       <c r="G142" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="H142" t="s">
         <v>59</v>
       </c>
       <c r="I142" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J142" t="s">
         <v>161</v>
@@ -7071,28 +7413,31 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" t="s">
-        <v>548</v>
+        <v>567</v>
+      </c>
+      <c r="B143" t="s">
+        <v>568</v>
       </c>
       <c r="C143" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D143" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="E143" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F143" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="G143" t="s">
         <v>16</v>
       </c>
       <c r="H143" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="I143" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="J143" t="s">
         <v>23</v>
@@ -7100,39 +7445,45 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" t="s">
-        <v>553</v>
+        <v>573</v>
+      </c>
+      <c r="B144" t="s">
+        <v>574</v>
       </c>
       <c r="C144" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D144" t="s">
-        <v>410</v>
+        <v>64</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G144" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H144" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I144" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="J144" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" t="s">
-        <v>555</v>
+        <v>576</v>
+      </c>
+      <c r="B145" t="s">
+        <v>577</v>
       </c>
       <c r="C145" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D145" t="s">
         <v>366</v>
@@ -7141,45 +7492,45 @@
         <v>14</v>
       </c>
       <c r="F145" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="G145" t="s">
-        <v>557</v>
+        <v>579</v>
       </c>
       <c r="H145" t="s">
         <v>69</v>
       </c>
       <c r="I145" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="J145" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="C146" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D146" t="s">
-        <v>384</v>
+        <v>582</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G146" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
       <c r="H146" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="I146" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="J146" t="s">
         <v>51</v>
@@ -7187,28 +7538,28 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="C147" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D147" t="s">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
       </c>
       <c r="F147" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="G147" t="s">
         <v>16</v>
       </c>
       <c r="H147" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="I147" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="J147" t="s">
         <v>23</v>
@@ -7216,57 +7567,57 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="C148" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D148" t="s">
-        <v>392</v>
+        <v>593</v>
       </c>
       <c r="E148" t="s">
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="G148" t="s">
-        <v>440</v>
+        <v>595</v>
       </c>
       <c r="H148" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="I148" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="J148" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="C149" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D149" t="s">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
       </c>
       <c r="F149" t="s">
-        <v>448</v>
+        <v>601</v>
       </c>
       <c r="G149" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="H149" t="s">
+        <v>406</v>
+      </c>
+      <c r="I149" t="s">
         <v>407</v>
-      </c>
-      <c r="I149" t="s">
-        <v>408</v>
       </c>
       <c r="J149" t="s">
         <v>227</v>
@@ -7274,28 +7625,28 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="C150" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D150" t="s">
-        <v>366</v>
+        <v>604</v>
       </c>
       <c r="E150" t="s">
         <v>14</v>
       </c>
       <c r="F150" t="s">
-        <v>368</v>
+        <v>605</v>
       </c>
       <c r="G150" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="H150" t="s">
         <v>69</v>
       </c>
       <c r="I150" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="J150" t="s">
         <v>227</v>
@@ -7303,28 +7654,28 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="C151" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D151" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
       </c>
       <c r="F151" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G151" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
       <c r="H151" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="I151" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
@@ -7332,28 +7683,28 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="C152" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D152" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E152" t="s">
         <v>14</v>
       </c>
       <c r="F152" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="G152" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="H152" t="s">
         <v>116</v>
       </c>
       <c r="I152" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J152" t="s">
         <v>227</v>
@@ -7361,28 +7712,28 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="C153" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D153" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="E153" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F153" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="G153" t="s">
         <v>16</v>
       </c>
       <c r="H153" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="I153" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="J153" t="s">
         <v>23</v>
@@ -7390,28 +7741,28 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="C154" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D154" t="s">
-        <v>476</v>
+        <v>622</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
       </c>
       <c r="F154" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="G154" t="s">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="H154" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I154" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J154" t="s">
         <v>227</v>
@@ -7419,57 +7770,57 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
-        <v>590</v>
+        <v>625</v>
       </c>
       <c r="C155" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D155" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E155" t="s">
         <v>14</v>
       </c>
       <c r="F155" t="s">
-        <v>591</v>
+        <v>626</v>
       </c>
       <c r="G155" t="s">
-        <v>592</v>
+        <v>627</v>
       </c>
       <c r="H155" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="I155" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="J155" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="C156" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D156" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E156" t="s">
         <v>14</v>
       </c>
       <c r="F156" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G156" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
       <c r="H156" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="I156" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
       <c r="J156" t="s">
         <v>51</v>
@@ -7477,28 +7828,28 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="C157" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D157" t="s">
-        <v>501</v>
+        <v>635</v>
       </c>
       <c r="E157" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F157" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="G157" t="s">
-        <v>600</v>
+        <v>637</v>
       </c>
       <c r="H157" t="s">
         <v>116</v>
       </c>
       <c r="I157" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J157" t="s">
         <v>51</v>
@@ -7506,28 +7857,28 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="C158" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D158" t="s">
-        <v>373</v>
+        <v>639</v>
       </c>
       <c r="E158" t="s">
         <v>14</v>
       </c>
       <c r="F158" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="G158" t="s">
         <v>16</v>
       </c>
       <c r="H158" t="s">
+        <v>368</v>
+      </c>
+      <c r="I158" t="s">
         <v>369</v>
-      </c>
-      <c r="I158" t="s">
-        <v>370</v>
       </c>
       <c r="J158" t="s">
         <v>23</v>
@@ -7535,28 +7886,28 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="C159" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D159" t="s">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>467</v>
+        <v>642</v>
       </c>
       <c r="G159" t="s">
-        <v>604</v>
+        <v>643</v>
       </c>
       <c r="H159" t="s">
+        <v>362</v>
+      </c>
+      <c r="I159" t="s">
         <v>363</v>
-      </c>
-      <c r="I159" t="s">
-        <v>364</v>
       </c>
       <c r="J159" t="s">
         <v>227</v>
@@ -7564,28 +7915,28 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="C160" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D160" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="G160" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="H160" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="I160" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="J160" t="s">
         <v>51</v>
@@ -7593,28 +7944,28 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="C161" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D161" t="s">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>467</v>
+        <v>642</v>
       </c>
       <c r="G161" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="H161" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="I161" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="J161" t="s">
         <v>227</v>
@@ -7622,28 +7973,28 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
       <c r="C162" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D162" t="s">
-        <v>392</v>
+        <v>593</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G162" t="s">
         <v>16</v>
       </c>
       <c r="H162" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="I162" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="J162" t="s">
         <v>23</v>
@@ -7651,28 +8002,28 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="C163" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D163" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E163" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F163" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="G163" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="H163" t="s">
         <v>116</v>
       </c>
       <c r="I163" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J163" t="s">
         <v>51</v>
@@ -7680,83 +8031,83 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="C164" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D164" t="s">
-        <v>384</v>
+        <v>582</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
       </c>
       <c r="F164" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="G164" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="I164" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="J164" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="C165" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D165" t="s">
-        <v>414</v>
+        <v>664</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="G165" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="H165" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I165" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J165" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="C166" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D166" t="s">
-        <v>410</v>
+        <v>668</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>488</v>
+        <v>669</v>
       </c>
       <c r="G166" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="H166" t="s">
         <v>299</v>
       </c>
       <c r="I166" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
       <c r="J166" t="s">
         <v>227</v>
@@ -7764,28 +8115,28 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="C167" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D167" t="s">
-        <v>414</v>
+        <v>664</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="G167" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="H167" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I167" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J167" t="s">
         <v>227</v>
@@ -7793,28 +8144,28 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="C168" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D168" t="s">
-        <v>418</v>
+        <v>676</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>556</v>
+        <v>677</v>
       </c>
       <c r="G168" t="s">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="H168" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="I168" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="J168" t="s">
         <v>227</v>
@@ -7822,25 +8173,25 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="C169" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D169" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="G169" t="s">
-        <v>638</v>
+        <v>682</v>
       </c>
       <c r="I169" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J169" t="s">
         <v>51</v>
@@ -7848,28 +8199,28 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="C170" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D170" t="s">
-        <v>388</v>
+        <v>684</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="G170" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
       <c r="H170" t="s">
         <v>161</v>
       </c>
       <c r="I170" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="J170" t="s">
         <v>227</v>
@@ -7877,28 +8228,28 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="C171" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D171" t="s">
-        <v>373</v>
+        <v>639</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>479</v>
+        <v>689</v>
       </c>
       <c r="G171" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="H171" t="s">
+        <v>406</v>
+      </c>
+      <c r="I171" t="s">
         <v>407</v>
-      </c>
-      <c r="I171" t="s">
-        <v>408</v>
       </c>
       <c r="J171" t="s">
         <v>227</v>
@@ -7906,28 +8257,28 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
       <c r="C172" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D172" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G172" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
       <c r="H172" t="s">
-        <v>646</v>
+        <v>692</v>
       </c>
       <c r="I172" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="J172" t="s">
         <v>51</v>
@@ -7935,77 +8286,77 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="C173" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D173" t="s">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="G173" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="H173" t="s">
+        <v>406</v>
+      </c>
+      <c r="I173" t="s">
         <v>407</v>
       </c>
-      <c r="I173" t="s">
-        <v>408</v>
-      </c>
       <c r="J173" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="C174" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D174" t="s">
-        <v>388</v>
+        <v>684</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="G174" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="H174" t="s">
+        <v>406</v>
+      </c>
+      <c r="I174" t="s">
         <v>407</v>
       </c>
-      <c r="I174" t="s">
-        <v>408</v>
-      </c>
       <c r="J174" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
       <c r="C175" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D175" t="s">
-        <v>366</v>
+        <v>604</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="G175" t="s">
         <v>16</v>
@@ -8022,57 +8373,57 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="C176" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D176" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="G176" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="H176" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I176" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="J176" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="C177" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D177" t="s">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="G177" t="s">
-        <v>496</v>
+        <v>708</v>
       </c>
       <c r="H177" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I177" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J177" t="s">
         <v>227</v>
@@ -8080,19 +8431,19 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>662</v>
+        <v>709</v>
       </c>
       <c r="C178" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D178" t="s">
-        <v>392</v>
+        <v>593</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G178" t="s">
         <v>16</v>
@@ -8101,7 +8452,7 @@
         <v>59</v>
       </c>
       <c r="I178" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J178" t="s">
         <v>23</v>
@@ -8109,28 +8460,28 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>663</v>
+        <v>710</v>
       </c>
       <c r="C179" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D179" t="s">
-        <v>410</v>
+        <v>668</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G179" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
       <c r="H179" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="I179" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
@@ -8138,28 +8489,28 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="C180" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D180" t="s">
-        <v>476</v>
+        <v>622</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G180" t="s">
+        <v>584</v>
+      </c>
+      <c r="H180" t="s">
         <v>362</v>
       </c>
-      <c r="H180" t="s">
-        <v>363</v>
-      </c>
       <c r="I180" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
@@ -8167,22 +8518,22 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="C181" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D181" t="s">
-        <v>373</v>
+        <v>639</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>374</v>
+        <v>716</v>
       </c>
       <c r="G181" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
       <c r="H181" t="s">
         <v>81</v>
@@ -8196,86 +8547,86 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
       <c r="C182" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D182" t="s">
-        <v>392</v>
+        <v>593</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>671</v>
+        <v>719</v>
       </c>
       <c r="G182" t="s">
-        <v>440</v>
+        <v>595</v>
       </c>
       <c r="H182" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="I182" t="s">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="J182" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
       <c r="C183" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D183" t="s">
-        <v>418</v>
+        <v>676</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="G183" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="H183" t="s">
         <v>81</v>
       </c>
       <c r="I183" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="J183" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>677</v>
+        <v>725</v>
       </c>
       <c r="C184" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D184" t="s">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G184" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
       <c r="H184" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="I184" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="J184" t="s">
         <v>51</v>
@@ -8283,19 +8634,19 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="C185" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D185" t="s">
-        <v>410</v>
+        <v>668</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>406</v>
+        <v>728</v>
       </c>
       <c r="G185" t="s">
         <v>16</v>
@@ -8312,28 +8663,28 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="C186" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D186" t="s">
-        <v>501</v>
+        <v>635</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G186" t="s">
-        <v>362</v>
+        <v>584</v>
       </c>
       <c r="H186" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="I186" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="J186" t="s">
         <v>51</v>
@@ -8341,28 +8692,28 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>681</v>
+        <v>730</v>
       </c>
       <c r="C187" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D187" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="G187" t="s">
-        <v>683</v>
+        <v>732</v>
       </c>
       <c r="H187" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I187" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J187" t="s">
         <v>227</v>
@@ -8370,28 +8721,28 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="C188" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D188" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>457</v>
+        <v>734</v>
       </c>
       <c r="G188" t="s">
-        <v>685</v>
+        <v>735</v>
       </c>
       <c r="H188" t="s">
+        <v>406</v>
+      </c>
+      <c r="I188" t="s">
         <v>407</v>
-      </c>
-      <c r="I188" t="s">
-        <v>408</v>
       </c>
       <c r="J188" t="s">
         <v>227</v>
@@ -8399,28 +8750,28 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>686</v>
+        <v>736</v>
       </c>
       <c r="C189" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D189" t="s">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="E189" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F189" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
       </c>
       <c r="H189" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I189" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="J189" t="s">
         <v>23</v>
@@ -8428,28 +8779,28 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>687</v>
+        <v>737</v>
       </c>
       <c r="C190" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D190" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>688</v>
+        <v>738</v>
       </c>
       <c r="G190" t="s">
-        <v>689</v>
+        <v>739</v>
       </c>
       <c r="H190" t="s">
         <v>32</v>
       </c>
       <c r="I190" t="s">
-        <v>690</v>
+        <v>740</v>
       </c>
       <c r="J190" t="s">
         <v>81</v>
@@ -8457,77 +8808,77 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>691</v>
+        <v>741</v>
       </c>
       <c r="C191" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D191" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E191" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F191" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="G191" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="I191" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="J191" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>693</v>
+        <v>743</v>
       </c>
       <c r="C192" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D192" t="s">
-        <v>360</v>
+        <v>744</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="G192" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="H192" t="s">
         <v>81</v>
       </c>
       <c r="I192" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="J192" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>694</v>
+        <v>745</v>
       </c>
       <c r="C193" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D193" t="s">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>389</v>
+        <v>746</v>
       </c>
       <c r="G193" t="s">
-        <v>695</v>
+        <v>747</v>
       </c>
       <c r="H193" t="s">
         <v>81</v>
@@ -8541,25 +8892,25 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="C194" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D194" t="s">
-        <v>384</v>
+        <v>582</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="G194" t="s">
-        <v>698</v>
+        <v>750</v>
       </c>
       <c r="I194" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J194" t="s">
         <v>51</v>
@@ -8567,28 +8918,28 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="C195" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D195" t="s">
-        <v>476</v>
+        <v>622</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>482</v>
+        <v>752</v>
       </c>
       <c r="G195" t="s">
-        <v>700</v>
+        <v>753</v>
       </c>
       <c r="H195" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="I195" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="J195" t="s">
         <v>227</v>
@@ -8596,86 +8947,86 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>701</v>
+        <v>754</v>
       </c>
       <c r="C196" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D196" t="s">
-        <v>384</v>
+        <v>582</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="G196" t="s">
-        <v>702</v>
+        <v>755</v>
       </c>
       <c r="H196" t="s">
         <v>81</v>
       </c>
       <c r="I196" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="J196" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>703</v>
+        <v>756</v>
       </c>
       <c r="C197" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D197" t="s">
-        <v>501</v>
+        <v>635</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="G197" t="s">
-        <v>704</v>
+        <v>757</v>
       </c>
       <c r="H197" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="I197" t="s">
-        <v>594</v>
+        <v>629</v>
       </c>
       <c r="J197" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>705</v>
+        <v>758</v>
       </c>
       <c r="C198" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D198" t="s">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="G198" t="s">
-        <v>706</v>
+        <v>759</v>
       </c>
       <c r="H198" t="s">
         <v>116</v>
       </c>
       <c r="I198" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J198" t="s">
         <v>227</v>
@@ -8683,28 +9034,28 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>707</v>
+        <v>760</v>
       </c>
       <c r="C199" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D199" t="s">
-        <v>410</v>
+        <v>668</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>591</v>
+        <v>626</v>
       </c>
       <c r="G199" t="s">
-        <v>708</v>
+        <v>761</v>
       </c>
       <c r="H199" t="s">
         <v>161</v>
       </c>
       <c r="I199" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="J199" t="s">
         <v>227</v>
@@ -8712,83 +9063,83 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>709</v>
+        <v>762</v>
       </c>
       <c r="C200" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D200" t="s">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
       </c>
       <c r="F200" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="G200" t="s">
-        <v>496</v>
+        <v>708</v>
       </c>
       <c r="H200" t="s">
         <v>227</v>
       </c>
       <c r="I200" t="s">
-        <v>710</v>
+        <v>763</v>
       </c>
       <c r="J200" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>711</v>
+        <v>764</v>
       </c>
       <c r="C201" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D201" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>682</v>
+        <v>731</v>
       </c>
       <c r="G201" t="s">
-        <v>712</v>
+        <v>765</v>
       </c>
       <c r="H201" t="s">
+        <v>406</v>
+      </c>
+      <c r="I201" t="s">
         <v>407</v>
       </c>
-      <c r="I201" t="s">
-        <v>408</v>
-      </c>
       <c r="J201" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>713</v>
+        <v>766</v>
       </c>
       <c r="C202" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D202" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E202" t="s">
         <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>697</v>
+        <v>749</v>
       </c>
       <c r="G202" t="s">
-        <v>714</v>
+        <v>767</v>
       </c>
       <c r="I202" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J202" t="s">
         <v>51</v>
@@ -8796,51 +9147,51 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>715</v>
+        <v>768</v>
       </c>
       <c r="C203" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D203" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="G203" t="s">
-        <v>716</v>
+        <v>769</v>
       </c>
       <c r="H203" t="s">
+        <v>406</v>
+      </c>
+      <c r="I203" t="s">
         <v>407</v>
       </c>
-      <c r="I203" t="s">
-        <v>408</v>
-      </c>
       <c r="J203" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>717</v>
+        <v>770</v>
       </c>
       <c r="C204" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D204" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>432</v>
+        <v>771</v>
       </c>
       <c r="G204" t="s">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="H204" t="s">
         <v>81</v>
@@ -8854,57 +9205,57 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>719</v>
+        <v>773</v>
       </c>
       <c r="C205" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D205" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="G205" t="s">
-        <v>720</v>
+        <v>774</v>
       </c>
       <c r="H205" t="s">
         <v>81</v>
       </c>
       <c r="I205" t="s">
-        <v>676</v>
+        <v>724</v>
       </c>
       <c r="J205" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>721</v>
+        <v>775</v>
       </c>
       <c r="C206" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D206" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>722</v>
+        <v>776</v>
       </c>
       <c r="G206" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
       <c r="H206" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="I206" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
@@ -8912,28 +9263,28 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>724</v>
+        <v>778</v>
       </c>
       <c r="C207" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D207" t="s">
-        <v>725</v>
+        <v>779</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>726</v>
+        <v>780</v>
       </c>
       <c r="G207" t="s">
-        <v>727</v>
+        <v>781</v>
       </c>
       <c r="H207" t="s">
-        <v>593</v>
+        <v>628</v>
       </c>
       <c r="I207" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="J207" t="s">
         <v>51</v>
@@ -8941,28 +9292,28 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="C208" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D208" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>674</v>
+        <v>722</v>
       </c>
       <c r="G208" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="H208" t="s">
         <v>116</v>
       </c>
       <c r="I208" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J208" t="s">
         <v>227</v>
@@ -8970,28 +9321,28 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>729</v>
+        <v>783</v>
       </c>
       <c r="C209" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D209" t="s">
-        <v>730</v>
+        <v>784</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>731</v>
+        <v>785</v>
       </c>
       <c r="G209" t="s">
-        <v>732</v>
+        <v>786</v>
       </c>
       <c r="H209" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="I209" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
@@ -8999,28 +9350,28 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>733</v>
+        <v>787</v>
       </c>
       <c r="C210" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D210" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E210" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F210" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="G210" t="s">
-        <v>734</v>
+        <v>788</v>
       </c>
       <c r="H210" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I210" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="J210" t="s">
         <v>161</v>
@@ -9028,22 +9379,22 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>735</v>
+        <v>789</v>
       </c>
       <c r="C211" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D211" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>459</v>
+        <v>790</v>
       </c>
       <c r="G211" t="s">
-        <v>736</v>
+        <v>791</v>
       </c>
       <c r="H211" t="s">
         <v>81</v>
@@ -9057,28 +9408,28 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>737</v>
+        <v>792</v>
       </c>
       <c r="C212" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D212" t="s">
-        <v>384</v>
+        <v>582</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="G212" t="s">
-        <v>738</v>
+        <v>793</v>
       </c>
       <c r="H212" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I212" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J212" t="s">
         <v>227</v>
@@ -9086,77 +9437,77 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>739</v>
+        <v>794</v>
       </c>
       <c r="C213" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D213" t="s">
-        <v>366</v>
+        <v>604</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>740</v>
+        <v>795</v>
       </c>
       <c r="G213" t="s">
-        <v>440</v>
+        <v>595</v>
       </c>
       <c r="H213" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I213" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J213" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>741</v>
+        <v>796</v>
       </c>
       <c r="C214" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D214" t="s">
-        <v>366</v>
+        <v>604</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="G214" t="s">
-        <v>742</v>
+        <v>797</v>
       </c>
       <c r="H214" t="s">
+        <v>406</v>
+      </c>
+      <c r="I214" t="s">
         <v>407</v>
       </c>
-      <c r="I214" t="s">
-        <v>408</v>
-      </c>
       <c r="J214" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>743</v>
+        <v>798</v>
       </c>
       <c r="C215" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D215" t="s">
-        <v>476</v>
+        <v>622</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>477</v>
+        <v>799</v>
       </c>
       <c r="G215" t="s">
         <v>16</v>
@@ -9173,25 +9524,25 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>744</v>
+        <v>800</v>
       </c>
       <c r="C216" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D216" t="s">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="G216" t="s">
-        <v>745</v>
+        <v>801</v>
       </c>
       <c r="I216" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J216" t="s">
         <v>51</v>
@@ -9199,28 +9550,28 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>746</v>
+        <v>802</v>
       </c>
       <c r="C217" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D217" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>747</v>
+        <v>803</v>
       </c>
       <c r="G217" t="s">
-        <v>748</v>
+        <v>804</v>
       </c>
       <c r="H217" t="s">
-        <v>749</v>
+        <v>805</v>
       </c>
       <c r="I217" t="s">
-        <v>750</v>
+        <v>806</v>
       </c>
       <c r="J217" t="s">
         <v>227</v>
@@ -9228,28 +9579,28 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>751</v>
+        <v>807</v>
       </c>
       <c r="C218" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D218" t="s">
-        <v>424</v>
+        <v>600</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>467</v>
+        <v>642</v>
       </c>
       <c r="G218" t="s">
-        <v>752</v>
+        <v>808</v>
       </c>
       <c r="H218" t="s">
+        <v>362</v>
+      </c>
+      <c r="I218" t="s">
         <v>363</v>
-      </c>
-      <c r="I218" t="s">
-        <v>364</v>
       </c>
       <c r="J218" t="s">
         <v>227</v>
@@ -9257,28 +9608,28 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>753</v>
+        <v>809</v>
       </c>
       <c r="C219" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D219" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>541</v>
+        <v>810</v>
       </c>
       <c r="G219" t="s">
-        <v>754</v>
+        <v>811</v>
       </c>
       <c r="H219" t="s">
+        <v>406</v>
+      </c>
+      <c r="I219" t="s">
         <v>407</v>
-      </c>
-      <c r="I219" t="s">
-        <v>408</v>
       </c>
       <c r="J219" t="s">
         <v>227</v>
@@ -9286,57 +9637,57 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>755</v>
+        <v>812</v>
       </c>
       <c r="C220" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D220" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>756</v>
+        <v>813</v>
       </c>
       <c r="G220" t="s">
-        <v>757</v>
+        <v>814</v>
       </c>
       <c r="H220" t="s">
         <v>69</v>
       </c>
       <c r="I220" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="J220" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>758</v>
+        <v>815</v>
       </c>
       <c r="C221" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D221" t="s">
-        <v>360</v>
+        <v>744</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>502</v>
+        <v>816</v>
       </c>
       <c r="G221" t="s">
-        <v>496</v>
+        <v>708</v>
       </c>
       <c r="H221" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I221" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J221" t="s">
         <v>227</v>
@@ -9344,57 +9695,57 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>759</v>
+        <v>817</v>
       </c>
       <c r="C222" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D222" t="s">
-        <v>373</v>
+        <v>639</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="G222" t="s">
-        <v>760</v>
+        <v>818</v>
       </c>
       <c r="H222" t="s">
+        <v>406</v>
+      </c>
+      <c r="I222" t="s">
         <v>407</v>
       </c>
-      <c r="I222" t="s">
-        <v>408</v>
-      </c>
       <c r="J222" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>761</v>
+        <v>819</v>
       </c>
       <c r="C223" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D223" t="s">
-        <v>366</v>
+        <v>604</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>756</v>
+        <v>813</v>
       </c>
       <c r="G223" t="s">
-        <v>762</v>
+        <v>820</v>
       </c>
       <c r="H223" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="I223" t="s">
-        <v>636</v>
+        <v>680</v>
       </c>
       <c r="J223" t="s">
         <v>227</v>
@@ -9402,28 +9753,28 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="C224" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D224" t="s">
-        <v>392</v>
+        <v>593</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>361</v>
+        <v>583</v>
       </c>
       <c r="G224" t="s">
-        <v>764</v>
+        <v>822</v>
       </c>
       <c r="H224" t="s">
         <v>91</v>
       </c>
       <c r="I224" t="s">
-        <v>765</v>
+        <v>823</v>
       </c>
       <c r="J224" t="s">
         <v>227</v>
@@ -9431,57 +9782,57 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>766</v>
+        <v>824</v>
       </c>
       <c r="C225" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D225" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>588</v>
+        <v>623</v>
       </c>
       <c r="G225" t="s">
-        <v>767</v>
+        <v>825</v>
       </c>
       <c r="H225" t="s">
+        <v>406</v>
+      </c>
+      <c r="I225" t="s">
         <v>407</v>
       </c>
-      <c r="I225" t="s">
-        <v>408</v>
-      </c>
       <c r="J225" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>768</v>
+        <v>826</v>
       </c>
       <c r="C226" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D226" t="s">
-        <v>435</v>
+        <v>631</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="G226" t="s">
-        <v>769</v>
+        <v>827</v>
       </c>
       <c r="H226" t="s">
         <v>116</v>
       </c>
       <c r="I226" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="J226" t="s">
         <v>227</v>
@@ -9489,28 +9840,28 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>770</v>
+        <v>828</v>
       </c>
       <c r="C227" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D227" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
       </c>
       <c r="F227" t="s">
-        <v>771</v>
+        <v>829</v>
       </c>
       <c r="G227" t="s">
-        <v>772</v>
+        <v>830</v>
       </c>
       <c r="H227" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="I227" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="J227" t="s">
         <v>51</v>
@@ -9518,28 +9869,28 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>773</v>
+        <v>831</v>
       </c>
       <c r="C228" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D228" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="G228" t="s">
-        <v>774</v>
+        <v>832</v>
       </c>
       <c r="H228" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="I228" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="J228" t="s">
         <v>227</v>
@@ -9547,28 +9898,28 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>775</v>
+        <v>833</v>
       </c>
       <c r="C229" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D229" t="s">
-        <v>776</v>
+        <v>834</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>777</v>
+        <v>835</v>
       </c>
       <c r="G229" t="s">
         <v>16</v>
       </c>
       <c r="H229" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="I229" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="J229" t="s">
         <v>23</v>
@@ -9576,28 +9927,28 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>778</v>
+        <v>836</v>
       </c>
       <c r="C230" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D230" t="s">
-        <v>779</v>
+        <v>837</v>
       </c>
       <c r="E230" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F230" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="G230" t="s">
         <v>16</v>
       </c>
       <c r="H230" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="I230" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="J230" t="s">
         <v>23</v>
@@ -9605,28 +9956,28 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>780</v>
+        <v>838</v>
       </c>
       <c r="C231" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="D231" t="s">
-        <v>779</v>
+        <v>837</v>
       </c>
       <c r="E231" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="F231" t="s">
-        <v>781</v>
+        <v>839</v>
       </c>
       <c r="G231" t="s">
         <v>16</v>
       </c>
       <c r="H231" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="I231" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="J231" t="s">
         <v>23</v>

--- a/data_G.xlsx
+++ b/data_G.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19007"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="893">
   <si>
     <t>questName</t>
   </si>
@@ -1762,16 +1762,13 @@
     <t>絆の証？雪山の獰猛大決戦</t>
   </si>
   <si>
+    <t>인연의 증거? 설산의 영맹대결전</t>
+  </si>
+  <si>
     <t>G★4</t>
   </si>
   <si>
-    <t>雪山</t>
-  </si>
-  <si>
-    <t>全ての大型モンスターの狩猟</t>
-  </si>
-  <si>
-    <t>龍歴院ポイント２５００pts入手</t>
+    <t>용역원(龍歴院)포인트２５００pts입수</t>
   </si>
   <si>
     <t>4400z</t>
@@ -1783,10 +1780,10 @@
     <t>金と銀がもたらす悲哀</t>
   </si>
   <si>
-    <t>遺群嶺</t>
-  </si>
-  <si>
-    <t>リオレウス希少種１頭とリオレイア希少種１頭の狩猟</t>
+    <t>금과 은이 가져오는 비애</t>
+  </si>
+  <si>
+    <t>리오레우스 희소종(リオレウス希少種) 1마리와 리오레이아 희소종(リオレイア希少種) 1마리 수렵</t>
   </si>
   <si>
     <t>5800z</t>
@@ -1798,13 +1795,13 @@
     <t>感動の生まれる瞬間</t>
   </si>
   <si>
-    <t>闘技場</t>
-  </si>
-  <si>
-    <t>イビルジョー１頭とラージャン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを２回成功</t>
+    <t>감동적인 탄생의 순간</t>
+  </si>
+  <si>
+    <t>이빌죠(イビルジョー) 1마리와 라쟌(ラージャン) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>단차에 의한 다운을２회 성공</t>
   </si>
   <si>
     <t>3800z</t>
@@ -1819,25 +1816,19 @@
     <t>先生の弱点は獰猛な重甲虫</t>
   </si>
   <si>
-    <t>原生林</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタス１匹の狩猟</t>
-  </si>
-  <si>
-    <t>ゲネル・セルタスの頭部と尻尾破壊</t>
+    <t>선생의 약점은 영맹한 중갑충</t>
+  </si>
+  <si>
+    <t>게넬・셀타스(ゲネル・セルタス)의 머리와 꼬리 파괴</t>
   </si>
   <si>
     <t>採掘場を取り戻せ！</t>
   </si>
   <si>
-    <t>地底火山</t>
-  </si>
-  <si>
-    <t>ウラガンキン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ウラガンキンの顎と背中破壊</t>
+    <t>채굴장을 되찾아라!</t>
+  </si>
+  <si>
+    <t>우라간킨(ウラガンキン)의 턱과 등 파괴</t>
   </si>
   <si>
     <t>21000z</t>
@@ -1846,7 +1837,7 @@
     <t>鎧・砕・斬の包囲網を越えて</t>
   </si>
   <si>
-    <t>火山</t>
+    <t>개・쇄・참의 포위망을 넘어서</t>
   </si>
   <si>
     <t>4600z</t>
@@ -1858,13 +1849,13 @@
     <t>金色超巨星</t>
   </si>
   <si>
-    <t>密林</t>
-  </si>
-  <si>
-    <t>ラージャン１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ラージャンの角破壊</t>
+    <t>금빛초거성</t>
+  </si>
+  <si>
+    <t>라쟌(ラージャン) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>라쟌(ラージャン)의 뿔 파괴</t>
   </si>
   <si>
     <t>32400z</t>
@@ -1873,10 +1864,13 @@
     <t>終末の時</t>
   </si>
   <si>
-    <t>溶岩島</t>
-  </si>
-  <si>
-    <t>ミラボレアスの討伐または撃退</t>
+    <t>종말의 때</t>
+  </si>
+  <si>
+    <t>용암도(溶岩島)</t>
+  </si>
+  <si>
+    <t>밀라보레아스(ミラボレアス) 토벌 혹은 격퇴</t>
   </si>
   <si>
     <t>45000z</t>
@@ -1885,22 +1879,25 @@
     <t>獰猛な砕竜は、孤島で何を思う</t>
   </si>
   <si>
-    <t>孤島</t>
-  </si>
-  <si>
-    <t>ブラキディオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ブラキディオスの頭部破壊と尻尾切断</t>
+    <t>영맹한 쇄룡은, 고도에서 무엇을 생각하나</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>大地に踊る黄金</t>
   </si>
   <si>
-    <t>リオレイア希少種１頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレイア希少種の翼と背中破壊</t>
+    <t>대지에서 춤추는 황금</t>
+  </si>
+  <si>
+    <t>리오레이아 희소종(リオレイア希少種) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>리오레이아 희소종(リオレイア希少種)의 날개와 등 파괴</t>
   </si>
   <si>
     <t>3500z</t>
@@ -1912,7 +1909,7 @@
     <t>狩魂よ砂中に眠れ</t>
   </si>
   <si>
-    <t>砂漠</t>
+    <t>사냥꾼의 혼이여 모래속에 잠들어라</t>
   </si>
   <si>
     <t>4700z</t>
@@ -1924,43 +1921,46 @@
     <t>虚空に消え去りし者</t>
   </si>
   <si>
-    <t>森丘</t>
-  </si>
-  <si>
-    <t>オオナズチの討伐または撃退</t>
-  </si>
-  <si>
-    <t>オオナズチの角破壊と尻尾切断</t>
+    <t>허공에 사라져 없어진 자</t>
+  </si>
+  <si>
+    <t>오나즈치(オオナズチ) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>오나즈치(オオナズチ)의 뿔 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>雪に紛れしドスギアノス</t>
   </si>
   <si>
-    <t>氷海</t>
-  </si>
-  <si>
-    <t>ドスギアノス２頭の狩猟</t>
+    <t>눈속에 헤매이는 도스 기아노스</t>
+  </si>
+  <si>
+    <t>도스기아노스(ドスギアノス) 2마리 수렵</t>
   </si>
   <si>
     <t>天を廻りて、冥界に堕つ</t>
   </si>
   <si>
-    <t>ゴア・マガラ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ゴア・マガラの右翼脚破壊</t>
+    <t>하늘을 돌아, 명계에 내리다</t>
+  </si>
+  <si>
+    <t>고어・마가라(ゴア・マガラ)의 우측 날개 다리 파괴</t>
   </si>
   <si>
     <t>極天より来たる、崩せし神</t>
   </si>
   <si>
-    <t>極圏</t>
-  </si>
-  <si>
-    <t>ウカムルバスの討伐</t>
-  </si>
-  <si>
-    <t>ウカムルバスの顎と背中破壊</t>
+    <t>극천으로부터 온, 무너뜨린 신</t>
+  </si>
+  <si>
+    <t>극권(極圏)</t>
+  </si>
+  <si>
+    <t>우캄룸바스(ウカムルバス) 토벌</t>
+  </si>
+  <si>
+    <t>우캄룸바스(ウカムルバス)의 턱과 등 파괴</t>
   </si>
   <si>
     <t>34800z</t>
@@ -1969,7 +1969,10 @@
     <t>黒蝕竜は禍々しく猛る</t>
   </si>
   <si>
-    <t>ゴア・マガラの翼脚と翼破壊</t>
+    <t>흑식룡은 불길하게 날뛴다</t>
+  </si>
+  <si>
+    <t>고어・마가라(ゴア・マガラ)의 날개 다리와 날개 파괴</t>
   </si>
   <si>
     <t>2600z</t>
@@ -1981,6 +1984,9 @@
     <t>狩人達の究道</t>
   </si>
   <si>
+    <t>사냥꾼들의 구도</t>
+  </si>
+  <si>
     <t>7900z</t>
   </si>
   <si>
@@ -1990,19 +1996,25 @@
     <t>砂漠に散る爆炎の塵</t>
   </si>
   <si>
-    <t>テオ・テスカトルの討伐または撃退</t>
-  </si>
-  <si>
-    <t>テオ・テスカトルの頭部破壊と尻尾切断</t>
+    <t>사막에 흩어지는 폭염의 가루</t>
+  </si>
+  <si>
+    <t>테오・테스카토르(テオ・テスカトル) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>테오・테스카토르(テオ・テスカトル)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>天彗龍に目が眩む</t>
   </si>
   <si>
-    <t>バルファルクの討伐または撃退</t>
-  </si>
-  <si>
-    <t>バルファルクの尻尾切断</t>
+    <t>천혜룡에 눈이 멀다</t>
+  </si>
+  <si>
+    <t>발파르크(バルファルク) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>발파르크(バルファルク)의 꼬리 절단</t>
   </si>
   <si>
     <t>28200z</t>
@@ -2011,25 +2023,22 @@
     <t>角竜怒涛</t>
   </si>
   <si>
-    <t>旧砂漠</t>
-  </si>
-  <si>
-    <t>ディアブロス１頭の捕獲</t>
-  </si>
-  <si>
-    <t>ディアブロスの背中破壊</t>
+    <t>각룡노도</t>
+  </si>
+  <si>
+    <t>디아블로스(ディアブロス) 1마리 포획</t>
+  </si>
+  <si>
+    <t>디아블로스(ディアブロス)의 등 파괴</t>
   </si>
   <si>
     <t>犯人は黒狼鳥</t>
   </si>
   <si>
-    <t>古代林</t>
-  </si>
-  <si>
-    <t>イャンガルルガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>イャンガルルガの頭部と翼爪破壊</t>
+    <t>범인은 흑랑룡</t>
+  </si>
+  <si>
+    <t>얀가루루가(イャンガルルガ)의 머리와 날개 발톱 파괴</t>
   </si>
   <si>
     <t>19500z</t>
@@ -2038,22 +2047,22 @@
     <t>所により獰猛なセルレギオス</t>
   </si>
   <si>
-    <t>セルレギオス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>セルレギオスの角と翼破壊</t>
+    <t>장소에 따라 영맹한 셀레기오스</t>
+  </si>
+  <si>
+    <t>셀레기오스(セルレギオス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>셀레기오스(セルレギオス)의 뿔과 날개 파괴</t>
   </si>
   <si>
     <t>沼地の冒険</t>
   </si>
   <si>
-    <t>沼地</t>
-  </si>
-  <si>
-    <t>グラビモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>グラビモスの頭部と翼破壊</t>
+    <t>늪지의 모험</t>
+  </si>
+  <si>
+    <t>그라비모스(グラビモス)의 머리와 날개 파괴</t>
   </si>
   <si>
     <t>2500z</t>
@@ -2065,19 +2074,22 @@
     <t>財宝は爆炎の中に</t>
   </si>
   <si>
-    <t>テオ・テスカトルの頭部と翼爪破壊</t>
+    <t>재보는 폭염 속에</t>
+  </si>
+  <si>
+    <t>테오・테스카토르(テオ・テスカトル)의 머리와 양발톱 파괴</t>
   </si>
   <si>
     <t>夜空に浮かぶ銀の太陽</t>
   </si>
   <si>
-    <t>渓流</t>
-  </si>
-  <si>
-    <t>リオレウス希少種１頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウス希少種の頭部破壊と尻尾切断</t>
+    <t>밤하늘에 뜬 은의 태앙</t>
+  </si>
+  <si>
+    <t>리오레우스 희소종(リオレウス希少種) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>리오레우스 희소종(リオレウス希少種)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>41100z</t>
@@ -2086,15 +2098,18 @@
     <t>騎士と氷海の決闘</t>
   </si>
   <si>
-    <t>ベリオロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ベリオロスの頭部と棘破壊</t>
+    <t>기사와 빙해와 결전</t>
+  </si>
+  <si>
+    <t>베리오로스(ベリオロス)의 머리와 가시 파괴</t>
   </si>
   <si>
     <t>風薫る密林</t>
   </si>
   <si>
+    <t>훈풍의 밀림</t>
+  </si>
+  <si>
     <t>4000z</t>
   </si>
   <si>
@@ -2104,54 +2119,75 @@
     <t>轟竜の軌跡を追いかけて</t>
   </si>
   <si>
-    <t>ティガレックス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ティガレックスの爪破壊</t>
+    <t>굉룡의 궤적을 뒤쫓아</t>
+  </si>
+  <si>
+    <t>티가렉스(ティガレックス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>티가렉스(ティガレックス)의 발톱 파괴</t>
   </si>
   <si>
     <t>小山も陽気に誘われて</t>
   </si>
   <si>
-    <t>ドボルベルク１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ドボルベルクの尻尾破壊</t>
+    <t>작은 산도 좋은 날씨에 이끌려</t>
+  </si>
+  <si>
+    <t>도볼베르크(ドボルベルク) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>도볼베르크(ドボルベルク)의 꼬리 파괴</t>
   </si>
   <si>
     <t>鎧竜の背中破壊に挑戦！</t>
   </si>
   <si>
-    <t>グラビモスの背中破壊</t>
+    <t>개룡의 등 파괴에 도전!</t>
+  </si>
+  <si>
+    <t>그라비모스(グラビモス)의 등 파괴</t>
   </si>
   <si>
     <t>天を廻りしその果てに…</t>
   </si>
   <si>
-    <t>禁足地</t>
-  </si>
-  <si>
-    <t>シャガルマガラの討伐</t>
-  </si>
-  <si>
-    <t>シャガルマガラの角と翼脚破壊</t>
+    <t>하늘을 돈 그 말로에...</t>
+  </si>
+  <si>
+    <t>금족지(禁足地)</t>
+  </si>
+  <si>
+    <t>샤갈마가라(シャガルマガラ)の討伐</t>
+  </si>
+  <si>
+    <t>샤갈마가라(シャガルマガラ)의 뿔과 날개 다리 파괴</t>
   </si>
   <si>
     <t>死神は鎧をまとう</t>
   </si>
   <si>
-    <t>グラビモス１頭とネルスキュラ１匹の狩猟</t>
-  </si>
-  <si>
-    <t>乗りによるダウンを３回成功</t>
+    <t>사신은 갑옷을 두르다</t>
+  </si>
+  <si>
+    <t>그라비모스(グラビモス) 1마리와 네르스큐라(ネルスキュラ) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>단차에 의한 다운을３회 성공</t>
   </si>
   <si>
     <t>モンスターニャンターＸＸ</t>
   </si>
   <si>
+    <t>몬스터 냥타 XX</t>
+  </si>
+  <si>
     <t>古代林の陰謀</t>
   </si>
   <si>
+    <t>고대림의 음모</t>
+  </si>
+  <si>
     <t>5300z</t>
   </si>
   <si>
@@ -2161,22 +2197,28 @@
     <t>絆の証！孤島の大決戦</t>
   </si>
   <si>
+    <t>인연의 증거! 고도의 대결전</t>
+  </si>
+  <si>
     <t>31200z</t>
   </si>
   <si>
     <t>巨獣の進攻</t>
   </si>
   <si>
-    <t>ガムート１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ガムートの頭部と鼻破壊</t>
+    <t>거수의 진격</t>
+  </si>
+  <si>
+    <t>가무토(ガムート)의 머리와 코 파괴</t>
   </si>
   <si>
     <t>戈と槌は相容れず</t>
   </si>
   <si>
-    <t>アグナコトル１頭とドボルベルク１頭の狩猟</t>
+    <t>창과 망치는 서로 용납하지 않고</t>
+  </si>
+  <si>
+    <t>아그나코토루(アグナコトル) 1마리와 도볼베르크(ドボルベルク) 1마리 수렵</t>
   </si>
   <si>
     <t>30600z</t>
@@ -2185,10 +2227,13 @@
     <t>暴飲暴食ご用心</t>
   </si>
   <si>
-    <t>イビルジョー１頭の狩猟</t>
-  </si>
-  <si>
-    <t>イビルジョーの頭部破壊</t>
+    <t>폭음폭식에 주의</t>
+  </si>
+  <si>
+    <t>이빌죠(イビルジョー) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>이빌죠(イビルジョー)의 머리 파괴</t>
   </si>
   <si>
     <t>27000z</t>
@@ -2197,46 +2242,58 @@
     <t>戦慄の遺群嶺</t>
   </si>
   <si>
+    <t>전율의 유군령</t>
+  </si>
+  <si>
     <t>46200z</t>
   </si>
   <si>
     <t>徹甲虫と夫婦の絆</t>
   </si>
   <si>
-    <t>アルセルタス１匹の狩猟</t>
+    <t>철갑충과 부부의 인연</t>
   </si>
   <si>
     <t>森丘からの伝書</t>
   </si>
   <si>
+    <t>숲과언덕으로부터의 전서</t>
+  </si>
+  <si>
     <t>砂漠の死闘と挑戦</t>
   </si>
   <si>
-    <t>ディアブロス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ディアブロスの両角と背中破壊</t>
+    <t>사막의 사투와 도전</t>
+  </si>
+  <si>
+    <t>디아블로스(ディアブロス) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>디아블로스(ディアブロス)의 양뿔과 등 파괴</t>
   </si>
   <si>
     <t>獰猛な海の王者は武器の素</t>
   </si>
   <si>
-    <t>ラギアクルス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ラギアクルスの胸部破壊と尻尾切断</t>
+    <t>영맹한 바다의 왕은 무기의 소재</t>
+  </si>
+  <si>
+    <t>라기아크루스(ラギアクルス)의 가슴 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>天を貫く凶星</t>
   </si>
   <si>
+    <t>하늘을 꿰뚫는 흉성</t>
+  </si>
+  <si>
     <t>斬鉄の剣、不壊の鎧</t>
   </si>
   <si>
-    <t>ディノバルド１頭とグラビモス１頭の狩猟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">竜の大粒ナミダ１個の納品 </t>
+    <t>참철의 검, 불괴의 갑옷</t>
+  </si>
+  <si>
+    <t>디노발드(ディノバルド)１頭と그라비모스(グラビモス) 1마리 수렵</t>
   </si>
   <si>
     <t>29700z</t>
@@ -2245,193 +2302,259 @@
     <t>スーパーソニック</t>
   </si>
   <si>
-    <t>バルファルクの翼破壊</t>
+    <t>슈퍼 소닉</t>
+  </si>
+  <si>
+    <t>발파르크(バルファルク)의 날개 파괴</t>
   </si>
   <si>
     <t>金色に染まる</t>
   </si>
   <si>
-    <t>遺跡平原</t>
+    <t>금빛으로 물들다</t>
   </si>
   <si>
     <t>シャル・ウィ・ダンス？</t>
   </si>
   <si>
-    <t>タマミツネ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>タマミツネの頭部破壊と尻尾切断</t>
+    <t>쉘・위・댄스?</t>
+  </si>
+  <si>
+    <t>타마미츠네(タマミツネ)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>吹雪を呼ぶ者</t>
   </si>
   <si>
-    <t>クシャルダオラの討伐または撃退</t>
-  </si>
-  <si>
-    <t>クシャルダオラの頭部と翼破壊</t>
+    <t>눈보라를 부르는 자</t>
+  </si>
+  <si>
+    <t>쿠샬다오라(クシャルダオラ) 토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>쿠샬다오라(クシャルダオラ)의 머리와 날개 파괴</t>
   </si>
   <si>
     <t>孤島で遭遇！獰猛な雷狼竜</t>
   </si>
   <si>
-    <t>ジンオウガ１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ジンオウガの頭部と前脚破壊</t>
+    <t>고도에서 조우! 영맹한 뇌랑룡</t>
+  </si>
+  <si>
+    <t>진오우가(ジンオウガ)의 머리와 앞다리 파괴</t>
   </si>
   <si>
     <t>雪山からの救援要請</t>
   </si>
   <si>
-    <t>ラージャンの尻尾破壊</t>
+    <t>설산으로부터의 구원요청</t>
+  </si>
+  <si>
+    <t>라쟌(ラージャン)의 꼬리 파괴</t>
   </si>
   <si>
     <t>天を舞う白銀</t>
   </si>
   <si>
-    <t>リオレウス希少種の翼と背中破壊</t>
+    <t>하늘을 나는 백은</t>
+  </si>
+  <si>
+    <t>리오레우스 희소종(リオレウス希少種)의 날개와 등 파괴</t>
   </si>
   <si>
     <t>遺群嶺での攻防</t>
   </si>
   <si>
-    <t>イビルジョーの頭部破壊と尻尾切断</t>
+    <t>유군령에서의 공방</t>
+  </si>
+  <si>
+    <t>이빌죠(イビルジョー)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>狩人のための舞台～古代林～</t>
   </si>
   <si>
-    <t>リオレイア希少種の頭部破壊と尻尾切断</t>
+    <t>사냥꾼들을 위한 무대 ~고대림~</t>
+  </si>
+  <si>
+    <t>리오레이아 희소종(リオレイア希少種)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>呼び合う太陽と月</t>
   </si>
   <si>
+    <t>서로 부르는 태양과 달</t>
+  </si>
+  <si>
     <t>48000z</t>
   </si>
   <si>
     <t>砂上に見ゆるは猛き双角</t>
   </si>
   <si>
-    <t>ディアブロスの両角破壊</t>
+    <t>모래 위에 보이는것은 사나운 쌍각</t>
+  </si>
+  <si>
+    <t>디아블로스(ディアブロス)의 양뿔 파괴</t>
   </si>
   <si>
     <t>禍は鋼鉄よりも硬し</t>
   </si>
   <si>
-    <t>クシャルダオラの頭部破壊と尻尾切断</t>
+    <t>재앙은 강철보다도 단단하다</t>
+  </si>
+  <si>
+    <t>쿠샬다오라(クシャルダオラ)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>千刃は刀よりも鋭く</t>
   </si>
   <si>
-    <t>セルレギオスの角破壊</t>
+    <t>천인은 칼보다도 날카롭다</t>
+  </si>
+  <si>
+    <t>셀레기오스(セルレギオス)의 뿔 파괴</t>
   </si>
   <si>
     <t>焦電</t>
   </si>
   <si>
-    <t>ライゼクス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ライゼクスのトサカと翼爪破壊</t>
+    <t>초전</t>
+  </si>
+  <si>
+    <t>라이젝스(ライゼクス)의 볏과 날개 발톱 파괴</t>
   </si>
   <si>
     <t>イビルジョーの狩猟</t>
   </si>
   <si>
-    <t>イビルジョーの尻尾切断</t>
+    <t>이빌죠 수렵</t>
+  </si>
+  <si>
+    <t>이빌죠(イビルジョー)의 꼬리 절단</t>
   </si>
   <si>
     <t>起源にして、頂点</t>
   </si>
   <si>
-    <t>アカムトルムの討伐</t>
-  </si>
-  <si>
-    <t>アカムトルムの頭部と背中破壊</t>
+    <t>기원이자, 정점</t>
+  </si>
+  <si>
+    <t>아캄토룸(アカムトルム) 토벌</t>
+  </si>
+  <si>
+    <t>아캄토룸(アカムトルム)의 머리와 등 파괴</t>
   </si>
   <si>
     <t>全てを奪い去る嵐</t>
   </si>
   <si>
-    <t>霊峰</t>
-  </si>
-  <si>
-    <t>アマツマガツチの討伐</t>
-  </si>
-  <si>
-    <t>アマツマガツチの頭部と背中破壊</t>
+    <t>모든것을 앗아가는 폭풍</t>
+  </si>
+  <si>
+    <t>영봉(霊峰)</t>
+  </si>
+  <si>
+    <t>아마츠마가츠치(アマツマガツチ) 토벌</t>
+  </si>
+  <si>
+    <t>아마츠마가츠치(アマツマガツチ)의 머리와 등 파괴</t>
   </si>
   <si>
     <t>砂漠の死闘と未来</t>
   </si>
   <si>
+    <t>사막의 사투와 미래</t>
+  </si>
+  <si>
     <t>骸まとう龍</t>
   </si>
   <si>
-    <t>竜ノ墓場</t>
-  </si>
-  <si>
-    <t>オストガロアの討伐</t>
-  </si>
-  <si>
-    <t>オストガロアの左右噴出孔破壊</t>
+    <t>뼈를 두른 용</t>
+  </si>
+  <si>
+    <t>용의 무덤(竜ノ墓場)</t>
+  </si>
+  <si>
+    <t>오스트가로아(オストガロア) 토벌</t>
+  </si>
+  <si>
+    <t>오스트가로아(オストガロア)의 좌우 분출 구멍 파괴</t>
   </si>
   <si>
     <t>天彗龍流狩人道場</t>
   </si>
   <si>
-    <t>いにしえの龍秘宝１個の納品</t>
+    <t>천혜룡류 사냥꾼 도장</t>
+  </si>
+  <si>
+    <t>고대의 용비보(いにしえの龍秘宝) 1개 납품</t>
   </si>
   <si>
     <t>無心にて森羅万象を断つ</t>
   </si>
   <si>
-    <t>ディノバルド１頭の狩猟</t>
-  </si>
-  <si>
-    <t>ディノバルドの背中破壊と尻尾切断</t>
+    <t>무심으로 삼라만상을 자른다</t>
+  </si>
+  <si>
+    <t>디노발드(ディノバルド)의 등 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>轟々たる罠</t>
   </si>
   <si>
-    <t>ティガレックスの頭部破壊と尻尾切断</t>
+    <t>요란한 함정</t>
+  </si>
+  <si>
+    <t>티가렉스(ティガレックス)의 머리 파괴와 꼬리 절단</t>
   </si>
   <si>
     <t>光る粘菌のナゾを追え</t>
   </si>
   <si>
-    <t>ブラキディオス１頭の捕獲</t>
+    <t>빛나는 점균의 수수께끼를 쫓아</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス) 1마리 포획</t>
   </si>
   <si>
     <t>この先、千刃竜以外立入禁止</t>
   </si>
   <si>
-    <t>セルレギオスの脚破壊</t>
+    <t>이 앞, 천인룡 이외 출입 금지</t>
+  </si>
+  <si>
+    <t>셀레기오스(セルレギオス)의 다리 파괴</t>
   </si>
   <si>
     <t>海竜の頭部破壊に挑戦！</t>
   </si>
   <si>
-    <t>ラギアクルスの頭部破壊</t>
+    <t>해룡의 머리 파괴에 도전!</t>
   </si>
   <si>
     <t>虚空より現われし者</t>
   </si>
   <si>
-    <t>オオナズチの角と翼破壊</t>
+    <t>허공으로부터 나타난 자</t>
+  </si>
+  <si>
+    <t>오나즈치(オオナズチ)の토벌 혹은 격퇴</t>
+  </si>
+  <si>
+    <t>오나즈치(オオナズチ)의 뿔과 날개 파괴</t>
   </si>
   <si>
     <t>溶岩島で爆ぜる砕光</t>
   </si>
   <si>
-    <t>ブラキディオスの討伐</t>
-  </si>
-  <si>
-    <t>ブラキディオスの頭部破壊</t>
+    <t>용암도에서 터지는 쇄광</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス) 토벌</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス)의 머리 파괴</t>
   </si>
   <si>
     <t>3400z</t>
@@ -2443,49 +2566,64 @@
     <t>原生林にて呻くは渾沌の竜</t>
   </si>
   <si>
-    <t>ゴア・マガラの左翼脚破壊</t>
+    <t>원시림에서 신음하는 혼돈의 용</t>
+  </si>
+  <si>
+    <t>고어・마가라(ゴア・マガラ)의 좌측 날개 다리 파괴</t>
   </si>
   <si>
     <t>火山のすばらしい岩</t>
   </si>
   <si>
-    <t>リオレウス１頭の狩猟</t>
-  </si>
-  <si>
-    <t>リオレウスの頭部と翼破壊</t>
+    <t>화산의 굉장한 바위</t>
+  </si>
+  <si>
+    <t>리오레우스(リオレウス)의 머리와 날개 파괴</t>
   </si>
   <si>
     <t>マグマまといし竜</t>
   </si>
   <si>
-    <t>アグナコトル１頭の狩猟</t>
-  </si>
-  <si>
-    <t>アグナコトルの胸部破壊</t>
+    <t>마그마를 두른 용</t>
+  </si>
+  <si>
+    <t>아그나코토루(アグナコトル) 1마리 수렵</t>
+  </si>
+  <si>
+    <t>아그나코토루(アグナコトル)의 가슴 파괴</t>
   </si>
   <si>
     <t>天地が焔に染まるとき</t>
   </si>
   <si>
-    <t>リオレウス１頭とリオレイア１頭の狩猟</t>
+    <t>천지가 불꽃에 물드는 때</t>
   </si>
   <si>
     <t>氷海を爆走、暴走轟竜！</t>
   </si>
   <si>
-    <t>ティガレックスの頭部破壊</t>
+    <t>빙해를 폭주, 폭주굉룡!</t>
+  </si>
+  <si>
+    <t>티가렉스(ティガレックス)의 머리 파괴</t>
   </si>
   <si>
     <t>炎戈竜は地底で吠える</t>
   </si>
   <si>
-    <t>アグナコトルの頭部と胸部破壊</t>
+    <t>염과룡은 지저에서 울부짖는다</t>
+  </si>
+  <si>
+    <t>아그나코토루(アグナコトル)의 머리와 가슴 파괴</t>
   </si>
   <si>
     <t>絆の証！闘技場の大決戦</t>
   </si>
   <si>
-    <t>乗りによるダウンを５回成功</t>
+    <t>인연의 증거! 투기장의 대결전</t>
+  </si>
+  <si>
+    <t>단차에 의한 다운을５회 성공</t>
   </si>
   <si>
     <t>57000z</t>
@@ -2494,49 +2632,70 @@
     <t>火山の脅威・ブラキディオス</t>
   </si>
   <si>
-    <t>ブラキディオスの前脚破壊</t>
+    <t>화산의 위협・브라키디오스</t>
+  </si>
+  <si>
+    <t>브라키디오스(ブラキディオス)의 앞다리 파괴</t>
   </si>
   <si>
     <t>我怒る、ゆえに我在り</t>
   </si>
   <si>
-    <t>ラージャンの角と尻尾破壊</t>
+    <t>나는 분노한다, 고로 나는 존재한다</t>
+  </si>
+  <si>
+    <t>라쟌(ラージャン)의 뿔과 꼬리 파괴</t>
   </si>
   <si>
     <t>神への抵抗</t>
   </si>
   <si>
-    <t>アルバトリオンの討伐</t>
-  </si>
-  <si>
-    <t>アルバトリオンの角と翼破壊</t>
+    <t>신을 향한 저항</t>
+  </si>
+  <si>
+    <t>알바트리온(アルバトリオン) 토벌</t>
+  </si>
+  <si>
+    <t>알바트리온(アルバトリオン)의 뿔과 날개 파괴</t>
   </si>
   <si>
     <t>領主の懇願～尾槌竜篇～</t>
   </si>
   <si>
-    <t>ドボルベルクの角と尻尾破壊</t>
+    <t>영주의 간원 ~미추룡편~</t>
+  </si>
+  <si>
+    <t>도볼베르크(ドボルベルク)의 뿔과 꼬리 파괴</t>
   </si>
   <si>
     <t>蠢く墟城</t>
   </si>
   <si>
-    <t>旧砦跡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">アトラル・カの討伐 </t>
+    <t>꿈틀거리는 허성</t>
+  </si>
+  <si>
+    <t>구채적(旧砦跡)</t>
+  </si>
+  <si>
+    <t>아트랄・카(アトラル・カ) 토벌 </t>
   </si>
   <si>
     <t>伝説の黒龍</t>
   </si>
   <si>
-    <t>シュレイド城</t>
+    <t>전설의 흑룡</t>
+  </si>
+  <si>
+    <t>슈레이드성(シュレイド城)</t>
   </si>
   <si>
     <t>祖龍</t>
   </si>
   <si>
-    <t>ミラルーツの討伐または撃退</t>
+    <t>조룡</t>
+  </si>
+  <si>
+    <t>밀라루츠(ミラルーツ) 토벌 혹은 격퇴</t>
   </si>
 </sst>
 </file>
@@ -2915,8 +3074,8 @@
   <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <pane ySplit="1" topLeftCell="B200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7511,26 +7670,29 @@
       <c r="A146" t="s">
         <v>580</v>
       </c>
+      <c r="B146" t="s">
+        <v>581</v>
+      </c>
       <c r="C146" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D146" t="s">
-        <v>582</v>
+        <v>119</v>
       </c>
       <c r="E146" t="s">
         <v>14</v>
       </c>
       <c r="F146" t="s">
+        <v>297</v>
+      </c>
+      <c r="G146" t="s">
         <v>583</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>584</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>585</v>
-      </c>
-      <c r="I146" t="s">
-        <v>586</v>
       </c>
       <c r="J146" t="s">
         <v>51</v>
@@ -7538,28 +7700,31 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" t="s">
+        <v>586</v>
+      </c>
+      <c r="B147" t="s">
         <v>587</v>
       </c>
       <c r="C147" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D147" t="s">
+        <v>45</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" t="s">
         <v>588</v>
-      </c>
-      <c r="E147" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" t="s">
-        <v>589</v>
       </c>
       <c r="G147" t="s">
         <v>16</v>
       </c>
       <c r="H147" t="s">
+        <v>589</v>
+      </c>
+      <c r="I147" t="s">
         <v>590</v>
-      </c>
-      <c r="I147" t="s">
-        <v>591</v>
       </c>
       <c r="J147" t="s">
         <v>23</v>
@@ -7567,51 +7732,57 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" t="s">
+        <v>591</v>
+      </c>
+      <c r="B148" t="s">
         <v>592</v>
       </c>
       <c r="C148" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D148" t="s">
+        <v>296</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
         <v>593</v>
       </c>
-      <c r="E148" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>594</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>595</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>596</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>597</v>
-      </c>
-      <c r="J148" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" t="s">
+        <v>598</v>
+      </c>
+      <c r="B149" t="s">
         <v>599</v>
       </c>
       <c r="C149" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" t="s">
+        <v>447</v>
+      </c>
+      <c r="G149" t="s">
         <v>600</v>
-      </c>
-      <c r="E149" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" t="s">
-        <v>601</v>
-      </c>
-      <c r="G149" t="s">
-        <v>602</v>
       </c>
       <c r="H149" t="s">
         <v>406</v>
@@ -7625,28 +7796,31 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" t="s">
+        <v>601</v>
+      </c>
+      <c r="B150" t="s">
+        <v>602</v>
+      </c>
+      <c r="C150" t="s">
+        <v>582</v>
+      </c>
+      <c r="D150" t="s">
+        <v>366</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" t="s">
+        <v>367</v>
+      </c>
+      <c r="G150" t="s">
         <v>603</v>
-      </c>
-      <c r="C150" t="s">
-        <v>581</v>
-      </c>
-      <c r="D150" t="s">
-        <v>604</v>
-      </c>
-      <c r="E150" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" t="s">
-        <v>605</v>
-      </c>
-      <c r="G150" t="s">
-        <v>606</v>
       </c>
       <c r="H150" t="s">
         <v>69</v>
       </c>
       <c r="I150" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J150" t="s">
         <v>227</v>
@@ -7654,28 +7828,31 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" t="s">
+        <v>605</v>
+      </c>
+      <c r="B151" t="s">
+        <v>606</v>
+      </c>
+      <c r="C151" t="s">
+        <v>582</v>
+      </c>
+      <c r="D151" t="s">
+        <v>158</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" t="s">
+        <v>297</v>
+      </c>
+      <c r="G151" t="s">
+        <v>361</v>
+      </c>
+      <c r="H151" t="s">
+        <v>607</v>
+      </c>
+      <c r="I151" t="s">
         <v>608</v>
-      </c>
-      <c r="C151" t="s">
-        <v>581</v>
-      </c>
-      <c r="D151" t="s">
-        <v>609</v>
-      </c>
-      <c r="E151" t="s">
-        <v>14</v>
-      </c>
-      <c r="F151" t="s">
-        <v>583</v>
-      </c>
-      <c r="G151" t="s">
-        <v>584</v>
-      </c>
-      <c r="H151" t="s">
-        <v>610</v>
-      </c>
-      <c r="I151" t="s">
-        <v>611</v>
       </c>
       <c r="J151" t="s">
         <v>51</v>
@@ -7683,28 +7860,31 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" t="s">
+        <v>609</v>
+      </c>
+      <c r="B152" t="s">
+        <v>610</v>
+      </c>
+      <c r="C152" t="s">
+        <v>582</v>
+      </c>
+      <c r="D152" t="s">
+        <v>175</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" t="s">
+        <v>611</v>
+      </c>
+      <c r="G152" t="s">
         <v>612</v>
-      </c>
-      <c r="C152" t="s">
-        <v>581</v>
-      </c>
-      <c r="D152" t="s">
-        <v>613</v>
-      </c>
-      <c r="E152" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" t="s">
-        <v>614</v>
-      </c>
-      <c r="G152" t="s">
-        <v>615</v>
       </c>
       <c r="H152" t="s">
         <v>116</v>
       </c>
       <c r="I152" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J152" t="s">
         <v>227</v>
@@ -7712,28 +7892,31 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" t="s">
-        <v>617</v>
+        <v>614</v>
+      </c>
+      <c r="B153" t="s">
+        <v>615</v>
       </c>
       <c r="C153" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D153" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E153" t="s">
         <v>570</v>
       </c>
       <c r="F153" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G153" t="s">
         <v>16</v>
       </c>
       <c r="H153" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I153" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J153" t="s">
         <v>23</v>
@@ -7741,22 +7924,25 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" t="s">
+        <v>619</v>
+      </c>
+      <c r="B154" t="s">
+        <v>620</v>
+      </c>
+      <c r="C154" t="s">
+        <v>582</v>
+      </c>
+      <c r="D154" t="s">
+        <v>236</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
         <v>621</v>
       </c>
-      <c r="C154" t="s">
-        <v>581</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="G154" t="s">
         <v>622</v>
-      </c>
-      <c r="E154" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" t="s">
-        <v>623</v>
-      </c>
-      <c r="G154" t="s">
-        <v>624</v>
       </c>
       <c r="H154" t="s">
         <v>478</v>
@@ -7770,57 +7956,63 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" t="s">
+        <v>623</v>
+      </c>
+      <c r="B155" t="s">
+        <v>624</v>
+      </c>
+      <c r="C155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D155" t="s">
+        <v>175</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s">
         <v>625</v>
       </c>
-      <c r="C155" t="s">
-        <v>581</v>
-      </c>
-      <c r="D155" t="s">
-        <v>613</v>
-      </c>
-      <c r="E155" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>626</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>627</v>
       </c>
-      <c r="H155" t="s">
+      <c r="I155" t="s">
         <v>628</v>
       </c>
-      <c r="I155" t="s">
-        <v>629</v>
-      </c>
       <c r="J155" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" t="s">
+        <v>629</v>
+      </c>
+      <c r="B156" t="s">
         <v>630</v>
       </c>
       <c r="C156" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" t="s">
+        <v>297</v>
+      </c>
+      <c r="G156" t="s">
+        <v>361</v>
+      </c>
+      <c r="H156" t="s">
         <v>631</v>
       </c>
-      <c r="E156" t="s">
-        <v>14</v>
-      </c>
-      <c r="F156" t="s">
-        <v>583</v>
-      </c>
-      <c r="G156" t="s">
-        <v>584</v>
-      </c>
-      <c r="H156" t="s">
+      <c r="I156" t="s">
         <v>632</v>
-      </c>
-      <c r="I156" t="s">
-        <v>633</v>
       </c>
       <c r="J156" t="s">
         <v>51</v>
@@ -7828,28 +8020,31 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" t="s">
+        <v>633</v>
+      </c>
+      <c r="B157" t="s">
         <v>634</v>
       </c>
       <c r="C157" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D157" t="s">
-        <v>635</v>
+        <v>55</v>
       </c>
       <c r="E157" t="s">
         <v>570</v>
       </c>
       <c r="F157" t="s">
+        <v>635</v>
+      </c>
+      <c r="G157" t="s">
         <v>636</v>
-      </c>
-      <c r="G157" t="s">
-        <v>637</v>
       </c>
       <c r="H157" t="s">
         <v>116</v>
       </c>
       <c r="I157" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J157" t="s">
         <v>51</v>
@@ -7857,19 +8052,22 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" t="s">
+        <v>637</v>
+      </c>
+      <c r="B158" t="s">
         <v>638</v>
       </c>
       <c r="C158" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D158" t="s">
+        <v>170</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" t="s">
         <v>639</v>
-      </c>
-      <c r="E158" t="s">
-        <v>14</v>
-      </c>
-      <c r="F158" t="s">
-        <v>640</v>
       </c>
       <c r="G158" t="s">
         <v>16</v>
@@ -7886,22 +8084,25 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" t="s">
+        <v>640</v>
+      </c>
+      <c r="B159" t="s">
         <v>641</v>
       </c>
       <c r="C159" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D159" t="s">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
       </c>
       <c r="F159" t="s">
+        <v>473</v>
+      </c>
+      <c r="G159" t="s">
         <v>642</v>
-      </c>
-      <c r="G159" t="s">
-        <v>643</v>
       </c>
       <c r="H159" t="s">
         <v>362</v>
@@ -7915,10 +8116,13 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" t="s">
+        <v>643</v>
+      </c>
+      <c r="B160" t="s">
         <v>644</v>
       </c>
       <c r="C160" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D160" t="s">
         <v>645</v>
@@ -7933,7 +8137,7 @@
         <v>647</v>
       </c>
       <c r="H160" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I160" t="s">
         <v>648</v>
@@ -7946,26 +8150,29 @@
       <c r="A161" t="s">
         <v>649</v>
       </c>
+      <c r="B161" t="s">
+        <v>650</v>
+      </c>
       <c r="C161" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D161" t="s">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
       </c>
       <c r="F161" t="s">
-        <v>642</v>
+        <v>473</v>
       </c>
       <c r="G161" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H161" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I161" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="J161" t="s">
         <v>227</v>
@@ -7973,28 +8180,31 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" t="s">
-        <v>653</v>
+        <v>654</v>
+      </c>
+      <c r="B162" t="s">
+        <v>655</v>
       </c>
       <c r="C162" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D162" t="s">
-        <v>593</v>
+        <v>296</v>
       </c>
       <c r="E162" t="s">
         <v>14</v>
       </c>
       <c r="F162" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="G162" t="s">
         <v>16</v>
       </c>
       <c r="H162" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="I162" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J162" t="s">
         <v>23</v>
@@ -8002,28 +8212,31 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" t="s">
-        <v>656</v>
+        <v>658</v>
+      </c>
+      <c r="B163" t="s">
+        <v>659</v>
       </c>
       <c r="C163" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D163" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="E163" t="s">
         <v>570</v>
       </c>
       <c r="F163" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="G163" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="H163" t="s">
         <v>116</v>
       </c>
       <c r="I163" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J163" t="s">
         <v>51</v>
@@ -8031,48 +8244,54 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" t="s">
-        <v>659</v>
+        <v>662</v>
+      </c>
+      <c r="B164" t="s">
+        <v>663</v>
       </c>
       <c r="C164" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D164" t="s">
-        <v>582</v>
+        <v>119</v>
       </c>
       <c r="E164" t="s">
         <v>14</v>
       </c>
       <c r="F164" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G164" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="I164" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J164" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="165" spans="1:10">
       <c r="A165" t="s">
-        <v>663</v>
+        <v>667</v>
+      </c>
+      <c r="B165" t="s">
+        <v>668</v>
       </c>
       <c r="C165" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D165" t="s">
-        <v>664</v>
+        <v>42</v>
       </c>
       <c r="E165" t="s">
         <v>14</v>
       </c>
       <c r="F165" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="G165" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="H165" t="s">
         <v>478</v>
@@ -8081,33 +8300,36 @@
         <v>479</v>
       </c>
       <c r="J165" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166" t="s">
-        <v>667</v>
+        <v>671</v>
+      </c>
+      <c r="B166" t="s">
+        <v>672</v>
       </c>
       <c r="C166" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D166" t="s">
-        <v>668</v>
+        <v>64</v>
       </c>
       <c r="E166" t="s">
         <v>14</v>
       </c>
       <c r="F166" t="s">
-        <v>669</v>
+        <v>499</v>
       </c>
       <c r="G166" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H166" t="s">
         <v>299</v>
       </c>
       <c r="I166" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="J166" t="s">
         <v>227</v>
@@ -8115,22 +8337,25 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" t="s">
-        <v>672</v>
+        <v>675</v>
+      </c>
+      <c r="B167" t="s">
+        <v>676</v>
       </c>
       <c r="C167" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D167" t="s">
-        <v>664</v>
+        <v>42</v>
       </c>
       <c r="E167" t="s">
         <v>14</v>
       </c>
       <c r="F167" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="G167" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H167" t="s">
         <v>478</v>
@@ -8144,28 +8369,31 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" t="s">
-        <v>675</v>
+        <v>679</v>
+      </c>
+      <c r="B168" t="s">
+        <v>680</v>
       </c>
       <c r="C168" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D168" t="s">
-        <v>676</v>
+        <v>164</v>
       </c>
       <c r="E168" t="s">
         <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>677</v>
+        <v>578</v>
       </c>
       <c r="G168" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H168" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I168" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="J168" t="s">
         <v>227</v>
@@ -8173,25 +8401,28 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" t="s">
-        <v>681</v>
+        <v>684</v>
+      </c>
+      <c r="B169" t="s">
+        <v>685</v>
       </c>
       <c r="C169" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D169" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="G169" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="I169" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J169" t="s">
         <v>51</v>
@@ -8199,28 +8430,31 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" t="s">
-        <v>683</v>
+        <v>687</v>
+      </c>
+      <c r="B170" t="s">
+        <v>688</v>
       </c>
       <c r="C170" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D170" t="s">
-        <v>684</v>
+        <v>72</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="G170" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="H170" t="s">
         <v>161</v>
       </c>
       <c r="I170" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="J170" t="s">
         <v>227</v>
@@ -8228,22 +8462,25 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" t="s">
-        <v>688</v>
+        <v>692</v>
+      </c>
+      <c r="B171" t="s">
+        <v>693</v>
       </c>
       <c r="C171" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D171" t="s">
-        <v>639</v>
+        <v>170</v>
       </c>
       <c r="E171" t="s">
         <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>689</v>
+        <v>487</v>
       </c>
       <c r="G171" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H171" t="s">
         <v>406</v>
@@ -8257,28 +8494,31 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" t="s">
-        <v>691</v>
+        <v>695</v>
+      </c>
+      <c r="B172" t="s">
+        <v>696</v>
       </c>
       <c r="C172" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D172" t="s">
-        <v>613</v>
+        <v>175</v>
       </c>
       <c r="E172" t="s">
         <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="G172" t="s">
-        <v>584</v>
+        <v>361</v>
       </c>
       <c r="H172" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="I172" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="J172" t="s">
         <v>51</v>
@@ -8286,22 +8526,25 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" t="s">
-        <v>694</v>
+        <v>699</v>
+      </c>
+      <c r="B173" t="s">
+        <v>700</v>
       </c>
       <c r="C173" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D173" t="s">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="G173" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="H173" t="s">
         <v>406</v>
@@ -8310,27 +8553,30 @@
         <v>407</v>
       </c>
       <c r="J173" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174" t="s">
-        <v>697</v>
+        <v>703</v>
+      </c>
+      <c r="B174" t="s">
+        <v>704</v>
       </c>
       <c r="C174" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D174" t="s">
-        <v>684</v>
+        <v>72</v>
       </c>
       <c r="E174" t="s">
         <v>14</v>
       </c>
       <c r="F174" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="G174" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="H174" t="s">
         <v>406</v>
@@ -8339,24 +8585,27 @@
         <v>407</v>
       </c>
       <c r="J174" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175" t="s">
-        <v>700</v>
+        <v>707</v>
+      </c>
+      <c r="B175" t="s">
+        <v>708</v>
       </c>
       <c r="C175" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D175" t="s">
-        <v>604</v>
+        <v>366</v>
       </c>
       <c r="E175" t="s">
         <v>14</v>
       </c>
       <c r="F175" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="G175" t="s">
         <v>16</v>
@@ -8373,51 +8622,57 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" t="s">
-        <v>702</v>
+        <v>710</v>
+      </c>
+      <c r="B176" t="s">
+        <v>711</v>
       </c>
       <c r="C176" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D176" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="E176" t="s">
         <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="G176" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="H176" t="s">
         <v>439</v>
       </c>
       <c r="I176" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J176" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="177" spans="1:10">
       <c r="A177" t="s">
-        <v>706</v>
+        <v>715</v>
+      </c>
+      <c r="B177" t="s">
+        <v>716</v>
       </c>
       <c r="C177" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D177" t="s">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
       </c>
       <c r="F177" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="G177" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="H177" t="s">
         <v>439</v>
@@ -8431,19 +8686,22 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" t="s">
-        <v>709</v>
+        <v>719</v>
+      </c>
+      <c r="B178" t="s">
+        <v>720</v>
       </c>
       <c r="C178" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D178" t="s">
-        <v>593</v>
+        <v>296</v>
       </c>
       <c r="E178" t="s">
         <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="G178" t="s">
         <v>16</v>
@@ -8460,28 +8718,31 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" t="s">
-        <v>710</v>
+        <v>721</v>
+      </c>
+      <c r="B179" t="s">
+        <v>722</v>
       </c>
       <c r="C179" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D179" t="s">
-        <v>668</v>
+        <v>64</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="G179" t="s">
-        <v>584</v>
+        <v>361</v>
       </c>
       <c r="H179" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="I179" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="J179" t="s">
         <v>51</v>
@@ -8489,28 +8750,31 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" t="s">
-        <v>713</v>
+        <v>725</v>
+      </c>
+      <c r="B180" t="s">
+        <v>726</v>
       </c>
       <c r="C180" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D180" t="s">
-        <v>622</v>
+        <v>236</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
       </c>
       <c r="F180" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="G180" t="s">
-        <v>584</v>
+        <v>361</v>
       </c>
       <c r="H180" t="s">
         <v>362</v>
       </c>
       <c r="I180" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="J180" t="s">
         <v>51</v>
@@ -8518,22 +8782,25 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" t="s">
-        <v>715</v>
+        <v>728</v>
+      </c>
+      <c r="B181" t="s">
+        <v>729</v>
       </c>
       <c r="C181" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D181" t="s">
-        <v>639</v>
+        <v>170</v>
       </c>
       <c r="E181" t="s">
         <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>716</v>
+        <v>373</v>
       </c>
       <c r="G181" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="H181" t="s">
         <v>81</v>
@@ -8547,86 +8814,95 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" t="s">
-        <v>718</v>
+        <v>731</v>
+      </c>
+      <c r="B182" t="s">
+        <v>732</v>
       </c>
       <c r="C182" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D182" t="s">
-        <v>593</v>
+        <v>296</v>
       </c>
       <c r="E182" t="s">
         <v>14</v>
       </c>
       <c r="F182" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="G182" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H182" t="s">
         <v>469</v>
       </c>
       <c r="I182" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="J182" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183" t="s">
-        <v>721</v>
+        <v>735</v>
+      </c>
+      <c r="B183" t="s">
+        <v>736</v>
       </c>
       <c r="C183" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D183" t="s">
-        <v>676</v>
+        <v>164</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
       </c>
       <c r="F183" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="G183" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="H183" t="s">
         <v>81</v>
       </c>
       <c r="I183" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="J183" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184" t="s">
-        <v>725</v>
+        <v>740</v>
+      </c>
+      <c r="B184" t="s">
+        <v>741</v>
       </c>
       <c r="C184" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D184" t="s">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="E184" t="s">
         <v>14</v>
       </c>
       <c r="F184" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="G184" t="s">
-        <v>584</v>
+        <v>361</v>
       </c>
       <c r="H184" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I184" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="J184" t="s">
         <v>51</v>
@@ -8634,19 +8910,22 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" t="s">
-        <v>727</v>
+        <v>743</v>
+      </c>
+      <c r="B185" t="s">
+        <v>744</v>
       </c>
       <c r="C185" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D185" t="s">
-        <v>668</v>
+        <v>64</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
       </c>
       <c r="F185" t="s">
-        <v>728</v>
+        <v>405</v>
       </c>
       <c r="G185" t="s">
         <v>16</v>
@@ -8663,28 +8942,31 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" t="s">
-        <v>729</v>
+        <v>745</v>
+      </c>
+      <c r="B186" t="s">
+        <v>746</v>
       </c>
       <c r="C186" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D186" t="s">
-        <v>635</v>
+        <v>55</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
       </c>
       <c r="F186" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="G186" t="s">
-        <v>584</v>
+        <v>361</v>
       </c>
       <c r="H186" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I186" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="J186" t="s">
         <v>51</v>
@@ -8692,22 +8974,25 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" t="s">
-        <v>730</v>
+        <v>747</v>
+      </c>
+      <c r="B187" t="s">
+        <v>748</v>
       </c>
       <c r="C187" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D187" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="G187" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
       <c r="H187" t="s">
         <v>478</v>
@@ -8721,22 +9006,25 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" t="s">
-        <v>733</v>
+        <v>751</v>
+      </c>
+      <c r="B188" t="s">
+        <v>752</v>
       </c>
       <c r="C188" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D188" t="s">
-        <v>613</v>
+        <v>175</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
       </c>
       <c r="F188" t="s">
-        <v>734</v>
+        <v>460</v>
       </c>
       <c r="G188" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
       <c r="H188" t="s">
         <v>406</v>
@@ -8750,19 +9038,22 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" t="s">
-        <v>736</v>
+        <v>754</v>
+      </c>
+      <c r="B189" t="s">
+        <v>755</v>
       </c>
       <c r="C189" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D189" t="s">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="E189" t="s">
         <v>570</v>
       </c>
       <c r="F189" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
@@ -8771,7 +9062,7 @@
         <v>439</v>
       </c>
       <c r="I189" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J189" t="s">
         <v>23</v>
@@ -8779,28 +9070,31 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" t="s">
-        <v>737</v>
+        <v>756</v>
+      </c>
+      <c r="B190" t="s">
+        <v>757</v>
       </c>
       <c r="C190" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D190" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
       <c r="E190" t="s">
         <v>14</v>
       </c>
       <c r="F190" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="G190" t="s">
-        <v>739</v>
+        <v>305</v>
       </c>
       <c r="H190" t="s">
         <v>32</v>
       </c>
       <c r="I190" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="J190" t="s">
         <v>81</v>
@@ -8808,77 +9102,86 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" t="s">
-        <v>741</v>
+        <v>760</v>
+      </c>
+      <c r="B191" t="s">
+        <v>761</v>
       </c>
       <c r="C191" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D191" t="s">
-        <v>613</v>
+        <v>175</v>
       </c>
       <c r="E191" t="s">
         <v>570</v>
       </c>
       <c r="F191" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G191" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="I191" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J191" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" t="s">
-        <v>743</v>
+        <v>763</v>
+      </c>
+      <c r="B192" t="s">
+        <v>764</v>
       </c>
       <c r="C192" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D192" t="s">
-        <v>744</v>
+        <v>27</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
       </c>
       <c r="F192" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G192" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H192" t="s">
         <v>81</v>
       </c>
       <c r="I192" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="J192" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" t="s">
-        <v>745</v>
+        <v>765</v>
+      </c>
+      <c r="B193" t="s">
+        <v>766</v>
       </c>
       <c r="C193" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D193" t="s">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>746</v>
+        <v>388</v>
       </c>
       <c r="G193" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="H193" t="s">
         <v>81</v>
@@ -8892,25 +9195,28 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" t="s">
-        <v>748</v>
+        <v>768</v>
+      </c>
+      <c r="B194" t="s">
+        <v>769</v>
       </c>
       <c r="C194" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D194" t="s">
-        <v>582</v>
+        <v>119</v>
       </c>
       <c r="E194" t="s">
         <v>14</v>
       </c>
       <c r="F194" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
       <c r="G194" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="I194" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J194" t="s">
         <v>51</v>
@@ -8918,28 +9224,31 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" t="s">
-        <v>751</v>
+        <v>772</v>
+      </c>
+      <c r="B195" t="s">
+        <v>773</v>
       </c>
       <c r="C195" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D195" t="s">
-        <v>622</v>
+        <v>236</v>
       </c>
       <c r="E195" t="s">
         <v>14</v>
       </c>
       <c r="F195" t="s">
-        <v>752</v>
+        <v>491</v>
       </c>
       <c r="G195" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="H195" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I195" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="J195" t="s">
         <v>227</v>
@@ -8947,86 +9256,95 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" t="s">
-        <v>754</v>
+        <v>775</v>
+      </c>
+      <c r="B196" t="s">
+        <v>776</v>
       </c>
       <c r="C196" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D196" t="s">
-        <v>582</v>
+        <v>119</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
       </c>
       <c r="F196" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G196" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="H196" t="s">
         <v>81</v>
       </c>
       <c r="I196" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="J196" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="197" spans="1:10">
       <c r="A197" t="s">
-        <v>756</v>
+        <v>778</v>
+      </c>
+      <c r="B197" t="s">
+        <v>779</v>
       </c>
       <c r="C197" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D197" t="s">
-        <v>635</v>
+        <v>55</v>
       </c>
       <c r="E197" t="s">
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="G197" t="s">
-        <v>757</v>
+        <v>780</v>
       </c>
       <c r="H197" t="s">
+        <v>627</v>
+      </c>
+      <c r="I197" t="s">
         <v>628</v>
       </c>
-      <c r="I197" t="s">
-        <v>629</v>
-      </c>
       <c r="J197" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198" t="s">
-        <v>758</v>
+        <v>781</v>
+      </c>
+      <c r="B198" t="s">
+        <v>782</v>
       </c>
       <c r="C198" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D198" t="s">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="E198" t="s">
         <v>14</v>
       </c>
       <c r="F198" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="G198" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="H198" t="s">
         <v>116</v>
       </c>
       <c r="I198" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J198" t="s">
         <v>227</v>
@@ -9034,28 +9352,31 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" t="s">
-        <v>760</v>
+        <v>784</v>
+      </c>
+      <c r="B199" t="s">
+        <v>785</v>
       </c>
       <c r="C199" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D199" t="s">
-        <v>668</v>
+        <v>64</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
       </c>
       <c r="F199" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G199" t="s">
-        <v>761</v>
+        <v>786</v>
       </c>
       <c r="H199" t="s">
         <v>161</v>
       </c>
       <c r="I199" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="J199" t="s">
         <v>227</v>
@@ -9063,51 +9384,57 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" t="s">
-        <v>762</v>
+        <v>787</v>
+      </c>
+      <c r="B200" t="s">
+        <v>788</v>
       </c>
       <c r="C200" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D200" t="s">
+        <v>45</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" t="s">
         <v>588</v>
       </c>
-      <c r="E200" t="s">
-        <v>14</v>
-      </c>
-      <c r="F200" t="s">
-        <v>589</v>
-      </c>
       <c r="G200" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="H200" t="s">
         <v>227</v>
       </c>
       <c r="I200" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="J200" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="201" spans="1:10">
       <c r="A201" t="s">
-        <v>764</v>
+        <v>790</v>
+      </c>
+      <c r="B201" t="s">
+        <v>791</v>
       </c>
       <c r="C201" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D201" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="E201" t="s">
         <v>14</v>
       </c>
       <c r="F201" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
       <c r="G201" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="H201" t="s">
         <v>406</v>
@@ -9116,30 +9443,33 @@
         <v>407</v>
       </c>
       <c r="J201" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202" t="s">
-        <v>766</v>
+        <v>793</v>
+      </c>
+      <c r="B202" t="s">
+        <v>794</v>
       </c>
       <c r="C202" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D202" t="s">
+        <v>175</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" t="s">
+        <v>770</v>
+      </c>
+      <c r="G202" t="s">
+        <v>795</v>
+      </c>
+      <c r="I202" t="s">
         <v>613</v>
-      </c>
-      <c r="E202" t="s">
-        <v>14</v>
-      </c>
-      <c r="F202" t="s">
-        <v>749</v>
-      </c>
-      <c r="G202" t="s">
-        <v>767</v>
-      </c>
-      <c r="I202" t="s">
-        <v>616</v>
       </c>
       <c r="J202" t="s">
         <v>51</v>
@@ -9147,22 +9477,25 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" t="s">
-        <v>768</v>
+        <v>796</v>
+      </c>
+      <c r="B203" t="s">
+        <v>797</v>
       </c>
       <c r="C203" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D203" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="E203" t="s">
         <v>14</v>
       </c>
       <c r="F203" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="G203" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="H203" t="s">
         <v>406</v>
@@ -9171,27 +9504,30 @@
         <v>407</v>
       </c>
       <c r="J203" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="204" spans="1:10">
       <c r="A204" t="s">
-        <v>770</v>
+        <v>799</v>
+      </c>
+      <c r="B204" t="s">
+        <v>800</v>
       </c>
       <c r="C204" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D204" t="s">
-        <v>613</v>
+        <v>175</v>
       </c>
       <c r="E204" t="s">
         <v>14</v>
       </c>
       <c r="F204" t="s">
-        <v>771</v>
+        <v>431</v>
       </c>
       <c r="G204" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
       <c r="H204" t="s">
         <v>81</v>
@@ -9205,54 +9541,60 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" t="s">
-        <v>773</v>
+        <v>802</v>
+      </c>
+      <c r="B205" t="s">
+        <v>803</v>
       </c>
       <c r="C205" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D205" t="s">
-        <v>613</v>
+        <v>175</v>
       </c>
       <c r="E205" t="s">
         <v>14</v>
       </c>
       <c r="F205" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="G205" t="s">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="H205" t="s">
         <v>81</v>
       </c>
       <c r="I205" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="J205" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206" spans="1:10">
       <c r="A206" t="s">
-        <v>775</v>
+        <v>805</v>
+      </c>
+      <c r="B206" t="s">
+        <v>806</v>
       </c>
       <c r="C206" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D206" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E206" t="s">
         <v>14</v>
       </c>
       <c r="F206" t="s">
-        <v>776</v>
+        <v>807</v>
       </c>
       <c r="G206" t="s">
-        <v>777</v>
+        <v>808</v>
       </c>
       <c r="H206" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I206" t="s">
         <v>648</v>
@@ -9263,25 +9605,28 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" t="s">
-        <v>778</v>
+        <v>809</v>
+      </c>
+      <c r="B207" t="s">
+        <v>810</v>
       </c>
       <c r="C207" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D207" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="E207" t="s">
         <v>14</v>
       </c>
       <c r="F207" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="G207" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="H207" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I207" t="s">
         <v>648</v>
@@ -9292,28 +9637,31 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" t="s">
-        <v>782</v>
+        <v>814</v>
+      </c>
+      <c r="B208" t="s">
+        <v>815</v>
       </c>
       <c r="C208" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D208" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="E208" t="s">
         <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="G208" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="H208" t="s">
         <v>116</v>
       </c>
       <c r="I208" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J208" t="s">
         <v>227</v>
@@ -9321,28 +9669,31 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" t="s">
-        <v>783</v>
+        <v>816</v>
+      </c>
+      <c r="B209" t="s">
+        <v>817</v>
       </c>
       <c r="C209" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D209" t="s">
-        <v>784</v>
+        <v>818</v>
       </c>
       <c r="E209" t="s">
         <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>785</v>
+        <v>819</v>
       </c>
       <c r="G209" t="s">
-        <v>786</v>
+        <v>820</v>
       </c>
       <c r="H209" t="s">
+        <v>595</v>
+      </c>
+      <c r="I209" t="s">
         <v>596</v>
-      </c>
-      <c r="I209" t="s">
-        <v>597</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
@@ -9350,28 +9701,31 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" t="s">
-        <v>787</v>
+        <v>821</v>
+      </c>
+      <c r="B210" t="s">
+        <v>822</v>
       </c>
       <c r="C210" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D210" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="E210" t="s">
         <v>570</v>
       </c>
       <c r="F210" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G210" t="s">
-        <v>788</v>
+        <v>823</v>
       </c>
       <c r="H210" t="s">
         <v>439</v>
       </c>
       <c r="I210" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="J210" t="s">
         <v>161</v>
@@ -9379,22 +9733,25 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" t="s">
-        <v>789</v>
+        <v>824</v>
+      </c>
+      <c r="B211" t="s">
+        <v>825</v>
       </c>
       <c r="C211" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D211" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="E211" t="s">
         <v>14</v>
       </c>
       <c r="F211" t="s">
-        <v>790</v>
+        <v>463</v>
       </c>
       <c r="G211" t="s">
-        <v>791</v>
+        <v>826</v>
       </c>
       <c r="H211" t="s">
         <v>81</v>
@@ -9408,22 +9765,25 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" t="s">
-        <v>792</v>
+        <v>827</v>
+      </c>
+      <c r="B212" t="s">
+        <v>828</v>
       </c>
       <c r="C212" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D212" t="s">
-        <v>582</v>
+        <v>119</v>
       </c>
       <c r="E212" t="s">
         <v>14</v>
       </c>
       <c r="F212" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="G212" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="H212" t="s">
         <v>478</v>
@@ -9437,22 +9797,25 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" t="s">
-        <v>794</v>
+        <v>830</v>
+      </c>
+      <c r="B213" t="s">
+        <v>831</v>
       </c>
       <c r="C213" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D213" t="s">
-        <v>604</v>
+        <v>366</v>
       </c>
       <c r="E213" t="s">
         <v>14</v>
       </c>
       <c r="F213" t="s">
-        <v>795</v>
+        <v>832</v>
       </c>
       <c r="G213" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H213" t="s">
         <v>478</v>
@@ -9461,27 +9824,30 @@
         <v>479</v>
       </c>
       <c r="J213" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214" t="s">
-        <v>796</v>
+        <v>833</v>
+      </c>
+      <c r="B214" t="s">
+        <v>834</v>
       </c>
       <c r="C214" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D214" t="s">
-        <v>604</v>
+        <v>366</v>
       </c>
       <c r="E214" t="s">
         <v>14</v>
       </c>
       <c r="F214" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="G214" t="s">
-        <v>797</v>
+        <v>835</v>
       </c>
       <c r="H214" t="s">
         <v>406</v>
@@ -9490,24 +9856,27 @@
         <v>407</v>
       </c>
       <c r="J214" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215" t="s">
-        <v>798</v>
+        <v>836</v>
+      </c>
+      <c r="B215" t="s">
+        <v>837</v>
       </c>
       <c r="C215" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D215" t="s">
-        <v>622</v>
+        <v>236</v>
       </c>
       <c r="E215" t="s">
         <v>14</v>
       </c>
       <c r="F215" t="s">
-        <v>799</v>
+        <v>484</v>
       </c>
       <c r="G215" t="s">
         <v>16</v>
@@ -9524,25 +9893,28 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" t="s">
-        <v>800</v>
+        <v>838</v>
+      </c>
+      <c r="B216" t="s">
+        <v>839</v>
       </c>
       <c r="C216" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D216" t="s">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="E216" t="s">
         <v>14</v>
       </c>
       <c r="F216" t="s">
-        <v>636</v>
+        <v>840</v>
       </c>
       <c r="G216" t="s">
-        <v>801</v>
+        <v>841</v>
       </c>
       <c r="I216" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J216" t="s">
         <v>51</v>
@@ -9550,28 +9922,31 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" t="s">
-        <v>802</v>
+        <v>842</v>
+      </c>
+      <c r="B217" t="s">
+        <v>843</v>
       </c>
       <c r="C217" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D217" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
       </c>
       <c r="F217" t="s">
-        <v>803</v>
+        <v>844</v>
       </c>
       <c r="G217" t="s">
-        <v>804</v>
+        <v>845</v>
       </c>
       <c r="H217" t="s">
-        <v>805</v>
+        <v>846</v>
       </c>
       <c r="I217" t="s">
-        <v>806</v>
+        <v>847</v>
       </c>
       <c r="J217" t="s">
         <v>227</v>
@@ -9579,22 +9954,25 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" t="s">
-        <v>807</v>
+        <v>848</v>
+      </c>
+      <c r="B218" t="s">
+        <v>849</v>
       </c>
       <c r="C218" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D218" t="s">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
       </c>
       <c r="F218" t="s">
-        <v>642</v>
+        <v>473</v>
       </c>
       <c r="G218" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="H218" t="s">
         <v>362</v>
@@ -9608,22 +9986,25 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" t="s">
-        <v>809</v>
+        <v>851</v>
+      </c>
+      <c r="B219" t="s">
+        <v>852</v>
       </c>
       <c r="C219" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D219" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
       <c r="E219" t="s">
         <v>14</v>
       </c>
       <c r="F219" t="s">
-        <v>810</v>
+        <v>559</v>
       </c>
       <c r="G219" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="H219" t="s">
         <v>406</v>
@@ -9637,22 +10018,25 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" t="s">
-        <v>812</v>
+        <v>854</v>
+      </c>
+      <c r="B220" t="s">
+        <v>855</v>
       </c>
       <c r="C220" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D220" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
       <c r="E220" t="s">
         <v>14</v>
       </c>
       <c r="F220" t="s">
-        <v>813</v>
+        <v>856</v>
       </c>
       <c r="G220" t="s">
-        <v>814</v>
+        <v>857</v>
       </c>
       <c r="H220" t="s">
         <v>69</v>
@@ -9661,27 +10045,30 @@
         <v>493</v>
       </c>
       <c r="J220" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="221" spans="1:10">
       <c r="A221" t="s">
-        <v>815</v>
+        <v>858</v>
+      </c>
+      <c r="B221" t="s">
+        <v>859</v>
       </c>
       <c r="C221" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D221" t="s">
-        <v>744</v>
+        <v>27</v>
       </c>
       <c r="E221" t="s">
         <v>14</v>
       </c>
       <c r="F221" t="s">
-        <v>816</v>
+        <v>514</v>
       </c>
       <c r="G221" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="H221" t="s">
         <v>478</v>
@@ -9695,22 +10082,25 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" t="s">
-        <v>817</v>
+        <v>860</v>
+      </c>
+      <c r="B222" t="s">
+        <v>861</v>
       </c>
       <c r="C222" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D222" t="s">
-        <v>639</v>
+        <v>170</v>
       </c>
       <c r="E222" t="s">
         <v>14</v>
       </c>
       <c r="F222" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="G222" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="H222" t="s">
         <v>406</v>
@@ -9719,33 +10109,36 @@
         <v>407</v>
       </c>
       <c r="J222" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223" t="s">
-        <v>819</v>
+        <v>863</v>
+      </c>
+      <c r="B223" t="s">
+        <v>864</v>
       </c>
       <c r="C223" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D223" t="s">
-        <v>604</v>
+        <v>366</v>
       </c>
       <c r="E223" t="s">
         <v>14</v>
       </c>
       <c r="F223" t="s">
-        <v>813</v>
+        <v>856</v>
       </c>
       <c r="G223" t="s">
-        <v>820</v>
+        <v>865</v>
       </c>
       <c r="H223" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="I223" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="J223" t="s">
         <v>227</v>
@@ -9753,28 +10146,31 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" t="s">
-        <v>821</v>
+        <v>866</v>
+      </c>
+      <c r="B224" t="s">
+        <v>867</v>
       </c>
       <c r="C224" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D224" t="s">
-        <v>593</v>
+        <v>296</v>
       </c>
       <c r="E224" t="s">
         <v>14</v>
       </c>
       <c r="F224" t="s">
-        <v>583</v>
+        <v>297</v>
       </c>
       <c r="G224" t="s">
-        <v>822</v>
+        <v>868</v>
       </c>
       <c r="H224" t="s">
         <v>91</v>
       </c>
       <c r="I224" t="s">
-        <v>823</v>
+        <v>869</v>
       </c>
       <c r="J224" t="s">
         <v>227</v>
@@ -9782,22 +10178,25 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" t="s">
-        <v>824</v>
+        <v>870</v>
+      </c>
+      <c r="B225" t="s">
+        <v>871</v>
       </c>
       <c r="C225" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D225" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
       <c r="E225" t="s">
         <v>14</v>
       </c>
       <c r="F225" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G225" t="s">
-        <v>825</v>
+        <v>872</v>
       </c>
       <c r="H225" t="s">
         <v>406</v>
@@ -9806,33 +10205,36 @@
         <v>407</v>
       </c>
       <c r="J225" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="226" spans="1:10">
       <c r="A226" t="s">
-        <v>826</v>
+        <v>873</v>
+      </c>
+      <c r="B226" t="s">
+        <v>874</v>
       </c>
       <c r="C226" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D226" t="s">
-        <v>631</v>
+        <v>13</v>
       </c>
       <c r="E226" t="s">
         <v>14</v>
       </c>
       <c r="F226" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G226" t="s">
-        <v>827</v>
+        <v>875</v>
       </c>
       <c r="H226" t="s">
         <v>116</v>
       </c>
       <c r="I226" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="J226" t="s">
         <v>227</v>
@@ -9840,28 +10242,31 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" t="s">
-        <v>828</v>
+        <v>876</v>
+      </c>
+      <c r="B227" t="s">
+        <v>877</v>
       </c>
       <c r="C227" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D227" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E227" t="s">
         <v>14</v>
       </c>
       <c r="F227" t="s">
-        <v>829</v>
+        <v>878</v>
       </c>
       <c r="G227" t="s">
-        <v>830</v>
+        <v>879</v>
       </c>
       <c r="H227" t="s">
+        <v>595</v>
+      </c>
+      <c r="I227" t="s">
         <v>596</v>
-      </c>
-      <c r="I227" t="s">
-        <v>597</v>
       </c>
       <c r="J227" t="s">
         <v>51</v>
@@ -9869,22 +10274,25 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" t="s">
-        <v>831</v>
+        <v>880</v>
+      </c>
+      <c r="B228" t="s">
+        <v>881</v>
       </c>
       <c r="C228" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D228" t="s">
-        <v>613</v>
+        <v>175</v>
       </c>
       <c r="E228" t="s">
         <v>14</v>
       </c>
       <c r="F228" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="G228" t="s">
-        <v>832</v>
+        <v>882</v>
       </c>
       <c r="H228" t="s">
         <v>478</v>
@@ -9898,28 +10306,31 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" t="s">
-        <v>833</v>
+        <v>883</v>
+      </c>
+      <c r="B229" t="s">
+        <v>884</v>
       </c>
       <c r="C229" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D229" t="s">
-        <v>834</v>
+        <v>885</v>
       </c>
       <c r="E229" t="s">
         <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>835</v>
+        <v>886</v>
       </c>
       <c r="G229" t="s">
         <v>16</v>
       </c>
       <c r="H229" t="s">
+        <v>595</v>
+      </c>
+      <c r="I229" t="s">
         <v>596</v>
-      </c>
-      <c r="I229" t="s">
-        <v>597</v>
       </c>
       <c r="J229" t="s">
         <v>23</v>
@@ -9927,28 +10338,31 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" t="s">
-        <v>836</v>
+        <v>887</v>
+      </c>
+      <c r="B230" t="s">
+        <v>888</v>
       </c>
       <c r="C230" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D230" t="s">
-        <v>837</v>
+        <v>889</v>
       </c>
       <c r="E230" t="s">
         <v>570</v>
       </c>
       <c r="F230" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G230" t="s">
         <v>16</v>
       </c>
       <c r="H230" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I230" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J230" t="s">
         <v>23</v>
@@ -9956,28 +10370,31 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" t="s">
-        <v>838</v>
+        <v>890</v>
+      </c>
+      <c r="B231" t="s">
+        <v>891</v>
       </c>
       <c r="C231" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D231" t="s">
-        <v>837</v>
+        <v>889</v>
       </c>
       <c r="E231" t="s">
         <v>570</v>
       </c>
       <c r="F231" t="s">
-        <v>839</v>
+        <v>892</v>
       </c>
       <c r="G231" t="s">
         <v>16</v>
       </c>
       <c r="H231" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I231" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J231" t="s">
         <v>23</v>

--- a/data_G.xlsx
+++ b/data_G.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="893">
   <si>
     <t>questName</t>
   </si>
@@ -76,6 +76,9 @@
     <t>3600z</t>
   </si>
   <si>
+    <t>0z</t>
+  </si>
+  <si>
     <t>原生林の採集ツアー</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>타임업 혹은 고양이택시티켓(ネコタクチケット) 납품</t>
-  </si>
-  <si>
-    <t>0z</t>
   </si>
   <si>
     <t>12z</t>
@@ -3074,8 +3074,8 @@
   <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="B200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G206" sqref="G206"/>
+      <pane ySplit="1" topLeftCell="F159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3152,34 +3152,40 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3242,6 +3248,9 @@
       <c r="I5" t="s">
         <v>37</v>
       </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -3260,16 +3269,19 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>24</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3289,16 +3301,19 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3318,16 +3333,19 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3411,16 +3429,19 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
         <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3594,7 +3615,7 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -3696,16 +3717,19 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3768,6 +3792,9 @@
       <c r="I22" t="s">
         <v>116</v>
       </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
@@ -3786,16 +3813,19 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3911,16 +3941,19 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3940,16 +3973,19 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s">
         <v>24</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -4353,16 +4389,19 @@
         <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
         <v>24</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -4617,6 +4656,9 @@
       <c r="I49" t="s">
         <v>32</v>
       </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
@@ -4646,6 +4688,9 @@
       <c r="I50" t="s">
         <v>227</v>
       </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
@@ -4760,16 +4805,19 @@
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I54" t="s">
         <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -4789,16 +4837,19 @@
         <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G55" t="s">
         <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s">
         <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -4829,6 +4880,9 @@
       <c r="I56" t="s">
         <v>246</v>
       </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
@@ -4905,7 +4959,7 @@
         <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -5129,7 +5183,7 @@
         <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -5231,16 +5285,19 @@
         <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I69" t="s">
         <v>24</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -5452,16 +5509,19 @@
         <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I76" t="s">
         <v>24</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -5635,7 +5695,7 @@
         <v>157</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -5651,6 +5711,9 @@
       </c>
       <c r="I82" t="s">
         <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -5932,13 +5995,13 @@
         <v>385</v>
       </c>
       <c r="H91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J91" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -6130,7 +6193,7 @@
         <v>398</v>
       </c>
       <c r="J97" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -6240,7 +6303,7 @@
         <v>360</v>
       </c>
       <c r="D101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -6258,7 +6321,7 @@
         <v>424</v>
       </c>
       <c r="J101" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -6272,7 +6335,7 @@
         <v>360</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -6482,7 +6545,7 @@
         <v>398</v>
       </c>
       <c r="J108" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -6514,7 +6577,7 @@
         <v>454</v>
       </c>
       <c r="J109" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -6624,7 +6687,7 @@
         <v>360</v>
       </c>
       <c r="D113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
@@ -6738,7 +6801,7 @@
         <v>369</v>
       </c>
       <c r="J116" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -6912,7 +6975,7 @@
         <v>360</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -6994,7 +7057,7 @@
         <v>146</v>
       </c>
       <c r="J124" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -7046,16 +7109,19 @@
         <v>14</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G126" t="s">
         <v>16</v>
       </c>
       <c r="H126" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I126" t="s">
         <v>24</v>
+      </c>
+      <c r="J126" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -7197,7 +7263,7 @@
         <v>360</v>
       </c>
       <c r="D131" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -7599,7 +7665,7 @@
         <v>572</v>
       </c>
       <c r="J143" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -7727,7 +7793,7 @@
         <v>590</v>
       </c>
       <c r="J147" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -7773,7 +7839,7 @@
         <v>582</v>
       </c>
       <c r="D149" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E149" t="s">
         <v>14</v>
@@ -7919,7 +7985,7 @@
         <v>618</v>
       </c>
       <c r="J153" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -8079,7 +8145,7 @@
         <v>369</v>
       </c>
       <c r="J158" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -8157,7 +8223,7 @@
         <v>582</v>
       </c>
       <c r="D161" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E161" t="s">
         <v>14</v>
@@ -8207,7 +8273,7 @@
         <v>657</v>
       </c>
       <c r="J162" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -8264,6 +8330,9 @@
       <c r="G164" t="s">
         <v>665</v>
       </c>
+      <c r="H164" t="s">
+        <v>19</v>
+      </c>
       <c r="I164" t="s">
         <v>666</v>
       </c>
@@ -8421,6 +8490,9 @@
       <c r="G169" t="s">
         <v>686</v>
       </c>
+      <c r="H169" t="s">
+        <v>19</v>
+      </c>
       <c r="I169" t="s">
         <v>613</v>
       </c>
@@ -8535,7 +8607,7 @@
         <v>582</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
@@ -8617,7 +8689,7 @@
         <v>263</v>
       </c>
       <c r="J175" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -8663,7 +8735,7 @@
         <v>582</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -8713,7 +8785,7 @@
         <v>444</v>
       </c>
       <c r="J178" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -8937,7 +9009,7 @@
         <v>58</v>
       </c>
       <c r="J185" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -9065,7 +9137,7 @@
         <v>666</v>
       </c>
       <c r="J189" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -9122,6 +9194,9 @@
       <c r="G191" t="s">
         <v>762</v>
       </c>
+      <c r="H191" t="s">
+        <v>19</v>
+      </c>
       <c r="I191" t="s">
         <v>666</v>
       </c>
@@ -9172,7 +9247,7 @@
         <v>582</v>
       </c>
       <c r="D193" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -9215,6 +9290,9 @@
       <c r="G194" t="s">
         <v>771</v>
       </c>
+      <c r="H194" t="s">
+        <v>19</v>
+      </c>
       <c r="I194" t="s">
         <v>613</v>
       </c>
@@ -9468,6 +9546,9 @@
       <c r="G202" t="s">
         <v>795</v>
       </c>
+      <c r="H202" t="s">
+        <v>19</v>
+      </c>
       <c r="I202" t="s">
         <v>613</v>
       </c>
@@ -9888,7 +9969,7 @@
         <v>263</v>
       </c>
       <c r="J215" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -9913,6 +9994,9 @@
       <c r="G216" t="s">
         <v>841</v>
       </c>
+      <c r="H216" t="s">
+        <v>19</v>
+      </c>
       <c r="I216" t="s">
         <v>613</v>
       </c>
@@ -9963,7 +10047,7 @@
         <v>582</v>
       </c>
       <c r="D218" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E218" t="s">
         <v>14</v>
@@ -10333,7 +10417,7 @@
         <v>596</v>
       </c>
       <c r="J229" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -10365,7 +10449,7 @@
         <v>618</v>
       </c>
       <c r="J230" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -10397,7 +10481,7 @@
         <v>618</v>
       </c>
       <c r="J231" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data_G.xlsx
+++ b/data_G.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19017"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2098,7 +2098,7 @@
     <t>騎士と氷海の決闘</t>
   </si>
   <si>
-    <t>기사와 빙해와 결전</t>
+    <t>기사와 빙해의 결전</t>
   </si>
   <si>
     <t>베리오로스(ベリオロス)의 머리와 가시 파괴</t>
@@ -3074,8 +3074,8 @@
   <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <pane ySplit="1" topLeftCell="F159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H164" sqref="H164"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
